--- a/Metodos ( relaciones con la tabla ).xlsx
+++ b/Metodos ( relaciones con la tabla ).xlsx
@@ -1061,79 +1061,397 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1250,7 +1568,10 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1269,354 +1590,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1625,94 +1598,121 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2011,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2021,6 +2021,7 @@
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" customWidth="1"/>
     <col min="18" max="22" width="11.28515625" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1">
@@ -2051,29 +2052,29 @@
       <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="108" t="s">
+      <c r="C2" s="214"/>
+      <c r="D2" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="109"/>
+      <c r="E2" s="218"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="98" t="s">
+      <c r="K2" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="207"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="63"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="169"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
@@ -2085,21 +2086,21 @@
       <c r="A3" s="15">
         <v>6</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="220"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="103"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="210"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="66"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="172"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -2140,20 +2141,20 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
+      <c r="L5" s="233"/>
+      <c r="M5" s="233"/>
+      <c r="N5" s="234"/>
+      <c r="O5" s="234"/>
+      <c r="P5" s="234"/>
+      <c r="Q5" s="234"/>
+      <c r="R5" s="234"/>
+      <c r="S5" s="234"/>
+      <c r="T5" s="234"/>
+      <c r="U5" s="234"/>
+      <c r="V5" s="235"/>
       <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23" ht="21.75" thickBot="1">
@@ -2168,32 +2169,32 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="217" t="s">
+      <c r="K6" s="236" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="218"/>
-      <c r="M6" s="219" t="s">
+      <c r="L6" s="237"/>
+      <c r="M6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="220" t="s">
+      <c r="N6" s="211" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="221"/>
-      <c r="P6" s="222" t="s">
+      <c r="O6" s="212"/>
+      <c r="P6" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="223"/>
-      <c r="R6" s="224" t="s">
+      <c r="Q6" s="251"/>
+      <c r="R6" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="225"/>
-      <c r="T6" s="226" t="s">
+      <c r="S6" s="249"/>
+      <c r="T6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="227" t="s">
+      <c r="U6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="V6" s="211" t="s">
+      <c r="V6" s="34" t="s">
         <v>0</v>
       </c>
       <c r="W6" s="7"/>
@@ -2208,29 +2209,29 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="121" t="s">
+      <c r="K7" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="122"/>
-      <c r="M7" s="124">
+      <c r="L7" s="149"/>
+      <c r="M7" s="152">
         <v>1</v>
       </c>
-      <c r="N7" s="136">
+      <c r="N7" s="69">
         <v>2</v>
       </c>
-      <c r="O7" s="126"/>
-      <c r="P7" s="212">
+      <c r="O7" s="70"/>
+      <c r="P7" s="203">
         <v>13</v>
       </c>
-      <c r="Q7" s="213"/>
-      <c r="R7" s="214">
+      <c r="Q7" s="204"/>
+      <c r="R7" s="146">
         <v>1</v>
       </c>
-      <c r="S7" s="215"/>
-      <c r="T7" s="216" t="s">
+      <c r="S7" s="147"/>
+      <c r="T7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="216" t="s">
+      <c r="U7" s="35" t="s">
         <v>33</v>
       </c>
       <c r="V7" s="29">
@@ -2248,15 +2249,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="201"/>
-      <c r="P8" s="196"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="52"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="142"/>
+      <c r="Q8" s="143"/>
+      <c r="R8" s="242"/>
+      <c r="S8" s="243"/>
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
       <c r="V8" s="31"/>
@@ -2286,15 +2287,15 @@
       </c>
       <c r="H9" s="7"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="201"/>
-      <c r="P9" s="196"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="52"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="143"/>
+      <c r="R9" s="242"/>
+      <c r="S9" s="243"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
       <c r="V9" s="31"/>
@@ -2324,15 +2325,15 @@
       </c>
       <c r="H10" s="7"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="206"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="197"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="54"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="244"/>
+      <c r="S10" s="245"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
       <c r="V10" s="33"/>
@@ -2362,25 +2363,25 @@
       </c>
       <c r="H11" s="7"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="127" t="s">
+      <c r="K11" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="128"/>
-      <c r="M11" s="123">
+      <c r="L11" s="155"/>
+      <c r="M11" s="153">
         <v>1</v>
       </c>
-      <c r="N11" s="208">
+      <c r="N11" s="75">
         <v>6</v>
       </c>
-      <c r="O11" s="209"/>
-      <c r="P11" s="195">
+      <c r="O11" s="76"/>
+      <c r="P11" s="163">
         <v>17</v>
       </c>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="55">
+      <c r="Q11" s="164"/>
+      <c r="R11" s="246">
         <v>5</v>
       </c>
-      <c r="S11" s="56"/>
+      <c r="S11" s="247"/>
       <c r="T11" s="28" t="s">
         <v>7</v>
       </c>
@@ -2402,15 +2403,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="196"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="58"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="142"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="158"/>
+      <c r="S12" s="159"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
       <c r="V12" s="31"/>
@@ -2418,35 +2419,35 @@
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="223"/>
       <c r="G13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="7"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="115" t="s">
+      <c r="K13" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="116"/>
-      <c r="M13" s="133">
+      <c r="L13" s="225"/>
+      <c r="M13" s="74">
         <v>1</v>
       </c>
-      <c r="N13" s="44"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="196">
+      <c r="N13" s="71"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="142">
         <v>18</v>
       </c>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="57">
+      <c r="Q13" s="143"/>
+      <c r="R13" s="158">
         <v>6</v>
       </c>
-      <c r="S13" s="58"/>
+      <c r="S13" s="159"/>
       <c r="T13" s="30" t="s">
         <v>8</v>
       </c>
@@ -2459,10 +2460,10 @@
       <c r="W13" s="7"/>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="60"/>
+      <c r="B14" s="166"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2470,15 +2471,15 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="210"/>
-      <c r="P14" s="198"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="47"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="160"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="26"/>
@@ -2494,15 +2495,15 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="199"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="136"/>
-      <c r="S15" s="137"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="238"/>
+      <c r="Q15" s="239"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="126"/>
       <c r="T15" s="23"/>
       <c r="U15" s="23"/>
       <c r="V15" s="27"/>
@@ -2518,15 +2519,15 @@
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="202"/>
-      <c r="O16" s="203"/>
-      <c r="P16" s="200"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="45"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="240"/>
+      <c r="Q16" s="241"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="127"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="24"/>
@@ -2534,15 +2535,15 @@
     </row>
     <row r="17" spans="10:23" ht="20.25" customHeight="1">
       <c r="J17" s="5"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="202"/>
-      <c r="O17" s="203"/>
-      <c r="P17" s="200"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="45"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="184"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="240"/>
+      <c r="Q17" s="241"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="127"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="24"/>
@@ -2550,15 +2551,15 @@
     </row>
     <row r="18" spans="10:23" ht="20.25" customHeight="1" thickBot="1">
       <c r="J18" s="5"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="204"/>
-      <c r="O18" s="205"/>
-      <c r="P18" s="198"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="47"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="186"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="160"/>
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
       <c r="V18" s="26"/>
@@ -2583,22 +2584,22 @@
     <row r="20" spans="10:23">
       <c r="J20" s="5"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="85" t="s">
+      <c r="L20" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="86"/>
-      <c r="N20" s="89" t="s">
+      <c r="M20" s="192"/>
+      <c r="N20" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="90"/>
-      <c r="P20" s="93" t="s">
+      <c r="O20" s="196"/>
+      <c r="P20" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="81" t="s">
+      <c r="Q20" s="200"/>
+      <c r="R20" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="S20" s="82"/>
+      <c r="S20" s="188"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
@@ -2607,14 +2608,14 @@
     <row r="21" spans="10:23" ht="15.75" thickBot="1">
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="84"/>
+      <c r="L21" s="193"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="197"/>
+      <c r="O21" s="198"/>
+      <c r="P21" s="201"/>
+      <c r="Q21" s="202"/>
+      <c r="R21" s="189"/>
+      <c r="S21" s="190"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
@@ -2623,16 +2624,16 @@
     <row r="22" spans="10:23">
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="34" t="s">
+      <c r="L22" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="36"/>
+      <c r="M22" s="227"/>
+      <c r="N22" s="227"/>
+      <c r="O22" s="227"/>
+      <c r="P22" s="227"/>
+      <c r="Q22" s="227"/>
+      <c r="R22" s="227"/>
+      <c r="S22" s="228"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
@@ -2641,14 +2642,14 @@
     <row r="23" spans="10:23" ht="15.75" thickBot="1">
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="39"/>
+      <c r="L23" s="229"/>
+      <c r="M23" s="230"/>
+      <c r="N23" s="230"/>
+      <c r="O23" s="230"/>
+      <c r="P23" s="230"/>
+      <c r="Q23" s="230"/>
+      <c r="R23" s="230"/>
+      <c r="S23" s="231"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
@@ -2688,695 +2689,787 @@
     </row>
     <row r="27" spans="10:23" ht="15.75" thickBot="1"/>
     <row r="28" spans="10:23">
-      <c r="J28" s="67" t="s">
+      <c r="J28" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="69"/>
+      <c r="K28" s="174"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="174"/>
+      <c r="O28" s="174"/>
+      <c r="P28" s="174"/>
+      <c r="Q28" s="174"/>
+      <c r="R28" s="174"/>
+      <c r="S28" s="174"/>
+      <c r="T28" s="174"/>
+      <c r="U28" s="174"/>
+      <c r="V28" s="174"/>
+      <c r="W28" s="175"/>
     </row>
     <row r="29" spans="10:23" ht="15.75" thickBot="1">
-      <c r="J29" s="70"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="72"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="177"/>
+      <c r="Q29" s="177"/>
+      <c r="R29" s="177"/>
+      <c r="S29" s="177"/>
+      <c r="T29" s="177"/>
+      <c r="U29" s="177"/>
+      <c r="V29" s="177"/>
+      <c r="W29" s="178"/>
     </row>
     <row r="30" spans="10:23" ht="15.75" thickBot="1"/>
     <row r="31" spans="10:23">
-      <c r="J31" s="138" t="s">
+      <c r="J31" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="139"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="139"/>
-      <c r="N31" s="139"/>
-      <c r="O31" s="139"/>
-      <c r="P31" s="139"/>
-      <c r="Q31" s="139"/>
-      <c r="R31" s="139"/>
-      <c r="S31" s="139"/>
-      <c r="T31" s="139"/>
-      <c r="U31" s="139"/>
-      <c r="V31" s="139"/>
-      <c r="W31" s="140"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="129"/>
+      <c r="T31" s="129"/>
+      <c r="U31" s="129"/>
+      <c r="V31" s="129"/>
+      <c r="W31" s="130"/>
     </row>
     <row r="32" spans="10:23" ht="15.75" thickBot="1">
-      <c r="J32" s="141"/>
-      <c r="K32" s="142"/>
-      <c r="L32" s="142"/>
-      <c r="M32" s="142"/>
-      <c r="N32" s="142"/>
-      <c r="O32" s="142"/>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="142"/>
-      <c r="R32" s="142"/>
-      <c r="S32" s="142"/>
-      <c r="T32" s="142"/>
-      <c r="U32" s="142"/>
-      <c r="V32" s="142"/>
-      <c r="W32" s="143"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="132"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="132"/>
+      <c r="U32" s="132"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="133"/>
     </row>
     <row r="33" spans="2:23">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="H33" s="228" t="s">
+      <c r="H33" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="229"/>
-      <c r="J33" s="146" t="s">
+      <c r="I33" s="40"/>
+      <c r="J33" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="146"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="144"/>
-      <c r="N33" s="144"/>
-      <c r="O33" s="144"/>
-      <c r="P33" s="144"/>
-      <c r="Q33" s="144"/>
-      <c r="R33" s="144"/>
-      <c r="S33" s="144"/>
-      <c r="T33" s="144"/>
-      <c r="U33" s="144"/>
-      <c r="V33" s="144"/>
-      <c r="W33" s="160"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="136"/>
+      <c r="Q33" s="136"/>
+      <c r="R33" s="136"/>
+      <c r="S33" s="136"/>
+      <c r="T33" s="136"/>
+      <c r="U33" s="136"/>
+      <c r="V33" s="136"/>
+      <c r="W33" s="137"/>
     </row>
     <row r="34" spans="2:23">
-      <c r="H34" s="230"/>
-      <c r="I34" s="231"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="161"/>
-      <c r="M34" s="145"/>
-      <c r="N34" s="145"/>
-      <c r="O34" s="145"/>
-      <c r="P34" s="145"/>
-      <c r="Q34" s="145"/>
-      <c r="R34" s="145"/>
-      <c r="S34" s="145"/>
-      <c r="T34" s="145"/>
-      <c r="U34" s="145"/>
-      <c r="V34" s="145"/>
-      <c r="W34" s="162"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="104"/>
+      <c r="R34" s="104"/>
+      <c r="S34" s="104"/>
+      <c r="T34" s="104"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="104"/>
+      <c r="W34" s="105"/>
     </row>
     <row r="35" spans="2:23">
-      <c r="H35" s="230"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="148" t="s">
+      <c r="H35" s="41"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="K35" s="148"/>
-      <c r="L35" s="161"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
-      <c r="O35" s="145"/>
-      <c r="P35" s="145"/>
-      <c r="Q35" s="145"/>
-      <c r="R35" s="145"/>
-      <c r="S35" s="145"/>
-      <c r="T35" s="145"/>
-      <c r="U35" s="145"/>
-      <c r="V35" s="145"/>
-      <c r="W35" s="162"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="104"/>
+      <c r="T35" s="104"/>
+      <c r="U35" s="104"/>
+      <c r="V35" s="104"/>
+      <c r="W35" s="105"/>
     </row>
     <row r="36" spans="2:23">
-      <c r="H36" s="230"/>
-      <c r="I36" s="231"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="161"/>
-      <c r="M36" s="145"/>
-      <c r="N36" s="145"/>
-      <c r="O36" s="145"/>
-      <c r="P36" s="145"/>
-      <c r="Q36" s="145"/>
-      <c r="R36" s="145"/>
-      <c r="S36" s="145"/>
-      <c r="T36" s="145"/>
-      <c r="U36" s="145"/>
-      <c r="V36" s="145"/>
-      <c r="W36" s="162"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="104"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="104"/>
+      <c r="R36" s="104"/>
+      <c r="S36" s="104"/>
+      <c r="T36" s="104"/>
+      <c r="U36" s="104"/>
+      <c r="V36" s="104"/>
+      <c r="W36" s="105"/>
     </row>
     <row r="37" spans="2:23">
-      <c r="H37" s="230"/>
-      <c r="I37" s="231"/>
-      <c r="J37" s="148" t="s">
+      <c r="H37" s="41"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="K37" s="148"/>
-      <c r="L37" s="161"/>
-      <c r="M37" s="145"/>
-      <c r="N37" s="145"/>
-      <c r="O37" s="145"/>
-      <c r="P37" s="145"/>
-      <c r="Q37" s="145"/>
-      <c r="R37" s="145"/>
-      <c r="S37" s="145"/>
-      <c r="T37" s="145"/>
-      <c r="U37" s="145"/>
-      <c r="V37" s="145"/>
-      <c r="W37" s="162"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="104"/>
+      <c r="N37" s="104"/>
+      <c r="O37" s="104"/>
+      <c r="P37" s="104"/>
+      <c r="Q37" s="104"/>
+      <c r="R37" s="104"/>
+      <c r="S37" s="104"/>
+      <c r="T37" s="104"/>
+      <c r="U37" s="104"/>
+      <c r="V37" s="104"/>
+      <c r="W37" s="105"/>
     </row>
     <row r="38" spans="2:23">
-      <c r="H38" s="230"/>
-      <c r="I38" s="231"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="145"/>
-      <c r="N38" s="145"/>
-      <c r="O38" s="145"/>
-      <c r="P38" s="145"/>
-      <c r="Q38" s="145"/>
-      <c r="R38" s="145"/>
-      <c r="S38" s="145"/>
-      <c r="T38" s="145"/>
-      <c r="U38" s="145"/>
-      <c r="V38" s="145"/>
-      <c r="W38" s="162"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="104"/>
+      <c r="U38" s="104"/>
+      <c r="V38" s="104"/>
+      <c r="W38" s="105"/>
     </row>
     <row r="39" spans="2:23">
-      <c r="H39" s="230"/>
-      <c r="I39" s="231"/>
-      <c r="J39" s="148" t="s">
+      <c r="H39" s="41"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="K39" s="148"/>
-      <c r="L39" s="161"/>
-      <c r="M39" s="145"/>
-      <c r="N39" s="145"/>
-      <c r="O39" s="145"/>
-      <c r="P39" s="145"/>
-      <c r="Q39" s="145"/>
-      <c r="R39" s="145"/>
-      <c r="S39" s="145"/>
-      <c r="T39" s="145"/>
-      <c r="U39" s="145"/>
-      <c r="V39" s="145"/>
-      <c r="W39" s="162"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="104"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="104"/>
+      <c r="T39" s="104"/>
+      <c r="U39" s="104"/>
+      <c r="V39" s="104"/>
+      <c r="W39" s="105"/>
     </row>
     <row r="40" spans="2:23" ht="15.75" thickBot="1">
-      <c r="H40" s="240"/>
-      <c r="I40" s="241"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="163"/>
-      <c r="M40" s="164"/>
-      <c r="N40" s="164"/>
-      <c r="O40" s="164"/>
-      <c r="P40" s="164"/>
-      <c r="Q40" s="164"/>
-      <c r="R40" s="164"/>
-      <c r="S40" s="164"/>
-      <c r="T40" s="164"/>
-      <c r="U40" s="164"/>
-      <c r="V40" s="164"/>
-      <c r="W40" s="165"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="107"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="107"/>
+      <c r="V40" s="107"/>
+      <c r="W40" s="108"/>
     </row>
     <row r="41" spans="2:23">
-      <c r="H41" s="244" t="s">
+      <c r="H41" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="I41" s="245"/>
-      <c r="J41" s="181" t="s">
+      <c r="I41" s="46"/>
+      <c r="J41" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="K41" s="181"/>
-      <c r="L41" s="182"/>
-      <c r="M41" s="183"/>
-      <c r="N41" s="183"/>
-      <c r="O41" s="183"/>
-      <c r="P41" s="183"/>
-      <c r="Q41" s="183"/>
-      <c r="R41" s="183"/>
-      <c r="S41" s="183"/>
-      <c r="T41" s="183"/>
-      <c r="U41" s="183"/>
-      <c r="V41" s="183"/>
-      <c r="W41" s="184"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="109"/>
+      <c r="M41" s="110"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="110"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="110"/>
+      <c r="R41" s="110"/>
+      <c r="S41" s="110"/>
+      <c r="T41" s="110"/>
+      <c r="U41" s="110"/>
+      <c r="V41" s="110"/>
+      <c r="W41" s="111"/>
     </row>
     <row r="42" spans="2:23">
-      <c r="H42" s="232"/>
-      <c r="I42" s="233"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="169"/>
-      <c r="M42" s="170"/>
-      <c r="N42" s="170"/>
-      <c r="O42" s="170"/>
-      <c r="P42" s="170"/>
-      <c r="Q42" s="170"/>
-      <c r="R42" s="170"/>
-      <c r="S42" s="170"/>
-      <c r="T42" s="170"/>
-      <c r="U42" s="170"/>
-      <c r="V42" s="170"/>
-      <c r="W42" s="171"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="119"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="96"/>
     </row>
     <row r="43" spans="2:23">
-      <c r="H43" s="232"/>
-      <c r="I43" s="233"/>
-      <c r="J43" s="151" t="s">
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="K43" s="151"/>
-      <c r="L43" s="169"/>
-      <c r="M43" s="170"/>
-      <c r="N43" s="170"/>
-      <c r="O43" s="170"/>
-      <c r="P43" s="170"/>
-      <c r="Q43" s="170"/>
-      <c r="R43" s="170"/>
-      <c r="S43" s="170"/>
-      <c r="T43" s="170"/>
-      <c r="U43" s="170"/>
-      <c r="V43" s="170"/>
-      <c r="W43" s="171"/>
+      <c r="K43" s="118"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="96"/>
     </row>
     <row r="44" spans="2:23">
-      <c r="H44" s="232"/>
-      <c r="I44" s="233"/>
-      <c r="J44" s="150"/>
-      <c r="K44" s="150"/>
-      <c r="L44" s="169"/>
-      <c r="M44" s="170"/>
-      <c r="N44" s="170"/>
-      <c r="O44" s="170"/>
-      <c r="P44" s="170"/>
-      <c r="Q44" s="170"/>
-      <c r="R44" s="170"/>
-      <c r="S44" s="170"/>
-      <c r="T44" s="170"/>
-      <c r="U44" s="170"/>
-      <c r="V44" s="170"/>
-      <c r="W44" s="171"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="96"/>
     </row>
     <row r="45" spans="2:23">
-      <c r="H45" s="232"/>
-      <c r="I45" s="233"/>
-      <c r="J45" s="151" t="s">
+      <c r="H45" s="47"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="K45" s="151"/>
-      <c r="L45" s="169"/>
-      <c r="M45" s="170"/>
-      <c r="N45" s="170"/>
-      <c r="O45" s="170"/>
-      <c r="P45" s="170"/>
-      <c r="Q45" s="170"/>
-      <c r="R45" s="170"/>
-      <c r="S45" s="170"/>
-      <c r="T45" s="170"/>
-      <c r="U45" s="170"/>
-      <c r="V45" s="170"/>
-      <c r="W45" s="171"/>
+      <c r="K45" s="118"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="95"/>
+      <c r="W45" s="96"/>
     </row>
     <row r="46" spans="2:23">
-      <c r="H46" s="232"/>
-      <c r="I46" s="233"/>
-      <c r="J46" s="150"/>
-      <c r="K46" s="150"/>
-      <c r="L46" s="169"/>
-      <c r="M46" s="170"/>
-      <c r="N46" s="170"/>
-      <c r="O46" s="170"/>
-      <c r="P46" s="170"/>
-      <c r="Q46" s="170"/>
-      <c r="R46" s="170"/>
-      <c r="S46" s="170"/>
-      <c r="T46" s="170"/>
-      <c r="U46" s="170"/>
-      <c r="V46" s="170"/>
-      <c r="W46" s="171"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="95"/>
+      <c r="S46" s="95"/>
+      <c r="T46" s="95"/>
+      <c r="U46" s="95"/>
+      <c r="V46" s="95"/>
+      <c r="W46" s="96"/>
     </row>
     <row r="47" spans="2:23">
-      <c r="H47" s="232"/>
-      <c r="I47" s="233"/>
-      <c r="J47" s="151" t="s">
+      <c r="H47" s="47"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="K47" s="151"/>
-      <c r="L47" s="169"/>
-      <c r="M47" s="170"/>
-      <c r="N47" s="170"/>
-      <c r="O47" s="170"/>
-      <c r="P47" s="170"/>
-      <c r="Q47" s="170"/>
-      <c r="R47" s="170"/>
-      <c r="S47" s="170"/>
-      <c r="T47" s="170"/>
-      <c r="U47" s="170"/>
-      <c r="V47" s="170"/>
-      <c r="W47" s="171"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="95"/>
+      <c r="U47" s="95"/>
+      <c r="V47" s="95"/>
+      <c r="W47" s="96"/>
     </row>
     <row r="48" spans="2:23" ht="15.75" thickBot="1">
-      <c r="H48" s="246"/>
-      <c r="I48" s="247"/>
-      <c r="J48" s="181"/>
-      <c r="K48" s="181"/>
-      <c r="L48" s="185"/>
-      <c r="M48" s="186"/>
-      <c r="N48" s="186"/>
-      <c r="O48" s="186"/>
-      <c r="P48" s="186"/>
-      <c r="Q48" s="186"/>
-      <c r="R48" s="186"/>
-      <c r="S48" s="186"/>
-      <c r="T48" s="186"/>
-      <c r="U48" s="186"/>
-      <c r="V48" s="186"/>
-      <c r="W48" s="187"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="97"/>
+      <c r="M48" s="98"/>
+      <c r="N48" s="98"/>
+      <c r="O48" s="98"/>
+      <c r="P48" s="98"/>
+      <c r="Q48" s="98"/>
+      <c r="R48" s="98"/>
+      <c r="S48" s="98"/>
+      <c r="T48" s="98"/>
+      <c r="U48" s="98"/>
+      <c r="V48" s="98"/>
+      <c r="W48" s="99"/>
     </row>
     <row r="49" spans="8:23">
-      <c r="H49" s="248" t="s">
+      <c r="H49" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="249"/>
-      <c r="J49" s="152" t="s">
+      <c r="I49" s="52"/>
+      <c r="J49" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="K49" s="152"/>
-      <c r="L49" s="192"/>
-      <c r="M49" s="193"/>
-      <c r="N49" s="193"/>
-      <c r="O49" s="193"/>
-      <c r="P49" s="193"/>
-      <c r="Q49" s="193"/>
-      <c r="R49" s="193"/>
-      <c r="S49" s="193"/>
-      <c r="T49" s="193"/>
-      <c r="U49" s="193"/>
-      <c r="V49" s="193"/>
-      <c r="W49" s="194"/>
+      <c r="K49" s="115"/>
+      <c r="L49" s="100"/>
+      <c r="M49" s="101"/>
+      <c r="N49" s="101"/>
+      <c r="O49" s="101"/>
+      <c r="P49" s="101"/>
+      <c r="Q49" s="101"/>
+      <c r="R49" s="101"/>
+      <c r="S49" s="101"/>
+      <c r="T49" s="101"/>
+      <c r="U49" s="101"/>
+      <c r="V49" s="101"/>
+      <c r="W49" s="102"/>
     </row>
     <row r="50" spans="8:23">
-      <c r="H50" s="234"/>
-      <c r="I50" s="235"/>
-      <c r="J50" s="153"/>
-      <c r="K50" s="153"/>
-      <c r="L50" s="166"/>
-      <c r="M50" s="167"/>
-      <c r="N50" s="167"/>
-      <c r="O50" s="167"/>
-      <c r="P50" s="167"/>
-      <c r="Q50" s="167"/>
-      <c r="R50" s="167"/>
-      <c r="S50" s="167"/>
-      <c r="T50" s="167"/>
-      <c r="U50" s="167"/>
-      <c r="V50" s="167"/>
-      <c r="W50" s="168"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="116"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="89"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="89"/>
+      <c r="W50" s="90"/>
     </row>
     <row r="51" spans="8:23">
-      <c r="H51" s="234"/>
-      <c r="I51" s="235"/>
-      <c r="J51" s="154" t="s">
+      <c r="H51" s="53"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="K51" s="154"/>
-      <c r="L51" s="166"/>
-      <c r="M51" s="167"/>
-      <c r="N51" s="167"/>
-      <c r="O51" s="167"/>
-      <c r="P51" s="167"/>
-      <c r="Q51" s="167"/>
-      <c r="R51" s="167"/>
-      <c r="S51" s="167"/>
-      <c r="T51" s="167"/>
-      <c r="U51" s="167"/>
-      <c r="V51" s="167"/>
-      <c r="W51" s="168"/>
+      <c r="K51" s="121"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="89"/>
+      <c r="R51" s="89"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="89"/>
+      <c r="V51" s="89"/>
+      <c r="W51" s="90"/>
     </row>
     <row r="52" spans="8:23">
-      <c r="H52" s="234"/>
-      <c r="I52" s="235"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="153"/>
-      <c r="L52" s="166"/>
-      <c r="M52" s="167"/>
-      <c r="N52" s="167"/>
-      <c r="O52" s="167"/>
-      <c r="P52" s="167"/>
-      <c r="Q52" s="167"/>
-      <c r="R52" s="167"/>
-      <c r="S52" s="167"/>
-      <c r="T52" s="167"/>
-      <c r="U52" s="167"/>
-      <c r="V52" s="167"/>
-      <c r="W52" s="168"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="88"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="89"/>
+      <c r="W52" s="90"/>
     </row>
     <row r="53" spans="8:23">
-      <c r="H53" s="234"/>
-      <c r="I53" s="235"/>
-      <c r="J53" s="154" t="s">
+      <c r="H53" s="53"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="K53" s="154"/>
-      <c r="L53" s="166"/>
-      <c r="M53" s="167"/>
-      <c r="N53" s="167"/>
-      <c r="O53" s="167"/>
-      <c r="P53" s="167"/>
-      <c r="Q53" s="167"/>
-      <c r="R53" s="167"/>
-      <c r="S53" s="167"/>
-      <c r="T53" s="167"/>
-      <c r="U53" s="167"/>
-      <c r="V53" s="167"/>
-      <c r="W53" s="168"/>
+      <c r="K53" s="121"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="89"/>
+      <c r="O53" s="89"/>
+      <c r="P53" s="89"/>
+      <c r="Q53" s="89"/>
+      <c r="R53" s="89"/>
+      <c r="S53" s="89"/>
+      <c r="T53" s="89"/>
+      <c r="U53" s="89"/>
+      <c r="V53" s="89"/>
+      <c r="W53" s="90"/>
     </row>
     <row r="54" spans="8:23">
-      <c r="H54" s="234"/>
-      <c r="I54" s="235"/>
-      <c r="J54" s="153"/>
-      <c r="K54" s="153"/>
-      <c r="L54" s="166"/>
-      <c r="M54" s="167"/>
-      <c r="N54" s="167"/>
-      <c r="O54" s="167"/>
-      <c r="P54" s="167"/>
-      <c r="Q54" s="167"/>
-      <c r="R54" s="167"/>
-      <c r="S54" s="167"/>
-      <c r="T54" s="167"/>
-      <c r="U54" s="167"/>
-      <c r="V54" s="167"/>
-      <c r="W54" s="168"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="88"/>
+      <c r="M54" s="89"/>
+      <c r="N54" s="89"/>
+      <c r="O54" s="89"/>
+      <c r="P54" s="89"/>
+      <c r="Q54" s="89"/>
+      <c r="R54" s="89"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="89"/>
+      <c r="V54" s="89"/>
+      <c r="W54" s="90"/>
     </row>
     <row r="55" spans="8:23">
-      <c r="H55" s="234"/>
-      <c r="I55" s="235"/>
-      <c r="J55" s="154" t="s">
+      <c r="H55" s="53"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="K55" s="154"/>
-      <c r="L55" s="166"/>
-      <c r="M55" s="167"/>
-      <c r="N55" s="167"/>
-      <c r="O55" s="167"/>
-      <c r="P55" s="167"/>
-      <c r="Q55" s="167"/>
-      <c r="R55" s="167"/>
-      <c r="S55" s="167"/>
-      <c r="T55" s="167"/>
-      <c r="U55" s="167"/>
-      <c r="V55" s="167"/>
-      <c r="W55" s="168"/>
+      <c r="K55" s="121"/>
+      <c r="L55" s="88"/>
+      <c r="M55" s="89"/>
+      <c r="N55" s="89"/>
+      <c r="O55" s="89"/>
+      <c r="P55" s="89"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="89"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="89"/>
+      <c r="U55" s="89"/>
+      <c r="V55" s="89"/>
+      <c r="W55" s="90"/>
     </row>
     <row r="56" spans="8:23" ht="15.75" thickBot="1">
-      <c r="H56" s="250"/>
-      <c r="I56" s="251"/>
-      <c r="J56" s="155"/>
-      <c r="K56" s="155"/>
-      <c r="L56" s="178"/>
-      <c r="M56" s="179"/>
-      <c r="N56" s="179"/>
-      <c r="O56" s="179"/>
-      <c r="P56" s="179"/>
-      <c r="Q56" s="179"/>
-      <c r="R56" s="179"/>
-      <c r="S56" s="179"/>
-      <c r="T56" s="179"/>
-      <c r="U56" s="179"/>
-      <c r="V56" s="179"/>
-      <c r="W56" s="180"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="91"/>
+      <c r="M56" s="92"/>
+      <c r="N56" s="92"/>
+      <c r="O56" s="92"/>
+      <c r="P56" s="92"/>
+      <c r="Q56" s="92"/>
+      <c r="R56" s="92"/>
+      <c r="S56" s="92"/>
+      <c r="T56" s="92"/>
+      <c r="U56" s="92"/>
+      <c r="V56" s="92"/>
+      <c r="W56" s="93"/>
     </row>
     <row r="57" spans="8:23">
-      <c r="H57" s="242" t="s">
+      <c r="H57" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="I57" s="243"/>
-      <c r="J57" s="188" t="s">
+      <c r="I57" s="58"/>
+      <c r="J57" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="K57" s="188"/>
-      <c r="L57" s="189"/>
-      <c r="M57" s="190"/>
-      <c r="N57" s="190"/>
-      <c r="O57" s="190"/>
-      <c r="P57" s="190"/>
-      <c r="Q57" s="190"/>
-      <c r="R57" s="190"/>
-      <c r="S57" s="190"/>
-      <c r="T57" s="190"/>
-      <c r="U57" s="190"/>
-      <c r="V57" s="190"/>
-      <c r="W57" s="191"/>
+      <c r="K57" s="117"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="86"/>
+      <c r="N57" s="86"/>
+      <c r="O57" s="86"/>
+      <c r="P57" s="86"/>
+      <c r="Q57" s="86"/>
+      <c r="R57" s="86"/>
+      <c r="S57" s="86"/>
+      <c r="T57" s="86"/>
+      <c r="U57" s="86"/>
+      <c r="V57" s="86"/>
+      <c r="W57" s="87"/>
     </row>
     <row r="58" spans="8:23">
-      <c r="H58" s="236"/>
-      <c r="I58" s="237"/>
-      <c r="J58" s="156"/>
-      <c r="K58" s="156"/>
-      <c r="L58" s="172"/>
-      <c r="M58" s="173"/>
-      <c r="N58" s="173"/>
-      <c r="O58" s="173"/>
-      <c r="P58" s="173"/>
-      <c r="Q58" s="173"/>
-      <c r="R58" s="173"/>
-      <c r="S58" s="173"/>
-      <c r="T58" s="173"/>
-      <c r="U58" s="173"/>
-      <c r="V58" s="173"/>
-      <c r="W58" s="174"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="113"/>
+      <c r="K58" s="113"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="64"/>
+      <c r="S58" s="64"/>
+      <c r="T58" s="64"/>
+      <c r="U58" s="64"/>
+      <c r="V58" s="64"/>
+      <c r="W58" s="65"/>
     </row>
     <row r="59" spans="8:23">
-      <c r="H59" s="236"/>
-      <c r="I59" s="237"/>
-      <c r="J59" s="157" t="s">
+      <c r="H59" s="59"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="157"/>
-      <c r="L59" s="172"/>
-      <c r="M59" s="173"/>
-      <c r="N59" s="173"/>
-      <c r="O59" s="173"/>
-      <c r="P59" s="173"/>
-      <c r="Q59" s="173"/>
-      <c r="R59" s="173"/>
-      <c r="S59" s="173"/>
-      <c r="T59" s="173"/>
-      <c r="U59" s="173"/>
-      <c r="V59" s="173"/>
-      <c r="W59" s="174"/>
+      <c r="K59" s="112"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
+      <c r="S59" s="64"/>
+      <c r="T59" s="64"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="64"/>
+      <c r="W59" s="65"/>
     </row>
     <row r="60" spans="8:23">
-      <c r="H60" s="236"/>
-      <c r="I60" s="237"/>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="172"/>
-      <c r="M60" s="173"/>
-      <c r="N60" s="173"/>
-      <c r="O60" s="173"/>
-      <c r="P60" s="173"/>
-      <c r="Q60" s="173"/>
-      <c r="R60" s="173"/>
-      <c r="S60" s="173"/>
-      <c r="T60" s="173"/>
-      <c r="U60" s="173"/>
-      <c r="V60" s="173"/>
-      <c r="W60" s="174"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="113"/>
+      <c r="K60" s="113"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="64"/>
+      <c r="T60" s="64"/>
+      <c r="U60" s="64"/>
+      <c r="V60" s="64"/>
+      <c r="W60" s="65"/>
     </row>
     <row r="61" spans="8:23">
-      <c r="H61" s="236"/>
-      <c r="I61" s="237"/>
-      <c r="J61" s="157" t="s">
+      <c r="H61" s="59"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="K61" s="157"/>
-      <c r="L61" s="172"/>
-      <c r="M61" s="173"/>
-      <c r="N61" s="173"/>
-      <c r="O61" s="173"/>
-      <c r="P61" s="173"/>
-      <c r="Q61" s="173"/>
-      <c r="R61" s="173"/>
-      <c r="S61" s="173"/>
-      <c r="T61" s="173"/>
-      <c r="U61" s="173"/>
-      <c r="V61" s="173"/>
-      <c r="W61" s="174"/>
+      <c r="K61" s="112"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="64"/>
+      <c r="R61" s="64"/>
+      <c r="S61" s="64"/>
+      <c r="T61" s="64"/>
+      <c r="U61" s="64"/>
+      <c r="V61" s="64"/>
+      <c r="W61" s="65"/>
     </row>
     <row r="62" spans="8:23">
-      <c r="H62" s="236"/>
-      <c r="I62" s="237"/>
-      <c r="J62" s="156"/>
-      <c r="K62" s="156"/>
-      <c r="L62" s="172"/>
-      <c r="M62" s="173"/>
-      <c r="N62" s="173"/>
-      <c r="O62" s="173"/>
-      <c r="P62" s="173"/>
-      <c r="Q62" s="173"/>
-      <c r="R62" s="173"/>
-      <c r="S62" s="173"/>
-      <c r="T62" s="173"/>
-      <c r="U62" s="173"/>
-      <c r="V62" s="173"/>
-      <c r="W62" s="174"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="113"/>
+      <c r="K62" s="113"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="64"/>
+      <c r="S62" s="64"/>
+      <c r="T62" s="64"/>
+      <c r="U62" s="64"/>
+      <c r="V62" s="64"/>
+      <c r="W62" s="65"/>
     </row>
     <row r="63" spans="8:23">
-      <c r="H63" s="236"/>
-      <c r="I63" s="237"/>
-      <c r="J63" s="157" t="s">
+      <c r="H63" s="59"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="K63" s="157"/>
-      <c r="L63" s="172"/>
-      <c r="M63" s="173"/>
-      <c r="N63" s="173"/>
-      <c r="O63" s="173"/>
-      <c r="P63" s="173"/>
-      <c r="Q63" s="173"/>
-      <c r="R63" s="173"/>
-      <c r="S63" s="173"/>
-      <c r="T63" s="173"/>
-      <c r="U63" s="173"/>
-      <c r="V63" s="173"/>
-      <c r="W63" s="174"/>
+      <c r="K63" s="112"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
+      <c r="S63" s="64"/>
+      <c r="T63" s="64"/>
+      <c r="U63" s="64"/>
+      <c r="V63" s="64"/>
+      <c r="W63" s="65"/>
     </row>
     <row r="64" spans="8:23" ht="15.75" thickBot="1">
-      <c r="H64" s="238"/>
-      <c r="I64" s="239"/>
-      <c r="J64" s="158"/>
-      <c r="K64" s="158"/>
-      <c r="L64" s="175"/>
-      <c r="M64" s="176"/>
-      <c r="N64" s="176"/>
-      <c r="O64" s="176"/>
-      <c r="P64" s="176"/>
-      <c r="Q64" s="176"/>
-      <c r="R64" s="176"/>
-      <c r="S64" s="176"/>
-      <c r="T64" s="176"/>
-      <c r="U64" s="176"/>
-      <c r="V64" s="176"/>
-      <c r="W64" s="177"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="114"/>
+      <c r="K64" s="114"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
+      <c r="T64" s="67"/>
+      <c r="U64" s="67"/>
+      <c r="V64" s="67"/>
+      <c r="W64" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="116">
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="J28:W29"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="R20:S21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="P20:Q21"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="K2:M3"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="L22:S23"/>
+    <mergeCell ref="K5:V5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="K7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="J37:K38"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="J41:K42"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="J31:W32"/>
+    <mergeCell ref="J33:K34"/>
+    <mergeCell ref="J35:K36"/>
+    <mergeCell ref="L33:W33"/>
+    <mergeCell ref="L34:W34"/>
+    <mergeCell ref="L35:W35"/>
+    <mergeCell ref="L36:W36"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="J59:K60"/>
+    <mergeCell ref="J61:K62"/>
+    <mergeCell ref="J63:K64"/>
+    <mergeCell ref="J49:K50"/>
+    <mergeCell ref="J57:K58"/>
+    <mergeCell ref="J43:K44"/>
+    <mergeCell ref="J45:K46"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="J53:K54"/>
+    <mergeCell ref="L42:W42"/>
+    <mergeCell ref="L43:W43"/>
+    <mergeCell ref="L44:W44"/>
+    <mergeCell ref="L45:W45"/>
+    <mergeCell ref="L46:W46"/>
+    <mergeCell ref="L37:W37"/>
+    <mergeCell ref="L38:W38"/>
+    <mergeCell ref="L39:W39"/>
+    <mergeCell ref="L40:W40"/>
+    <mergeCell ref="L41:W41"/>
+    <mergeCell ref="L52:W52"/>
+    <mergeCell ref="L53:W53"/>
+    <mergeCell ref="L54:W54"/>
+    <mergeCell ref="L55:W55"/>
+    <mergeCell ref="L56:W56"/>
+    <mergeCell ref="L47:W47"/>
+    <mergeCell ref="L48:W48"/>
+    <mergeCell ref="L49:W49"/>
+    <mergeCell ref="L50:W50"/>
+    <mergeCell ref="L51:W51"/>
     <mergeCell ref="H33:I40"/>
     <mergeCell ref="H41:I48"/>
     <mergeCell ref="H49:I56"/>
@@ -3401,98 +3494,6 @@
     <mergeCell ref="L59:W59"/>
     <mergeCell ref="L60:W60"/>
     <mergeCell ref="L61:W61"/>
-    <mergeCell ref="L52:W52"/>
-    <mergeCell ref="L53:W53"/>
-    <mergeCell ref="L54:W54"/>
-    <mergeCell ref="L55:W55"/>
-    <mergeCell ref="L56:W56"/>
-    <mergeCell ref="L47:W47"/>
-    <mergeCell ref="L48:W48"/>
-    <mergeCell ref="L49:W49"/>
-    <mergeCell ref="L50:W50"/>
-    <mergeCell ref="L51:W51"/>
-    <mergeCell ref="L42:W42"/>
-    <mergeCell ref="L43:W43"/>
-    <mergeCell ref="L44:W44"/>
-    <mergeCell ref="L45:W45"/>
-    <mergeCell ref="L46:W46"/>
-    <mergeCell ref="L37:W37"/>
-    <mergeCell ref="L38:W38"/>
-    <mergeCell ref="L39:W39"/>
-    <mergeCell ref="L40:W40"/>
-    <mergeCell ref="L41:W41"/>
-    <mergeCell ref="J59:K60"/>
-    <mergeCell ref="J61:K62"/>
-    <mergeCell ref="J63:K64"/>
-    <mergeCell ref="J49:K50"/>
-    <mergeCell ref="J57:K58"/>
-    <mergeCell ref="J43:K44"/>
-    <mergeCell ref="J45:K46"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="J53:K54"/>
-    <mergeCell ref="J37:K38"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="J31:W32"/>
-    <mergeCell ref="J33:K34"/>
-    <mergeCell ref="J35:K36"/>
-    <mergeCell ref="L33:W33"/>
-    <mergeCell ref="L34:W34"/>
-    <mergeCell ref="L35:W35"/>
-    <mergeCell ref="L36:W36"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="K7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="J28:W29"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="R20:S21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="P20:Q21"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="K2:M3"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="L22:S23"/>
-    <mergeCell ref="K5:V5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Metodos ( relaciones con la tabla ).xlsx
+++ b/Metodos ( relaciones con la tabla ).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>Dni</t>
   </si>
@@ -126,15 +126,6 @@
     <t xml:space="preserve">CONSULTAS SQL </t>
   </si>
   <si>
-    <t>Tareas</t>
-  </si>
-  <si>
-    <t>Incorporacion</t>
-  </si>
-  <si>
-    <t>Equipo</t>
-  </si>
-  <si>
     <t>ALEX</t>
   </si>
   <si>
@@ -145,13 +136,442 @@
   </si>
   <si>
     <t>GABY</t>
+  </si>
+  <si>
+    <t>PROYECTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METODOS : </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREAR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BUSCAR (por dni y otro por apellido) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LISTAR ( por estado )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DAR DE BAJA Y DAR DE ALTA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MODIFICAR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CREAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BUSCAR (por nombre) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LISTAR ( por estado )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DAR DE BAJA Y DAR DE ALTA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MODIFICAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CREAR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BUSCAR (por nombre)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LISTAR (por estado)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DAR DE BAJA Y DAR DE ALTA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MODIFICAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>| | |</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">INCORPORACION Y COMENTARIO </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CREAR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BUSCAR (por equipo y por miembro) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LISTAR (todos)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ELIMINAR </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CREAR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LISTAR (por tarea)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ELIMINAR </t>
+    </r>
+  </si>
+  <si>
+    <t>1°</t>
+  </si>
+  <si>
+    <t>2°</t>
+  </si>
+  <si>
+    <t>3°</t>
+  </si>
+  <si>
+    <t>4°</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +669,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,8 +775,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="53">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -857,53 +1309,55 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -912,15 +1366,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -929,7 +1387,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -947,7 +1405,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -959,7 +1417,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -968,19 +1439,28 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -990,7 +1470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1070,100 +1550,247 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1178,13 +1805,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1223,6 +1850,24 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,42 +1877,69 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1275,102 +1947,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1379,72 +1955,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1452,6 +2061,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1592,10 +2231,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1667,52 +2306,16 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2009,10 +2612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:W66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2052,29 +2655,29 @@
       <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="217" t="s">
+      <c r="C2" s="267"/>
+      <c r="D2" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="218"/>
+      <c r="E2" s="271"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="205" t="s">
+      <c r="K2" s="258" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="206"/>
-      <c r="M2" s="207"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="260"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="167" t="s">
+      <c r="O2" s="220" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="169"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="222"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
@@ -2086,21 +2689,21 @@
       <c r="A3" s="15">
         <v>6</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="220"/>
+      <c r="B3" s="268"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="273"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="210"/>
+      <c r="K3" s="261"/>
+      <c r="L3" s="262"/>
+      <c r="M3" s="263"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="172"/>
+      <c r="O3" s="223"/>
+      <c r="P3" s="224"/>
+      <c r="Q3" s="225"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -2141,20 +2744,20 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="232" t="s">
+      <c r="K5" s="285" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="233"/>
-      <c r="M5" s="233"/>
-      <c r="N5" s="234"/>
-      <c r="O5" s="234"/>
-      <c r="P5" s="234"/>
-      <c r="Q5" s="234"/>
-      <c r="R5" s="234"/>
-      <c r="S5" s="234"/>
-      <c r="T5" s="234"/>
-      <c r="U5" s="234"/>
-      <c r="V5" s="235"/>
+      <c r="L5" s="286"/>
+      <c r="M5" s="286"/>
+      <c r="N5" s="287"/>
+      <c r="O5" s="287"/>
+      <c r="P5" s="287"/>
+      <c r="Q5" s="287"/>
+      <c r="R5" s="287"/>
+      <c r="S5" s="287"/>
+      <c r="T5" s="287"/>
+      <c r="U5" s="287"/>
+      <c r="V5" s="288"/>
       <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23" ht="21.75" thickBot="1">
@@ -2169,25 +2772,25 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="236" t="s">
+      <c r="K6" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="237"/>
+      <c r="L6" s="290"/>
       <c r="M6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="211" t="s">
+      <c r="N6" s="264" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="212"/>
-      <c r="P6" s="250" t="s">
+      <c r="O6" s="265"/>
+      <c r="P6" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="251"/>
-      <c r="R6" s="248" t="s">
+      <c r="Q6" s="217"/>
+      <c r="R6" s="214" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="249"/>
+      <c r="S6" s="215"/>
       <c r="T6" s="37" t="s">
         <v>2</v>
       </c>
@@ -2209,25 +2812,25 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="148" t="s">
+      <c r="K7" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="149"/>
-      <c r="M7" s="152">
+      <c r="L7" s="192"/>
+      <c r="M7" s="195">
         <v>1</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="118">
         <v>2</v>
       </c>
-      <c r="O7" s="70"/>
-      <c r="P7" s="203">
+      <c r="O7" s="119"/>
+      <c r="P7" s="256">
         <v>13</v>
       </c>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="146">
+      <c r="Q7" s="257"/>
+      <c r="R7" s="189">
         <v>1</v>
       </c>
-      <c r="S7" s="147"/>
+      <c r="S7" s="190"/>
       <c r="T7" s="35" t="s">
         <v>32</v>
       </c>
@@ -2249,15 +2852,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="152"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="142"/>
-      <c r="Q8" s="143"/>
-      <c r="R8" s="242"/>
-      <c r="S8" s="243"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="187"/>
+      <c r="Q8" s="188"/>
+      <c r="R8" s="208"/>
+      <c r="S8" s="209"/>
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
       <c r="V8" s="31"/>
@@ -2287,15 +2890,15 @@
       </c>
       <c r="H9" s="7"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="149"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="242"/>
-      <c r="S9" s="243"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="195"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="187"/>
+      <c r="Q9" s="188"/>
+      <c r="R9" s="208"/>
+      <c r="S9" s="209"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
       <c r="V9" s="31"/>
@@ -2325,15 +2928,15 @@
       </c>
       <c r="H10" s="7"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="244"/>
-      <c r="S10" s="245"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="185"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="210"/>
+      <c r="S10" s="211"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
       <c r="V10" s="33"/>
@@ -2363,25 +2966,25 @@
       </c>
       <c r="H11" s="7"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="154" t="s">
+      <c r="K11" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="155"/>
-      <c r="M11" s="153">
+      <c r="L11" s="198"/>
+      <c r="M11" s="196">
         <v>1</v>
       </c>
-      <c r="N11" s="75">
+      <c r="N11" s="124">
         <v>6</v>
       </c>
-      <c r="O11" s="76"/>
-      <c r="P11" s="163">
+      <c r="O11" s="125"/>
+      <c r="P11" s="206">
         <v>17</v>
       </c>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="246">
+      <c r="Q11" s="207"/>
+      <c r="R11" s="212">
         <v>5</v>
       </c>
-      <c r="S11" s="247"/>
+      <c r="S11" s="213"/>
       <c r="T11" s="28" t="s">
         <v>7</v>
       </c>
@@ -2403,15 +3006,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="143"/>
-      <c r="R12" s="158"/>
-      <c r="S12" s="159"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="187"/>
+      <c r="Q12" s="188"/>
+      <c r="R12" s="201"/>
+      <c r="S12" s="202"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
       <c r="V12" s="31"/>
@@ -2419,35 +3022,35 @@
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="221" t="s">
+      <c r="B13" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="222"/>
-      <c r="D13" s="222"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="223"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="276"/>
       <c r="G13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="7"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="224" t="s">
+      <c r="K13" s="277" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="225"/>
-      <c r="M13" s="74">
+      <c r="L13" s="278"/>
+      <c r="M13" s="123">
         <v>1</v>
       </c>
-      <c r="N13" s="71"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="142">
+      <c r="N13" s="120"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="187">
         <v>18</v>
       </c>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="158">
+      <c r="Q13" s="188"/>
+      <c r="R13" s="201">
         <v>6</v>
       </c>
-      <c r="S13" s="159"/>
+      <c r="S13" s="202"/>
       <c r="T13" s="30" t="s">
         <v>8</v>
       </c>
@@ -2460,10 +3063,10 @@
       <c r="W13" s="7"/>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="166"/>
+      <c r="B14" s="219"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2471,15 +3074,15 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="145"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="160"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="185"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="172"/>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="126"/>
+      <c r="S14" s="203"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="26"/>
@@ -2495,15 +3098,15 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="238"/>
-      <c r="Q15" s="239"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="126"/>
+      <c r="K15" s="232"/>
+      <c r="L15" s="233"/>
+      <c r="M15" s="186"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="291"/>
+      <c r="Q15" s="292"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="156"/>
       <c r="T15" s="23"/>
       <c r="U15" s="23"/>
       <c r="V15" s="27"/>
@@ -2519,15 +3122,15 @@
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="181"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="240"/>
-      <c r="Q16" s="241"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="127"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="235"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="183"/>
+      <c r="Q16" s="184"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="157"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="24"/>
@@ -2535,15 +3138,15 @@
     </row>
     <row r="17" spans="10:23" ht="20.25" customHeight="1">
       <c r="J17" s="5"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="240"/>
-      <c r="Q17" s="241"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="127"/>
+      <c r="K17" s="236"/>
+      <c r="L17" s="237"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="183"/>
+      <c r="Q17" s="184"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="157"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="24"/>
@@ -2551,15 +3154,15 @@
     </row>
     <row r="18" spans="10:23" ht="20.25" customHeight="1" thickBot="1">
       <c r="J18" s="5"/>
-      <c r="K18" s="185"/>
-      <c r="L18" s="186"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="145"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="160"/>
+      <c r="K18" s="238"/>
+      <c r="L18" s="239"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="173"/>
+      <c r="R18" s="126"/>
+      <c r="S18" s="203"/>
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
       <c r="V18" s="26"/>
@@ -2584,22 +3187,22 @@
     <row r="20" spans="10:23">
       <c r="J20" s="5"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="191" t="s">
+      <c r="L20" s="244" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="192"/>
-      <c r="N20" s="195" t="s">
+      <c r="M20" s="245"/>
+      <c r="N20" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="196"/>
-      <c r="P20" s="199" t="s">
+      <c r="O20" s="249"/>
+      <c r="P20" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="200"/>
-      <c r="R20" s="187" t="s">
+      <c r="Q20" s="253"/>
+      <c r="R20" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="S20" s="188"/>
+      <c r="S20" s="241"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
@@ -2608,14 +3211,14 @@
     <row r="21" spans="10:23" ht="15.75" thickBot="1">
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="193"/>
-      <c r="M21" s="194"/>
-      <c r="N21" s="197"/>
-      <c r="O21" s="198"/>
-      <c r="P21" s="201"/>
-      <c r="Q21" s="202"/>
-      <c r="R21" s="189"/>
-      <c r="S21" s="190"/>
+      <c r="L21" s="246"/>
+      <c r="M21" s="247"/>
+      <c r="N21" s="250"/>
+      <c r="O21" s="251"/>
+      <c r="P21" s="254"/>
+      <c r="Q21" s="255"/>
+      <c r="R21" s="242"/>
+      <c r="S21" s="243"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
@@ -2624,16 +3227,16 @@
     <row r="22" spans="10:23">
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="226" t="s">
+      <c r="L22" s="279" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="227"/>
-      <c r="N22" s="227"/>
-      <c r="O22" s="227"/>
-      <c r="P22" s="227"/>
-      <c r="Q22" s="227"/>
-      <c r="R22" s="227"/>
-      <c r="S22" s="228"/>
+      <c r="M22" s="280"/>
+      <c r="N22" s="280"/>
+      <c r="O22" s="280"/>
+      <c r="P22" s="280"/>
+      <c r="Q22" s="280"/>
+      <c r="R22" s="280"/>
+      <c r="S22" s="281"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
@@ -2642,14 +3245,14 @@
     <row r="23" spans="10:23" ht="15.75" thickBot="1">
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="229"/>
-      <c r="M23" s="230"/>
-      <c r="N23" s="230"/>
-      <c r="O23" s="230"/>
-      <c r="P23" s="230"/>
-      <c r="Q23" s="230"/>
-      <c r="R23" s="230"/>
-      <c r="S23" s="231"/>
+      <c r="L23" s="282"/>
+      <c r="M23" s="283"/>
+      <c r="N23" s="283"/>
+      <c r="O23" s="283"/>
+      <c r="P23" s="283"/>
+      <c r="Q23" s="283"/>
+      <c r="R23" s="283"/>
+      <c r="S23" s="284"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
@@ -2689,695 +3292,751 @@
     </row>
     <row r="27" spans="10:23" ht="15.75" thickBot="1"/>
     <row r="28" spans="10:23">
-      <c r="J28" s="173" t="s">
+      <c r="J28" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="174"/>
-      <c r="L28" s="174"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="174"/>
-      <c r="O28" s="174"/>
-      <c r="P28" s="174"/>
-      <c r="Q28" s="174"/>
-      <c r="R28" s="174"/>
-      <c r="S28" s="174"/>
-      <c r="T28" s="174"/>
-      <c r="U28" s="174"/>
-      <c r="V28" s="174"/>
-      <c r="W28" s="175"/>
+      <c r="K28" s="227"/>
+      <c r="L28" s="227"/>
+      <c r="M28" s="227"/>
+      <c r="N28" s="227"/>
+      <c r="O28" s="227"/>
+      <c r="P28" s="227"/>
+      <c r="Q28" s="227"/>
+      <c r="R28" s="227"/>
+      <c r="S28" s="227"/>
+      <c r="T28" s="227"/>
+      <c r="U28" s="227"/>
+      <c r="V28" s="227"/>
+      <c r="W28" s="228"/>
     </row>
     <row r="29" spans="10:23" ht="15.75" thickBot="1">
-      <c r="J29" s="176"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="177"/>
-      <c r="M29" s="177"/>
-      <c r="N29" s="177"/>
-      <c r="O29" s="177"/>
-      <c r="P29" s="177"/>
-      <c r="Q29" s="177"/>
-      <c r="R29" s="177"/>
-      <c r="S29" s="177"/>
-      <c r="T29" s="177"/>
-      <c r="U29" s="177"/>
-      <c r="V29" s="177"/>
-      <c r="W29" s="178"/>
+      <c r="J29" s="229"/>
+      <c r="K29" s="230"/>
+      <c r="L29" s="230"/>
+      <c r="M29" s="230"/>
+      <c r="N29" s="230"/>
+      <c r="O29" s="230"/>
+      <c r="P29" s="230"/>
+      <c r="Q29" s="230"/>
+      <c r="R29" s="230"/>
+      <c r="S29" s="230"/>
+      <c r="T29" s="230"/>
+      <c r="U29" s="230"/>
+      <c r="V29" s="230"/>
+      <c r="W29" s="231"/>
     </row>
     <row r="30" spans="10:23" ht="15.75" thickBot="1"/>
     <row r="31" spans="10:23">
-      <c r="J31" s="128" t="s">
+      <c r="J31" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="129"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="129"/>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="129"/>
-      <c r="T31" s="129"/>
-      <c r="U31" s="129"/>
-      <c r="V31" s="129"/>
-      <c r="W31" s="130"/>
+      <c r="K31" s="159"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="159"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="159"/>
+      <c r="P31" s="159"/>
+      <c r="Q31" s="159"/>
+      <c r="R31" s="159"/>
+      <c r="S31" s="159"/>
+      <c r="T31" s="159"/>
+      <c r="U31" s="159"/>
+      <c r="V31" s="159"/>
+      <c r="W31" s="160"/>
     </row>
     <row r="32" spans="10:23" ht="15.75" thickBot="1">
-      <c r="J32" s="131"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="132"/>
-      <c r="Q32" s="132"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="132"/>
-      <c r="U32" s="132"/>
-      <c r="V32" s="132"/>
-      <c r="W32" s="133"/>
-    </row>
-    <row r="33" spans="2:23">
+      <c r="J32" s="161"/>
+      <c r="K32" s="162"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="162"/>
+      <c r="N32" s="162"/>
+      <c r="O32" s="162"/>
+      <c r="P32" s="162"/>
+      <c r="Q32" s="162"/>
+      <c r="R32" s="162"/>
+      <c r="S32" s="162"/>
+      <c r="T32" s="162"/>
+      <c r="U32" s="162"/>
+      <c r="V32" s="162"/>
+      <c r="W32" s="163"/>
+    </row>
+    <row r="33" spans="2:23" ht="15" customHeight="1">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="H33" s="39" t="s">
+      <c r="G33" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="62"/>
+      <c r="J33" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="58"/>
+      <c r="L33" s="164"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="165"/>
+      <c r="O33" s="165"/>
+      <c r="P33" s="165"/>
+      <c r="Q33" s="165"/>
+      <c r="R33" s="165"/>
+      <c r="S33" s="165"/>
+      <c r="T33" s="165"/>
+      <c r="U33" s="165"/>
+      <c r="V33" s="165"/>
+      <c r="W33" s="166"/>
+    </row>
+    <row r="34" spans="2:23" ht="15" customHeight="1">
+      <c r="G34" s="46"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="167"/>
+      <c r="M34" s="168"/>
+      <c r="N34" s="168"/>
+      <c r="O34" s="168"/>
+      <c r="P34" s="168"/>
+      <c r="Q34" s="168"/>
+      <c r="R34" s="168"/>
+      <c r="S34" s="168"/>
+      <c r="T34" s="168"/>
+      <c r="U34" s="168"/>
+      <c r="V34" s="168"/>
+      <c r="W34" s="169"/>
+    </row>
+    <row r="35" spans="2:23" ht="15" customHeight="1">
+      <c r="G35" s="46"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="167"/>
+      <c r="M35" s="168"/>
+      <c r="N35" s="168"/>
+      <c r="O35" s="168"/>
+      <c r="P35" s="168"/>
+      <c r="Q35" s="168"/>
+      <c r="R35" s="168"/>
+      <c r="S35" s="168"/>
+      <c r="T35" s="168"/>
+      <c r="U35" s="168"/>
+      <c r="V35" s="168"/>
+      <c r="W35" s="169"/>
+    </row>
+    <row r="36" spans="2:23" ht="15" customHeight="1">
+      <c r="G36" s="46"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="167"/>
+      <c r="M36" s="168"/>
+      <c r="N36" s="168"/>
+      <c r="O36" s="168"/>
+      <c r="P36" s="168"/>
+      <c r="Q36" s="168"/>
+      <c r="R36" s="168"/>
+      <c r="S36" s="168"/>
+      <c r="T36" s="168"/>
+      <c r="U36" s="168"/>
+      <c r="V36" s="168"/>
+      <c r="W36" s="169"/>
+    </row>
+    <row r="37" spans="2:23" ht="15" customHeight="1">
+      <c r="G37" s="46"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="167"/>
+      <c r="M37" s="168"/>
+      <c r="N37" s="168"/>
+      <c r="O37" s="168"/>
+      <c r="P37" s="168"/>
+      <c r="Q37" s="168"/>
+      <c r="R37" s="168"/>
+      <c r="S37" s="168"/>
+      <c r="T37" s="168"/>
+      <c r="U37" s="168"/>
+      <c r="V37" s="168"/>
+      <c r="W37" s="169"/>
+    </row>
+    <row r="38" spans="2:23" ht="15" customHeight="1" thickBot="1">
+      <c r="G38" s="47"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="180"/>
+      <c r="M38" s="181"/>
+      <c r="N38" s="181"/>
+      <c r="O38" s="181"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="181"/>
+      <c r="R38" s="181"/>
+      <c r="S38" s="181"/>
+      <c r="T38" s="181"/>
+      <c r="U38" s="181"/>
+      <c r="V38" s="181"/>
+      <c r="W38" s="182"/>
+    </row>
+    <row r="39" spans="2:23" ht="15" customHeight="1">
+      <c r="H39" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="103"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="103"/>
+      <c r="T39" s="103"/>
+      <c r="U39" s="103"/>
+      <c r="V39" s="103"/>
+      <c r="W39" s="104"/>
+    </row>
+    <row r="40" spans="2:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H40" s="93"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="105"/>
+      <c r="T40" s="105"/>
+      <c r="U40" s="105"/>
+      <c r="V40" s="105"/>
+      <c r="W40" s="106"/>
+    </row>
+    <row r="41" spans="2:23" ht="15" customHeight="1">
+      <c r="G41" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="80"/>
+      <c r="J41" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="66"/>
+      <c r="L41" s="140"/>
+      <c r="M41" s="141"/>
+      <c r="N41" s="141"/>
+      <c r="O41" s="141"/>
+      <c r="P41" s="141"/>
+      <c r="Q41" s="141"/>
+      <c r="R41" s="141"/>
+      <c r="S41" s="141"/>
+      <c r="T41" s="141"/>
+      <c r="U41" s="141"/>
+      <c r="V41" s="141"/>
+      <c r="W41" s="142"/>
+    </row>
+    <row r="42" spans="2:23" ht="15" customHeight="1">
+      <c r="G42" s="55"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="174"/>
+      <c r="M42" s="175"/>
+      <c r="N42" s="175"/>
+      <c r="O42" s="175"/>
+      <c r="P42" s="175"/>
+      <c r="Q42" s="175"/>
+      <c r="R42" s="175"/>
+      <c r="S42" s="175"/>
+      <c r="T42" s="175"/>
+      <c r="U42" s="175"/>
+      <c r="V42" s="175"/>
+      <c r="W42" s="176"/>
+    </row>
+    <row r="43" spans="2:23" ht="15" customHeight="1">
+      <c r="G43" s="55"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="174"/>
+      <c r="M43" s="175"/>
+      <c r="N43" s="175"/>
+      <c r="O43" s="175"/>
+      <c r="P43" s="175"/>
+      <c r="Q43" s="175"/>
+      <c r="R43" s="175"/>
+      <c r="S43" s="175"/>
+      <c r="T43" s="175"/>
+      <c r="U43" s="175"/>
+      <c r="V43" s="175"/>
+      <c r="W43" s="176"/>
+    </row>
+    <row r="44" spans="2:23" ht="15" customHeight="1">
+      <c r="G44" s="55"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="174"/>
+      <c r="M44" s="175"/>
+      <c r="N44" s="175"/>
+      <c r="O44" s="175"/>
+      <c r="P44" s="175"/>
+      <c r="Q44" s="175"/>
+      <c r="R44" s="175"/>
+      <c r="S44" s="175"/>
+      <c r="T44" s="175"/>
+      <c r="U44" s="175"/>
+      <c r="V44" s="175"/>
+      <c r="W44" s="176"/>
+    </row>
+    <row r="45" spans="2:23" ht="15" customHeight="1">
+      <c r="G45" s="55"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="174"/>
+      <c r="M45" s="175"/>
+      <c r="N45" s="175"/>
+      <c r="O45" s="175"/>
+      <c r="P45" s="175"/>
+      <c r="Q45" s="175"/>
+      <c r="R45" s="175"/>
+      <c r="S45" s="175"/>
+      <c r="T45" s="175"/>
+      <c r="U45" s="175"/>
+      <c r="V45" s="175"/>
+      <c r="W45" s="176"/>
+    </row>
+    <row r="46" spans="2:23" ht="15" customHeight="1" thickBot="1">
+      <c r="G46" s="56"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="177"/>
+      <c r="M46" s="178"/>
+      <c r="N46" s="178"/>
+      <c r="O46" s="178"/>
+      <c r="P46" s="178"/>
+      <c r="Q46" s="178"/>
+      <c r="R46" s="178"/>
+      <c r="S46" s="178"/>
+      <c r="T46" s="178"/>
+      <c r="U46" s="178"/>
+      <c r="V46" s="178"/>
+      <c r="W46" s="179"/>
+    </row>
+    <row r="47" spans="2:23" ht="15" customHeight="1">
+      <c r="H47" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" s="107"/>
+      <c r="M47" s="107"/>
+      <c r="N47" s="107"/>
+      <c r="O47" s="107"/>
+      <c r="P47" s="107"/>
+      <c r="Q47" s="107"/>
+      <c r="R47" s="107"/>
+      <c r="S47" s="107"/>
+      <c r="T47" s="107"/>
+      <c r="U47" s="107"/>
+      <c r="V47" s="107"/>
+      <c r="W47" s="108"/>
+    </row>
+    <row r="48" spans="2:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H48" s="97"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="109"/>
+      <c r="L48" s="109"/>
+      <c r="M48" s="109"/>
+      <c r="N48" s="109"/>
+      <c r="O48" s="109"/>
+      <c r="P48" s="109"/>
+      <c r="Q48" s="109"/>
+      <c r="R48" s="109"/>
+      <c r="S48" s="109"/>
+      <c r="T48" s="109"/>
+      <c r="U48" s="109"/>
+      <c r="V48" s="109"/>
+      <c r="W48" s="110"/>
+    </row>
+    <row r="49" spans="7:23" ht="15" customHeight="1">
+      <c r="G49" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="84"/>
+      <c r="J49" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="70"/>
+      <c r="L49" s="149"/>
+      <c r="M49" s="150"/>
+      <c r="N49" s="150"/>
+      <c r="O49" s="150"/>
+      <c r="P49" s="150"/>
+      <c r="Q49" s="150"/>
+      <c r="R49" s="150"/>
+      <c r="S49" s="150"/>
+      <c r="T49" s="150"/>
+      <c r="U49" s="150"/>
+      <c r="V49" s="150"/>
+      <c r="W49" s="151"/>
+    </row>
+    <row r="50" spans="7:23" ht="15" customHeight="1">
+      <c r="G50" s="52"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="143"/>
+      <c r="M50" s="144"/>
+      <c r="N50" s="144"/>
+      <c r="O50" s="144"/>
+      <c r="P50" s="144"/>
+      <c r="Q50" s="144"/>
+      <c r="R50" s="144"/>
+      <c r="S50" s="144"/>
+      <c r="T50" s="144"/>
+      <c r="U50" s="144"/>
+      <c r="V50" s="144"/>
+      <c r="W50" s="145"/>
+    </row>
+    <row r="51" spans="7:23" ht="15" customHeight="1">
+      <c r="G51" s="52"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="143"/>
+      <c r="M51" s="144"/>
+      <c r="N51" s="144"/>
+      <c r="O51" s="144"/>
+      <c r="P51" s="144"/>
+      <c r="Q51" s="144"/>
+      <c r="R51" s="144"/>
+      <c r="S51" s="144"/>
+      <c r="T51" s="144"/>
+      <c r="U51" s="144"/>
+      <c r="V51" s="144"/>
+      <c r="W51" s="145"/>
+    </row>
+    <row r="52" spans="7:23" ht="15" customHeight="1">
+      <c r="G52" s="52"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="143"/>
+      <c r="M52" s="144"/>
+      <c r="N52" s="144"/>
+      <c r="O52" s="144"/>
+      <c r="P52" s="144"/>
+      <c r="Q52" s="144"/>
+      <c r="R52" s="144"/>
+      <c r="S52" s="144"/>
+      <c r="T52" s="144"/>
+      <c r="U52" s="144"/>
+      <c r="V52" s="144"/>
+      <c r="W52" s="145"/>
+    </row>
+    <row r="53" spans="7:23" ht="15" customHeight="1">
+      <c r="G53" s="52"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="143"/>
+      <c r="M53" s="144"/>
+      <c r="N53" s="144"/>
+      <c r="O53" s="144"/>
+      <c r="P53" s="144"/>
+      <c r="Q53" s="144"/>
+      <c r="R53" s="144"/>
+      <c r="S53" s="144"/>
+      <c r="T53" s="144"/>
+      <c r="U53" s="144"/>
+      <c r="V53" s="144"/>
+      <c r="W53" s="145"/>
+    </row>
+    <row r="54" spans="7:23" ht="15" customHeight="1" thickBot="1">
+      <c r="G54" s="53"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="146"/>
+      <c r="M54" s="147"/>
+      <c r="N54" s="147"/>
+      <c r="O54" s="147"/>
+      <c r="P54" s="147"/>
+      <c r="Q54" s="147"/>
+      <c r="R54" s="147"/>
+      <c r="S54" s="147"/>
+      <c r="T54" s="147"/>
+      <c r="U54" s="147"/>
+      <c r="V54" s="147"/>
+      <c r="W54" s="148"/>
+    </row>
+    <row r="55" spans="7:23" ht="15" customHeight="1">
+      <c r="H55" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="100"/>
+      <c r="J55" s="100"/>
+      <c r="K55" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="L55" s="111"/>
+      <c r="M55" s="111"/>
+      <c r="N55" s="111"/>
+      <c r="O55" s="111"/>
+      <c r="P55" s="111"/>
+      <c r="Q55" s="111"/>
+      <c r="R55" s="111"/>
+      <c r="S55" s="111"/>
+      <c r="T55" s="111"/>
+      <c r="U55" s="111"/>
+      <c r="V55" s="111"/>
+      <c r="W55" s="112"/>
+    </row>
+    <row r="56" spans="7:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H56" s="101"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="113"/>
+      <c r="L56" s="113"/>
+      <c r="M56" s="113"/>
+      <c r="N56" s="113"/>
+      <c r="O56" s="113"/>
+      <c r="P56" s="113"/>
+      <c r="Q56" s="113"/>
+      <c r="R56" s="113"/>
+      <c r="S56" s="113"/>
+      <c r="T56" s="113"/>
+      <c r="U56" s="113"/>
+      <c r="V56" s="113"/>
+      <c r="W56" s="114"/>
+    </row>
+    <row r="57" spans="7:23" ht="15" customHeight="1">
+      <c r="G57" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H57" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="134" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33" s="134"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="136"/>
-      <c r="Q33" s="136"/>
-      <c r="R33" s="136"/>
-      <c r="S33" s="136"/>
-      <c r="T33" s="136"/>
-      <c r="U33" s="136"/>
-      <c r="V33" s="136"/>
-      <c r="W33" s="137"/>
-    </row>
-    <row r="34" spans="2:23">
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="104"/>
-      <c r="V34" s="104"/>
-      <c r="W34" s="105"/>
-    </row>
-    <row r="35" spans="2:23">
-      <c r="H35" s="41"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="122" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="122"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="104"/>
-      <c r="T35" s="104"/>
-      <c r="U35" s="104"/>
-      <c r="V35" s="104"/>
-      <c r="W35" s="105"/>
-    </row>
-    <row r="36" spans="2:23">
-      <c r="H36" s="41"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="104"/>
-      <c r="O36" s="104"/>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="104"/>
-      <c r="S36" s="104"/>
-      <c r="T36" s="104"/>
-      <c r="U36" s="104"/>
-      <c r="V36" s="104"/>
-      <c r="W36" s="105"/>
-    </row>
-    <row r="37" spans="2:23">
-      <c r="H37" s="41"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="122" t="s">
-        <v>37</v>
-      </c>
-      <c r="K37" s="122"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="104"/>
-      <c r="N37" s="104"/>
-      <c r="O37" s="104"/>
-      <c r="P37" s="104"/>
-      <c r="Q37" s="104"/>
-      <c r="R37" s="104"/>
-      <c r="S37" s="104"/>
-      <c r="T37" s="104"/>
-      <c r="U37" s="104"/>
-      <c r="V37" s="104"/>
-      <c r="W37" s="105"/>
-    </row>
-    <row r="38" spans="2:23">
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="123"/>
-      <c r="L38" s="103"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="104"/>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
-      <c r="S38" s="104"/>
-      <c r="T38" s="104"/>
-      <c r="U38" s="104"/>
-      <c r="V38" s="104"/>
-      <c r="W38" s="105"/>
-    </row>
-    <row r="39" spans="2:23">
-      <c r="H39" s="41"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="122" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="122"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="104"/>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="104"/>
-      <c r="S39" s="104"/>
-      <c r="T39" s="104"/>
-      <c r="U39" s="104"/>
-      <c r="V39" s="104"/>
-      <c r="W39" s="105"/>
-    </row>
-    <row r="40" spans="2:23" ht="15.75" thickBot="1">
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="107"/>
-      <c r="O40" s="107"/>
-      <c r="P40" s="107"/>
-      <c r="Q40" s="107"/>
-      <c r="R40" s="107"/>
-      <c r="S40" s="107"/>
-      <c r="T40" s="107"/>
-      <c r="U40" s="107"/>
-      <c r="V40" s="107"/>
-      <c r="W40" s="108"/>
-    </row>
-    <row r="41" spans="2:23">
-      <c r="H41" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" s="46"/>
-      <c r="J41" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="K41" s="120"/>
-      <c r="L41" s="109"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="110"/>
-      <c r="P41" s="110"/>
-      <c r="Q41" s="110"/>
-      <c r="R41" s="110"/>
-      <c r="S41" s="110"/>
-      <c r="T41" s="110"/>
-      <c r="U41" s="110"/>
-      <c r="V41" s="110"/>
-      <c r="W41" s="111"/>
-    </row>
-    <row r="42" spans="2:23">
-      <c r="H42" s="47"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="95"/>
-      <c r="U42" s="95"/>
-      <c r="V42" s="95"/>
-      <c r="W42" s="96"/>
-    </row>
-    <row r="43" spans="2:23">
-      <c r="H43" s="47"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="118" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="118"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="95"/>
-      <c r="V43" s="95"/>
-      <c r="W43" s="96"/>
-    </row>
-    <row r="44" spans="2:23">
-      <c r="H44" s="47"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="119"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95"/>
-      <c r="V44" s="95"/>
-      <c r="W44" s="96"/>
-    </row>
-    <row r="45" spans="2:23">
-      <c r="H45" s="47"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="K45" s="118"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="95"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="95"/>
-      <c r="U45" s="95"/>
-      <c r="V45" s="95"/>
-      <c r="W45" s="96"/>
-    </row>
-    <row r="46" spans="2:23">
-      <c r="H46" s="47"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="95"/>
-      <c r="N46" s="95"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="95"/>
-      <c r="S46" s="95"/>
-      <c r="T46" s="95"/>
-      <c r="U46" s="95"/>
-      <c r="V46" s="95"/>
-      <c r="W46" s="96"/>
-    </row>
-    <row r="47" spans="2:23">
-      <c r="H47" s="47"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="K47" s="118"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="95"/>
-      <c r="Q47" s="95"/>
-      <c r="R47" s="95"/>
-      <c r="S47" s="95"/>
-      <c r="T47" s="95"/>
-      <c r="U47" s="95"/>
-      <c r="V47" s="95"/>
-      <c r="W47" s="96"/>
-    </row>
-    <row r="48" spans="2:23" ht="15.75" thickBot="1">
-      <c r="H48" s="49"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="120"/>
-      <c r="K48" s="120"/>
-      <c r="L48" s="97"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="98"/>
-      <c r="O48" s="98"/>
-      <c r="P48" s="98"/>
-      <c r="Q48" s="98"/>
-      <c r="R48" s="98"/>
-      <c r="S48" s="98"/>
-      <c r="T48" s="98"/>
-      <c r="U48" s="98"/>
-      <c r="V48" s="98"/>
-      <c r="W48" s="99"/>
-    </row>
-    <row r="49" spans="8:23">
-      <c r="H49" s="51" t="s">
+      <c r="I57" s="88"/>
+      <c r="J57" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="K57" s="74"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="135"/>
+      <c r="N57" s="135"/>
+      <c r="O57" s="135"/>
+      <c r="P57" s="135"/>
+      <c r="Q57" s="135"/>
+      <c r="R57" s="135"/>
+      <c r="S57" s="135"/>
+      <c r="T57" s="135"/>
+      <c r="U57" s="135"/>
+      <c r="V57" s="135"/>
+      <c r="W57" s="136"/>
+    </row>
+    <row r="58" spans="7:23" ht="15" customHeight="1">
+      <c r="G58" s="49"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="137"/>
+      <c r="M58" s="138"/>
+      <c r="N58" s="138"/>
+      <c r="O58" s="138"/>
+      <c r="P58" s="138"/>
+      <c r="Q58" s="138"/>
+      <c r="R58" s="138"/>
+      <c r="S58" s="138"/>
+      <c r="T58" s="138"/>
+      <c r="U58" s="138"/>
+      <c r="V58" s="138"/>
+      <c r="W58" s="139"/>
+    </row>
+    <row r="59" spans="7:23" ht="15" customHeight="1">
+      <c r="G59" s="49"/>
+      <c r="H59" s="89"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="137"/>
+      <c r="M59" s="138"/>
+      <c r="N59" s="138"/>
+      <c r="O59" s="138"/>
+      <c r="P59" s="138"/>
+      <c r="Q59" s="138"/>
+      <c r="R59" s="138"/>
+      <c r="S59" s="138"/>
+      <c r="T59" s="138"/>
+      <c r="U59" s="138"/>
+      <c r="V59" s="138"/>
+      <c r="W59" s="139"/>
+    </row>
+    <row r="60" spans="7:23" ht="15" customHeight="1">
+      <c r="G60" s="49"/>
+      <c r="H60" s="89"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="137"/>
+      <c r="M60" s="138"/>
+      <c r="N60" s="138"/>
+      <c r="O60" s="138"/>
+      <c r="P60" s="138"/>
+      <c r="Q60" s="138"/>
+      <c r="R60" s="138"/>
+      <c r="S60" s="138"/>
+      <c r="T60" s="138"/>
+      <c r="U60" s="138"/>
+      <c r="V60" s="138"/>
+      <c r="W60" s="139"/>
+    </row>
+    <row r="61" spans="7:23" ht="15" customHeight="1">
+      <c r="G61" s="49"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="137"/>
+      <c r="M61" s="138"/>
+      <c r="N61" s="138"/>
+      <c r="O61" s="138"/>
+      <c r="P61" s="138"/>
+      <c r="Q61" s="138"/>
+      <c r="R61" s="138"/>
+      <c r="S61" s="138"/>
+      <c r="T61" s="138"/>
+      <c r="U61" s="138"/>
+      <c r="V61" s="138"/>
+      <c r="W61" s="139"/>
+    </row>
+    <row r="62" spans="7:23" ht="15" customHeight="1" thickBot="1">
+      <c r="G62" s="50"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="115"/>
+      <c r="M62" s="116"/>
+      <c r="N62" s="116"/>
+      <c r="O62" s="116"/>
+      <c r="P62" s="116"/>
+      <c r="Q62" s="116"/>
+      <c r="R62" s="116"/>
+      <c r="S62" s="116"/>
+      <c r="T62" s="116"/>
+      <c r="U62" s="116"/>
+      <c r="V62" s="116"/>
+      <c r="W62" s="117"/>
+    </row>
+    <row r="63" spans="7:23" ht="15" customHeight="1">
+      <c r="H63" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="52"/>
-      <c r="J49" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="K49" s="115"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="101"/>
-      <c r="N49" s="101"/>
-      <c r="O49" s="101"/>
-      <c r="P49" s="101"/>
-      <c r="Q49" s="101"/>
-      <c r="R49" s="101"/>
-      <c r="S49" s="101"/>
-      <c r="T49" s="101"/>
-      <c r="U49" s="101"/>
-      <c r="V49" s="101"/>
-      <c r="W49" s="102"/>
-    </row>
-    <row r="50" spans="8:23">
-      <c r="H50" s="53"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="116"/>
-      <c r="K50" s="116"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="89"/>
-      <c r="P50" s="89"/>
-      <c r="Q50" s="89"/>
-      <c r="R50" s="89"/>
-      <c r="S50" s="89"/>
-      <c r="T50" s="89"/>
-      <c r="U50" s="89"/>
-      <c r="V50" s="89"/>
-      <c r="W50" s="90"/>
-    </row>
-    <row r="51" spans="8:23">
-      <c r="H51" s="53"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="121"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="89"/>
-      <c r="P51" s="89"/>
-      <c r="Q51" s="89"/>
-      <c r="R51" s="89"/>
-      <c r="S51" s="89"/>
-      <c r="T51" s="89"/>
-      <c r="U51" s="89"/>
-      <c r="V51" s="89"/>
-      <c r="W51" s="90"/>
-    </row>
-    <row r="52" spans="8:23">
-      <c r="H52" s="53"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="116"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="89"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="89"/>
-      <c r="P52" s="89"/>
-      <c r="Q52" s="89"/>
-      <c r="R52" s="89"/>
-      <c r="S52" s="89"/>
-      <c r="T52" s="89"/>
-      <c r="U52" s="89"/>
-      <c r="V52" s="89"/>
-      <c r="W52" s="90"/>
-    </row>
-    <row r="53" spans="8:23">
-      <c r="H53" s="53"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="121" t="s">
-        <v>37</v>
-      </c>
-      <c r="K53" s="121"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="89"/>
-      <c r="N53" s="89"/>
-      <c r="O53" s="89"/>
-      <c r="P53" s="89"/>
-      <c r="Q53" s="89"/>
-      <c r="R53" s="89"/>
-      <c r="S53" s="89"/>
-      <c r="T53" s="89"/>
-      <c r="U53" s="89"/>
-      <c r="V53" s="89"/>
-      <c r="W53" s="90"/>
-    </row>
-    <row r="54" spans="8:23">
-      <c r="H54" s="53"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="116"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="89"/>
-      <c r="N54" s="89"/>
-      <c r="O54" s="89"/>
-      <c r="P54" s="89"/>
-      <c r="Q54" s="89"/>
-      <c r="R54" s="89"/>
-      <c r="S54" s="89"/>
-      <c r="T54" s="89"/>
-      <c r="U54" s="89"/>
-      <c r="V54" s="89"/>
-      <c r="W54" s="90"/>
-    </row>
-    <row r="55" spans="8:23">
-      <c r="H55" s="53"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="K55" s="121"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="89"/>
-      <c r="N55" s="89"/>
-      <c r="O55" s="89"/>
-      <c r="P55" s="89"/>
-      <c r="Q55" s="89"/>
-      <c r="R55" s="89"/>
-      <c r="S55" s="89"/>
-      <c r="T55" s="89"/>
-      <c r="U55" s="89"/>
-      <c r="V55" s="89"/>
-      <c r="W55" s="90"/>
-    </row>
-    <row r="56" spans="8:23" ht="15.75" thickBot="1">
-      <c r="H56" s="55"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="125"/>
-      <c r="K56" s="125"/>
-      <c r="L56" s="91"/>
-      <c r="M56" s="92"/>
-      <c r="N56" s="92"/>
-      <c r="O56" s="92"/>
-      <c r="P56" s="92"/>
-      <c r="Q56" s="92"/>
-      <c r="R56" s="92"/>
-      <c r="S56" s="92"/>
-      <c r="T56" s="92"/>
-      <c r="U56" s="92"/>
-      <c r="V56" s="92"/>
-      <c r="W56" s="93"/>
-    </row>
-    <row r="57" spans="8:23">
-      <c r="H57" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="I57" s="58"/>
-      <c r="J57" s="117" t="s">
-        <v>36</v>
-      </c>
-      <c r="K57" s="117"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="86"/>
-      <c r="N57" s="86"/>
-      <c r="O57" s="86"/>
-      <c r="P57" s="86"/>
-      <c r="Q57" s="86"/>
-      <c r="R57" s="86"/>
-      <c r="S57" s="86"/>
-      <c r="T57" s="86"/>
-      <c r="U57" s="86"/>
-      <c r="V57" s="86"/>
-      <c r="W57" s="87"/>
-    </row>
-    <row r="58" spans="8:23">
-      <c r="H58" s="59"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="113"/>
-      <c r="L58" s="63"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-      <c r="P58" s="64"/>
-      <c r="Q58" s="64"/>
-      <c r="R58" s="64"/>
-      <c r="S58" s="64"/>
-      <c r="T58" s="64"/>
-      <c r="U58" s="64"/>
-      <c r="V58" s="64"/>
-      <c r="W58" s="65"/>
-    </row>
-    <row r="59" spans="8:23">
-      <c r="H59" s="59"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="112"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="64"/>
-      <c r="R59" s="64"/>
-      <c r="S59" s="64"/>
-      <c r="T59" s="64"/>
-      <c r="U59" s="64"/>
-      <c r="V59" s="64"/>
-      <c r="W59" s="65"/>
-    </row>
-    <row r="60" spans="8:23">
-      <c r="H60" s="59"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="113"/>
-      <c r="K60" s="113"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="64"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="64"/>
-      <c r="P60" s="64"/>
-      <c r="Q60" s="64"/>
-      <c r="R60" s="64"/>
-      <c r="S60" s="64"/>
-      <c r="T60" s="64"/>
-      <c r="U60" s="64"/>
-      <c r="V60" s="64"/>
-      <c r="W60" s="65"/>
-    </row>
-    <row r="61" spans="8:23">
-      <c r="H61" s="59"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="112" t="s">
-        <v>37</v>
-      </c>
-      <c r="K61" s="112"/>
-      <c r="L61" s="63"/>
-      <c r="M61" s="64"/>
-      <c r="N61" s="64"/>
-      <c r="O61" s="64"/>
-      <c r="P61" s="64"/>
-      <c r="Q61" s="64"/>
-      <c r="R61" s="64"/>
-      <c r="S61" s="64"/>
-      <c r="T61" s="64"/>
-      <c r="U61" s="64"/>
-      <c r="V61" s="64"/>
-      <c r="W61" s="65"/>
-    </row>
-    <row r="62" spans="8:23">
-      <c r="H62" s="59"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="113"/>
-      <c r="K62" s="113"/>
-      <c r="L62" s="63"/>
-      <c r="M62" s="64"/>
-      <c r="N62" s="64"/>
-      <c r="O62" s="64"/>
-      <c r="P62" s="64"/>
-      <c r="Q62" s="64"/>
-      <c r="R62" s="64"/>
-      <c r="S62" s="64"/>
-      <c r="T62" s="64"/>
-      <c r="U62" s="64"/>
-      <c r="V62" s="64"/>
-      <c r="W62" s="65"/>
-    </row>
-    <row r="63" spans="8:23">
-      <c r="H63" s="59"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="K63" s="112"/>
-      <c r="L63" s="63"/>
-      <c r="M63" s="64"/>
-      <c r="N63" s="64"/>
-      <c r="O63" s="64"/>
-      <c r="P63" s="64"/>
-      <c r="Q63" s="64"/>
-      <c r="R63" s="64"/>
-      <c r="S63" s="64"/>
-      <c r="T63" s="64"/>
-      <c r="U63" s="64"/>
-      <c r="V63" s="64"/>
-      <c r="W63" s="65"/>
-    </row>
-    <row r="64" spans="8:23" ht="15.75" thickBot="1">
-      <c r="H64" s="61"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="114"/>
-      <c r="K64" s="114"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
-      <c r="T64" s="67"/>
-      <c r="U64" s="67"/>
-      <c r="V64" s="67"/>
-      <c r="W64" s="68"/>
+      <c r="I63" s="153"/>
+      <c r="J63" s="153"/>
+      <c r="K63" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="41"/>
+    </row>
+    <row r="64" spans="7:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H64" s="154"/>
+      <c r="I64" s="155"/>
+      <c r="J64" s="155"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="44"/>
+    </row>
+    <row r="65" spans="11:23">
+      <c r="K65" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="40"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="41"/>
+    </row>
+    <row r="66" spans="11:23" ht="15.75" thickBot="1">
+      <c r="K66" s="42"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="43"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
+      <c r="V66" s="43"/>
+      <c r="W66" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="116">
+  <mergeCells count="109">
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="A14:B14"/>
@@ -3402,8 +4061,6 @@
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="P13:Q13"/>
@@ -3425,31 +4082,32 @@
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="R12:S12"/>
-    <mergeCell ref="J37:K38"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="J55:K56"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="J31:W32"/>
-    <mergeCell ref="J33:K34"/>
-    <mergeCell ref="J35:K36"/>
     <mergeCell ref="L33:W33"/>
     <mergeCell ref="L34:W34"/>
     <mergeCell ref="L35:W35"/>
     <mergeCell ref="L36:W36"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="J59:K60"/>
-    <mergeCell ref="J61:K62"/>
-    <mergeCell ref="J63:K64"/>
-    <mergeCell ref="J49:K50"/>
-    <mergeCell ref="J57:K58"/>
-    <mergeCell ref="J43:K44"/>
-    <mergeCell ref="J45:K46"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="J53:K54"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="L57:W57"/>
+    <mergeCell ref="L58:W58"/>
+    <mergeCell ref="L59:W59"/>
+    <mergeCell ref="L60:W60"/>
+    <mergeCell ref="L61:W61"/>
+    <mergeCell ref="L41:W41"/>
+    <mergeCell ref="L52:W52"/>
+    <mergeCell ref="L53:W53"/>
+    <mergeCell ref="L54:W54"/>
+    <mergeCell ref="L49:W49"/>
+    <mergeCell ref="L50:W50"/>
+    <mergeCell ref="L51:W51"/>
     <mergeCell ref="L42:W42"/>
     <mergeCell ref="L43:W43"/>
     <mergeCell ref="L44:W44"/>
@@ -3457,26 +4115,6 @@
     <mergeCell ref="L46:W46"/>
     <mergeCell ref="L37:W37"/>
     <mergeCell ref="L38:W38"/>
-    <mergeCell ref="L39:W39"/>
-    <mergeCell ref="L40:W40"/>
-    <mergeCell ref="L41:W41"/>
-    <mergeCell ref="L52:W52"/>
-    <mergeCell ref="L53:W53"/>
-    <mergeCell ref="L54:W54"/>
-    <mergeCell ref="L55:W55"/>
-    <mergeCell ref="L56:W56"/>
-    <mergeCell ref="L47:W47"/>
-    <mergeCell ref="L48:W48"/>
-    <mergeCell ref="L49:W49"/>
-    <mergeCell ref="L50:W50"/>
-    <mergeCell ref="L51:W51"/>
-    <mergeCell ref="H33:I40"/>
-    <mergeCell ref="H41:I48"/>
-    <mergeCell ref="H49:I56"/>
-    <mergeCell ref="H57:I64"/>
-    <mergeCell ref="L62:W62"/>
-    <mergeCell ref="L63:W63"/>
-    <mergeCell ref="L64:W64"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O9"/>
@@ -3486,14 +4124,28 @@
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="L57:W57"/>
-    <mergeCell ref="L58:W58"/>
-    <mergeCell ref="L59:W59"/>
-    <mergeCell ref="L60:W60"/>
-    <mergeCell ref="L61:W61"/>
+    <mergeCell ref="K65:W66"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="G49:G54"/>
+    <mergeCell ref="G41:G46"/>
+    <mergeCell ref="J33:K38"/>
+    <mergeCell ref="H33:I38"/>
+    <mergeCell ref="J41:K46"/>
+    <mergeCell ref="J49:K54"/>
+    <mergeCell ref="J57:K62"/>
+    <mergeCell ref="H41:I46"/>
+    <mergeCell ref="H49:I54"/>
+    <mergeCell ref="H57:I62"/>
+    <mergeCell ref="H39:J40"/>
+    <mergeCell ref="H47:J48"/>
+    <mergeCell ref="H55:J56"/>
+    <mergeCell ref="K39:W40"/>
+    <mergeCell ref="K47:W48"/>
+    <mergeCell ref="K55:W56"/>
+    <mergeCell ref="L62:W62"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="K63:W64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Metodos ( relaciones con la tabla ).xlsx
+++ b/Metodos ( relaciones con la tabla ).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>Dni</t>
   </si>
@@ -566,12 +566,42 @@
   <si>
     <t>4°</t>
   </si>
+  <si>
+    <t>EQUIPO              ↓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIEMBRO      ↓ </t>
+  </si>
+  <si>
+    <t>ID EQUIPO</t>
+  </si>
+  <si>
+    <t>NOMBRE EQUIPO</t>
+  </si>
+  <si>
+    <t>NOMBRE PROYECTO</t>
+  </si>
+  <si>
+    <t>FECHA CREACION</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>NOMBRE Y APELLIDO</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>FECHA INCORPORACION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +719,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -788,7 +825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1466,11 +1503,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1556,6 +1619,519 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1574,9 +2150,6 @@
     <xf numFmtId="0" fontId="13" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,9 +2193,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1793,530 +2363,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2614,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:W66"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2655,29 +2752,29 @@
       <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="266" t="s">
+      <c r="B2" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="267"/>
-      <c r="D2" s="270" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="271"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="258" t="s">
+      <c r="K2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="259"/>
-      <c r="M2" s="260"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="85"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="220" t="s">
+      <c r="O2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="222"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
@@ -2689,21 +2786,21 @@
       <c r="A3" s="15">
         <v>6</v>
       </c>
-      <c r="B3" s="268"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="272"/>
-      <c r="E3" s="273"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="263"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="88"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="223"/>
-      <c r="P3" s="224"/>
-      <c r="Q3" s="225"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="50"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -2744,20 +2841,20 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="285" t="s">
+      <c r="K5" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="286"/>
-      <c r="M5" s="286"/>
-      <c r="N5" s="287"/>
-      <c r="O5" s="287"/>
-      <c r="P5" s="287"/>
-      <c r="Q5" s="287"/>
-      <c r="R5" s="287"/>
-      <c r="S5" s="287"/>
-      <c r="T5" s="287"/>
-      <c r="U5" s="287"/>
-      <c r="V5" s="288"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="115"/>
       <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23" ht="21.75" thickBot="1">
@@ -2772,25 +2869,25 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="289" t="s">
+      <c r="K6" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="290"/>
+      <c r="L6" s="117"/>
       <c r="M6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="264" t="s">
+      <c r="N6" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="265"/>
-      <c r="P6" s="216" t="s">
+      <c r="O6" s="90"/>
+      <c r="P6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="217"/>
-      <c r="R6" s="214" t="s">
+      <c r="Q6" s="42"/>
+      <c r="R6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="215"/>
+      <c r="S6" s="40"/>
       <c r="T6" s="37" t="s">
         <v>2</v>
       </c>
@@ -2812,25 +2909,25 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="191" t="s">
+      <c r="K7" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="192"/>
-      <c r="M7" s="195">
+      <c r="L7" s="135"/>
+      <c r="M7" s="136">
         <v>1</v>
       </c>
-      <c r="N7" s="118">
+      <c r="N7" s="155">
         <v>2</v>
       </c>
-      <c r="O7" s="119"/>
-      <c r="P7" s="256">
+      <c r="O7" s="138"/>
+      <c r="P7" s="81">
         <v>13</v>
       </c>
-      <c r="Q7" s="257"/>
-      <c r="R7" s="189">
+      <c r="Q7" s="82"/>
+      <c r="R7" s="132">
         <v>1</v>
       </c>
-      <c r="S7" s="190"/>
+      <c r="S7" s="133"/>
       <c r="T7" s="35" t="s">
         <v>32</v>
       </c>
@@ -2852,15 +2949,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="187"/>
-      <c r="Q8" s="188"/>
-      <c r="R8" s="208"/>
-      <c r="S8" s="209"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="150"/>
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
       <c r="V8" s="31"/>
@@ -2890,15 +2987,15 @@
       </c>
       <c r="H9" s="7"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="195"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="187"/>
-      <c r="Q9" s="188"/>
-      <c r="R9" s="208"/>
-      <c r="S9" s="209"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="129"/>
+      <c r="R9" s="149"/>
+      <c r="S9" s="150"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
       <c r="V9" s="31"/>
@@ -2928,15 +3025,15 @@
       </c>
       <c r="H10" s="7"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="194"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="204"/>
-      <c r="Q10" s="205"/>
-      <c r="R10" s="210"/>
-      <c r="S10" s="211"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="205"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="145"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="152"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
       <c r="V10" s="33"/>
@@ -2966,25 +3063,25 @@
       </c>
       <c r="H11" s="7"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="197" t="s">
+      <c r="K11" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="198"/>
-      <c r="M11" s="196">
+      <c r="L11" s="140"/>
+      <c r="M11" s="137">
         <v>1</v>
       </c>
-      <c r="N11" s="124">
+      <c r="N11" s="206">
         <v>6</v>
       </c>
-      <c r="O11" s="125"/>
-      <c r="P11" s="206">
+      <c r="O11" s="207"/>
+      <c r="P11" s="147">
         <v>17</v>
       </c>
-      <c r="Q11" s="207"/>
-      <c r="R11" s="212">
+      <c r="Q11" s="148"/>
+      <c r="R11" s="153">
         <v>5</v>
       </c>
-      <c r="S11" s="213"/>
+      <c r="S11" s="154"/>
       <c r="T11" s="28" t="s">
         <v>7</v>
       </c>
@@ -3006,15 +3103,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="199"/>
-      <c r="L12" s="200"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="187"/>
-      <c r="Q12" s="188"/>
-      <c r="R12" s="201"/>
-      <c r="S12" s="202"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="142"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="204"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="143"/>
+      <c r="S12" s="144"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
       <c r="V12" s="31"/>
@@ -3022,35 +3119,35 @@
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="274" t="s">
+      <c r="B13" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="275"/>
-      <c r="D13" s="275"/>
-      <c r="E13" s="275"/>
-      <c r="F13" s="276"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="7"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="277" t="s">
+      <c r="K13" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="278"/>
-      <c r="M13" s="123">
+      <c r="L13" s="103"/>
+      <c r="M13" s="124">
         <v>1</v>
       </c>
-      <c r="N13" s="120"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="187">
+      <c r="N13" s="118"/>
+      <c r="O13" s="204"/>
+      <c r="P13" s="128">
         <v>18</v>
       </c>
-      <c r="Q13" s="188"/>
-      <c r="R13" s="201">
+      <c r="Q13" s="129"/>
+      <c r="R13" s="143">
         <v>6</v>
       </c>
-      <c r="S13" s="202"/>
+      <c r="S13" s="144"/>
       <c r="T13" s="30" t="s">
         <v>8</v>
       </c>
@@ -3063,10 +3160,10 @@
       <c r="W13" s="7"/>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A14" s="218" t="s">
+      <c r="A14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="219"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3074,15 +3171,15 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="193"/>
-      <c r="L14" s="194"/>
-      <c r="M14" s="185"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="172"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="203"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="208"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="121"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="26"/>
@@ -3098,14 +3195,14 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="232"/>
-      <c r="L15" s="233"/>
-      <c r="M15" s="186"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="291"/>
-      <c r="Q15" s="292"/>
-      <c r="R15" s="118"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="209"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="155"/>
       <c r="S15" s="156"/>
       <c r="T15" s="23"/>
       <c r="U15" s="23"/>
@@ -3122,53 +3219,73 @@
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="234"/>
-      <c r="L16" s="235"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="183"/>
-      <c r="Q16" s="184"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="157"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="173"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="172"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="119"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="24"/>
       <c r="W16" s="7"/>
     </row>
-    <row r="17" spans="10:23" ht="20.25" customHeight="1">
+    <row r="17" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
       <c r="J17" s="5"/>
-      <c r="K17" s="236"/>
-      <c r="L17" s="237"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="183"/>
-      <c r="Q17" s="184"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="157"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="171"/>
+      <c r="Q17" s="172"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="119"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="24"/>
       <c r="W17" s="7"/>
     </row>
-    <row r="18" spans="10:23" ht="20.25" customHeight="1" thickBot="1">
+    <row r="18" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="238"/>
-      <c r="L18" s="239"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="203"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="176"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="121"/>
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
       <c r="V18" s="26"/>
       <c r="W18" s="7"/>
     </row>
-    <row r="19" spans="10:23" ht="29.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:23" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="297" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="298"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="291" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="292"/>
+      <c r="G19" s="293"/>
+      <c r="H19" s="7"/>
       <c r="J19" s="5"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -3184,81 +3301,131 @@
       <c r="V19" s="6"/>
       <c r="W19" s="7"/>
     </row>
-    <row r="20" spans="10:23">
+    <row r="20" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="299"/>
+      <c r="C20" s="300"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="294"/>
+      <c r="F20" s="295"/>
+      <c r="G20" s="296"/>
+      <c r="H20" s="7"/>
       <c r="J20" s="5"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="244" t="s">
+      <c r="L20" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="245"/>
-      <c r="N20" s="248" t="s">
+      <c r="M20" s="70"/>
+      <c r="N20" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="249"/>
-      <c r="P20" s="252" t="s">
+      <c r="O20" s="74"/>
+      <c r="P20" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="253"/>
-      <c r="R20" s="240" t="s">
+      <c r="Q20" s="78"/>
+      <c r="R20" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="S20" s="241"/>
+      <c r="S20" s="66"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="7"/>
     </row>
-    <row r="21" spans="10:23" ht="15.75" thickBot="1">
+    <row r="21" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="246"/>
-      <c r="M21" s="247"/>
-      <c r="N21" s="250"/>
-      <c r="O21" s="251"/>
-      <c r="P21" s="254"/>
-      <c r="Q21" s="255"/>
-      <c r="R21" s="242"/>
-      <c r="S21" s="243"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="68"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="7"/>
     </row>
-    <row r="22" spans="10:23">
+    <row r="22" spans="1:23">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="279" t="s">
+      <c r="L22" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="280"/>
-      <c r="N22" s="280"/>
-      <c r="O22" s="280"/>
-      <c r="P22" s="280"/>
-      <c r="Q22" s="280"/>
-      <c r="R22" s="280"/>
-      <c r="S22" s="281"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="108"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="7"/>
     </row>
-    <row r="23" spans="10:23" ht="15.75" thickBot="1">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="301" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="302"/>
+      <c r="E23" s="301" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="302"/>
+      <c r="G23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="7"/>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="282"/>
-      <c r="M23" s="283"/>
-      <c r="N23" s="283"/>
-      <c r="O23" s="283"/>
-      <c r="P23" s="283"/>
-      <c r="Q23" s="283"/>
-      <c r="R23" s="283"/>
-      <c r="S23" s="284"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="111"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="7"/>
     </row>
-    <row r="24" spans="10:23">
+    <row r="24" spans="1:23">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="7"/>
       <c r="J24" s="5"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -3274,7 +3441,15 @@
       <c r="V24" s="6"/>
       <c r="W24" s="7"/>
     </row>
-    <row r="25" spans="10:23" ht="15.75" thickBot="1">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="7"/>
       <c r="J25" s="8"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -3290,753 +3465,909 @@
       <c r="V25" s="9"/>
       <c r="W25" s="10"/>
     </row>
-    <row r="27" spans="10:23" ht="15.75" thickBot="1"/>
-    <row r="28" spans="10:23">
-      <c r="J28" s="226" t="s">
+    <row r="26" spans="1:23">
+      <c r="A26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="301" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="304"/>
+      <c r="E26" s="303"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="7"/>
+      <c r="J28" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="227"/>
-      <c r="L28" s="227"/>
-      <c r="M28" s="227"/>
-      <c r="N28" s="227"/>
-      <c r="O28" s="227"/>
-      <c r="P28" s="227"/>
-      <c r="Q28" s="227"/>
-      <c r="R28" s="227"/>
-      <c r="S28" s="227"/>
-      <c r="T28" s="227"/>
-      <c r="U28" s="227"/>
-      <c r="V28" s="227"/>
-      <c r="W28" s="228"/>
-    </row>
-    <row r="29" spans="10:23" ht="15.75" thickBot="1">
-      <c r="J29" s="229"/>
-      <c r="K29" s="230"/>
-      <c r="L29" s="230"/>
-      <c r="M29" s="230"/>
-      <c r="N29" s="230"/>
-      <c r="O29" s="230"/>
-      <c r="P29" s="230"/>
-      <c r="Q29" s="230"/>
-      <c r="R29" s="230"/>
-      <c r="S29" s="230"/>
-      <c r="T29" s="230"/>
-      <c r="U29" s="230"/>
-      <c r="V29" s="230"/>
-      <c r="W29" s="231"/>
-    </row>
-    <row r="30" spans="10:23" ht="15.75" thickBot="1"/>
-    <row r="31" spans="10:23">
-      <c r="J31" s="158" t="s">
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="53"/>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="7"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="56"/>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="J31" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="159"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="159"/>
-      <c r="N31" s="159"/>
-      <c r="O31" s="159"/>
-      <c r="P31" s="159"/>
-      <c r="Q31" s="159"/>
-      <c r="R31" s="159"/>
-      <c r="S31" s="159"/>
-      <c r="T31" s="159"/>
-      <c r="U31" s="159"/>
-      <c r="V31" s="159"/>
-      <c r="W31" s="160"/>
-    </row>
-    <row r="32" spans="10:23" ht="15.75" thickBot="1">
-      <c r="J32" s="161"/>
-      <c r="K32" s="162"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="162"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="162"/>
-      <c r="P32" s="162"/>
-      <c r="Q32" s="162"/>
-      <c r="R32" s="162"/>
-      <c r="S32" s="162"/>
-      <c r="T32" s="162"/>
-      <c r="U32" s="162"/>
-      <c r="V32" s="162"/>
-      <c r="W32" s="163"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="158"/>
+      <c r="S31" s="158"/>
+      <c r="T31" s="158"/>
+      <c r="U31" s="158"/>
+      <c r="V31" s="158"/>
+      <c r="W31" s="159"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="161"/>
+      <c r="S32" s="161"/>
+      <c r="T32" s="161"/>
+      <c r="U32" s="161"/>
+      <c r="V32" s="161"/>
+      <c r="W32" s="162"/>
     </row>
     <row r="33" spans="2:23" ht="15" customHeight="1">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="216" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="61" t="s">
+      <c r="H33" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="62"/>
-      <c r="J33" s="57" t="s">
+      <c r="I33" s="231"/>
+      <c r="J33" s="227" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="58"/>
-      <c r="L33" s="164"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="165"/>
-      <c r="P33" s="165"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="165"/>
-      <c r="S33" s="165"/>
-      <c r="T33" s="165"/>
-      <c r="U33" s="165"/>
-      <c r="V33" s="165"/>
-      <c r="W33" s="166"/>
+      <c r="K33" s="228"/>
+      <c r="L33" s="163"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="164"/>
+      <c r="R33" s="164"/>
+      <c r="S33" s="164"/>
+      <c r="T33" s="164"/>
+      <c r="U33" s="164"/>
+      <c r="V33" s="164"/>
+      <c r="W33" s="165"/>
     </row>
     <row r="34" spans="2:23" ht="15" customHeight="1">
-      <c r="G34" s="46"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="167"/>
-      <c r="M34" s="168"/>
-      <c r="N34" s="168"/>
-      <c r="O34" s="168"/>
-      <c r="P34" s="168"/>
-      <c r="Q34" s="168"/>
-      <c r="R34" s="168"/>
-      <c r="S34" s="168"/>
-      <c r="T34" s="168"/>
-      <c r="U34" s="168"/>
-      <c r="V34" s="168"/>
-      <c r="W34" s="169"/>
+      <c r="G34" s="216"/>
+      <c r="H34" s="232"/>
+      <c r="I34" s="233"/>
+      <c r="J34" s="229"/>
+      <c r="K34" s="230"/>
+      <c r="L34" s="166"/>
+      <c r="M34" s="167"/>
+      <c r="N34" s="167"/>
+      <c r="O34" s="167"/>
+      <c r="P34" s="167"/>
+      <c r="Q34" s="167"/>
+      <c r="R34" s="167"/>
+      <c r="S34" s="167"/>
+      <c r="T34" s="167"/>
+      <c r="U34" s="167"/>
+      <c r="V34" s="167"/>
+      <c r="W34" s="168"/>
     </row>
     <row r="35" spans="2:23" ht="15" customHeight="1">
-      <c r="G35" s="46"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="167"/>
-      <c r="M35" s="168"/>
-      <c r="N35" s="168"/>
-      <c r="O35" s="168"/>
-      <c r="P35" s="168"/>
-      <c r="Q35" s="168"/>
-      <c r="R35" s="168"/>
-      <c r="S35" s="168"/>
-      <c r="T35" s="168"/>
-      <c r="U35" s="168"/>
-      <c r="V35" s="168"/>
-      <c r="W35" s="169"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="232"/>
+      <c r="I35" s="233"/>
+      <c r="J35" s="229"/>
+      <c r="K35" s="230"/>
+      <c r="L35" s="166"/>
+      <c r="M35" s="167"/>
+      <c r="N35" s="167"/>
+      <c r="O35" s="167"/>
+      <c r="P35" s="167"/>
+      <c r="Q35" s="167"/>
+      <c r="R35" s="167"/>
+      <c r="S35" s="167"/>
+      <c r="T35" s="167"/>
+      <c r="U35" s="167"/>
+      <c r="V35" s="167"/>
+      <c r="W35" s="168"/>
     </row>
     <row r="36" spans="2:23" ht="15" customHeight="1">
-      <c r="G36" s="46"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="167"/>
-      <c r="M36" s="168"/>
-      <c r="N36" s="168"/>
-      <c r="O36" s="168"/>
-      <c r="P36" s="168"/>
-      <c r="Q36" s="168"/>
-      <c r="R36" s="168"/>
-      <c r="S36" s="168"/>
-      <c r="T36" s="168"/>
-      <c r="U36" s="168"/>
-      <c r="V36" s="168"/>
-      <c r="W36" s="169"/>
+      <c r="G36" s="216"/>
+      <c r="H36" s="232"/>
+      <c r="I36" s="233"/>
+      <c r="J36" s="229"/>
+      <c r="K36" s="230"/>
+      <c r="L36" s="166"/>
+      <c r="M36" s="167"/>
+      <c r="N36" s="167"/>
+      <c r="O36" s="167"/>
+      <c r="P36" s="167"/>
+      <c r="Q36" s="167"/>
+      <c r="R36" s="167"/>
+      <c r="S36" s="167"/>
+      <c r="T36" s="167"/>
+      <c r="U36" s="167"/>
+      <c r="V36" s="167"/>
+      <c r="W36" s="168"/>
     </row>
     <row r="37" spans="2:23" ht="15" customHeight="1">
-      <c r="G37" s="46"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="167"/>
-      <c r="M37" s="168"/>
-      <c r="N37" s="168"/>
-      <c r="O37" s="168"/>
-      <c r="P37" s="168"/>
-      <c r="Q37" s="168"/>
-      <c r="R37" s="168"/>
-      <c r="S37" s="168"/>
-      <c r="T37" s="168"/>
-      <c r="U37" s="168"/>
-      <c r="V37" s="168"/>
-      <c r="W37" s="169"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="232"/>
+      <c r="I37" s="233"/>
+      <c r="J37" s="229"/>
+      <c r="K37" s="230"/>
+      <c r="L37" s="166"/>
+      <c r="M37" s="167"/>
+      <c r="N37" s="167"/>
+      <c r="O37" s="167"/>
+      <c r="P37" s="167"/>
+      <c r="Q37" s="167"/>
+      <c r="R37" s="167"/>
+      <c r="S37" s="167"/>
+      <c r="T37" s="167"/>
+      <c r="U37" s="167"/>
+      <c r="V37" s="167"/>
+      <c r="W37" s="168"/>
     </row>
     <row r="38" spans="2:23" ht="15" customHeight="1" thickBot="1">
-      <c r="G38" s="47"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="180"/>
-      <c r="M38" s="181"/>
-      <c r="N38" s="181"/>
-      <c r="O38" s="181"/>
-      <c r="P38" s="181"/>
-      <c r="Q38" s="181"/>
-      <c r="R38" s="181"/>
-      <c r="S38" s="181"/>
-      <c r="T38" s="181"/>
-      <c r="U38" s="181"/>
-      <c r="V38" s="181"/>
-      <c r="W38" s="182"/>
+      <c r="G38" s="217"/>
+      <c r="H38" s="232"/>
+      <c r="I38" s="233"/>
+      <c r="J38" s="229"/>
+      <c r="K38" s="230"/>
+      <c r="L38" s="201"/>
+      <c r="M38" s="202"/>
+      <c r="N38" s="202"/>
+      <c r="O38" s="202"/>
+      <c r="P38" s="202"/>
+      <c r="Q38" s="202"/>
+      <c r="R38" s="202"/>
+      <c r="S38" s="202"/>
+      <c r="T38" s="202"/>
+      <c r="U38" s="202"/>
+      <c r="V38" s="202"/>
+      <c r="W38" s="203"/>
     </row>
     <row r="39" spans="2:23" ht="15" customHeight="1">
-      <c r="H39" s="91" t="s">
+      <c r="H39" s="260" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="103" t="s">
+      <c r="I39" s="261"/>
+      <c r="J39" s="261"/>
+      <c r="K39" s="272" t="s">
         <v>42</v>
       </c>
-      <c r="L39" s="103"/>
-      <c r="M39" s="103"/>
-      <c r="N39" s="103"/>
-      <c r="O39" s="103"/>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="103"/>
-      <c r="R39" s="103"/>
-      <c r="S39" s="103"/>
-      <c r="T39" s="103"/>
-      <c r="U39" s="103"/>
-      <c r="V39" s="103"/>
-      <c r="W39" s="104"/>
+      <c r="L39" s="272"/>
+      <c r="M39" s="272"/>
+      <c r="N39" s="272"/>
+      <c r="O39" s="272"/>
+      <c r="P39" s="272"/>
+      <c r="Q39" s="272"/>
+      <c r="R39" s="272"/>
+      <c r="S39" s="272"/>
+      <c r="T39" s="272"/>
+      <c r="U39" s="272"/>
+      <c r="V39" s="272"/>
+      <c r="W39" s="273"/>
     </row>
     <row r="40" spans="2:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H40" s="93"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="105"/>
-      <c r="S40" s="105"/>
-      <c r="T40" s="105"/>
-      <c r="U40" s="105"/>
-      <c r="V40" s="105"/>
-      <c r="W40" s="106"/>
+      <c r="H40" s="262"/>
+      <c r="I40" s="263"/>
+      <c r="J40" s="263"/>
+      <c r="K40" s="274"/>
+      <c r="L40" s="274"/>
+      <c r="M40" s="274"/>
+      <c r="N40" s="274"/>
+      <c r="O40" s="274"/>
+      <c r="P40" s="274"/>
+      <c r="Q40" s="274"/>
+      <c r="R40" s="274"/>
+      <c r="S40" s="274"/>
+      <c r="T40" s="274"/>
+      <c r="U40" s="274"/>
+      <c r="V40" s="274"/>
+      <c r="W40" s="275"/>
     </row>
     <row r="41" spans="2:23" ht="15" customHeight="1">
-      <c r="G41" s="54" t="s">
+      <c r="G41" s="224" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="79" t="s">
+      <c r="H41" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="I41" s="80"/>
-      <c r="J41" s="65" t="s">
+      <c r="I41" s="249"/>
+      <c r="J41" s="234" t="s">
         <v>40</v>
       </c>
-      <c r="K41" s="66"/>
-      <c r="L41" s="140"/>
-      <c r="M41" s="141"/>
-      <c r="N41" s="141"/>
-      <c r="O41" s="141"/>
-      <c r="P41" s="141"/>
-      <c r="Q41" s="141"/>
-      <c r="R41" s="141"/>
-      <c r="S41" s="141"/>
-      <c r="T41" s="141"/>
-      <c r="U41" s="141"/>
-      <c r="V41" s="141"/>
-      <c r="W41" s="142"/>
+      <c r="K41" s="235"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="184"/>
+      <c r="N41" s="184"/>
+      <c r="O41" s="184"/>
+      <c r="P41" s="184"/>
+      <c r="Q41" s="184"/>
+      <c r="R41" s="184"/>
+      <c r="S41" s="184"/>
+      <c r="T41" s="184"/>
+      <c r="U41" s="184"/>
+      <c r="V41" s="184"/>
+      <c r="W41" s="185"/>
     </row>
     <row r="42" spans="2:23" ht="15" customHeight="1">
-      <c r="G42" s="55"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="174"/>
-      <c r="M42" s="175"/>
-      <c r="N42" s="175"/>
-      <c r="O42" s="175"/>
-      <c r="P42" s="175"/>
-      <c r="Q42" s="175"/>
-      <c r="R42" s="175"/>
-      <c r="S42" s="175"/>
-      <c r="T42" s="175"/>
-      <c r="U42" s="175"/>
-      <c r="V42" s="175"/>
-      <c r="W42" s="176"/>
+      <c r="G42" s="225"/>
+      <c r="H42" s="250"/>
+      <c r="I42" s="251"/>
+      <c r="J42" s="236"/>
+      <c r="K42" s="237"/>
+      <c r="L42" s="195"/>
+      <c r="M42" s="196"/>
+      <c r="N42" s="196"/>
+      <c r="O42" s="196"/>
+      <c r="P42" s="196"/>
+      <c r="Q42" s="196"/>
+      <c r="R42" s="196"/>
+      <c r="S42" s="196"/>
+      <c r="T42" s="196"/>
+      <c r="U42" s="196"/>
+      <c r="V42" s="196"/>
+      <c r="W42" s="197"/>
     </row>
     <row r="43" spans="2:23" ht="15" customHeight="1">
-      <c r="G43" s="55"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="174"/>
-      <c r="M43" s="175"/>
-      <c r="N43" s="175"/>
-      <c r="O43" s="175"/>
-      <c r="P43" s="175"/>
-      <c r="Q43" s="175"/>
-      <c r="R43" s="175"/>
-      <c r="S43" s="175"/>
-      <c r="T43" s="175"/>
-      <c r="U43" s="175"/>
-      <c r="V43" s="175"/>
-      <c r="W43" s="176"/>
+      <c r="G43" s="225"/>
+      <c r="H43" s="250"/>
+      <c r="I43" s="251"/>
+      <c r="J43" s="236"/>
+      <c r="K43" s="237"/>
+      <c r="L43" s="195"/>
+      <c r="M43" s="196"/>
+      <c r="N43" s="196"/>
+      <c r="O43" s="196"/>
+      <c r="P43" s="196"/>
+      <c r="Q43" s="196"/>
+      <c r="R43" s="196"/>
+      <c r="S43" s="196"/>
+      <c r="T43" s="196"/>
+      <c r="U43" s="196"/>
+      <c r="V43" s="196"/>
+      <c r="W43" s="197"/>
     </row>
     <row r="44" spans="2:23" ht="15" customHeight="1">
-      <c r="G44" s="55"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="174"/>
-      <c r="M44" s="175"/>
-      <c r="N44" s="175"/>
-      <c r="O44" s="175"/>
-      <c r="P44" s="175"/>
-      <c r="Q44" s="175"/>
-      <c r="R44" s="175"/>
-      <c r="S44" s="175"/>
-      <c r="T44" s="175"/>
-      <c r="U44" s="175"/>
-      <c r="V44" s="175"/>
-      <c r="W44" s="176"/>
+      <c r="G44" s="225"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="251"/>
+      <c r="J44" s="236"/>
+      <c r="K44" s="237"/>
+      <c r="L44" s="195"/>
+      <c r="M44" s="196"/>
+      <c r="N44" s="196"/>
+      <c r="O44" s="196"/>
+      <c r="P44" s="196"/>
+      <c r="Q44" s="196"/>
+      <c r="R44" s="196"/>
+      <c r="S44" s="196"/>
+      <c r="T44" s="196"/>
+      <c r="U44" s="196"/>
+      <c r="V44" s="196"/>
+      <c r="W44" s="197"/>
     </row>
     <row r="45" spans="2:23" ht="15" customHeight="1">
-      <c r="G45" s="55"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="174"/>
-      <c r="M45" s="175"/>
-      <c r="N45" s="175"/>
-      <c r="O45" s="175"/>
-      <c r="P45" s="175"/>
-      <c r="Q45" s="175"/>
-      <c r="R45" s="175"/>
-      <c r="S45" s="175"/>
-      <c r="T45" s="175"/>
-      <c r="U45" s="175"/>
-      <c r="V45" s="175"/>
-      <c r="W45" s="176"/>
+      <c r="G45" s="225"/>
+      <c r="H45" s="250"/>
+      <c r="I45" s="251"/>
+      <c r="J45" s="236"/>
+      <c r="K45" s="237"/>
+      <c r="L45" s="195"/>
+      <c r="M45" s="196"/>
+      <c r="N45" s="196"/>
+      <c r="O45" s="196"/>
+      <c r="P45" s="196"/>
+      <c r="Q45" s="196"/>
+      <c r="R45" s="196"/>
+      <c r="S45" s="196"/>
+      <c r="T45" s="196"/>
+      <c r="U45" s="196"/>
+      <c r="V45" s="196"/>
+      <c r="W45" s="197"/>
     </row>
     <row r="46" spans="2:23" ht="15" customHeight="1" thickBot="1">
-      <c r="G46" s="56"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="177"/>
-      <c r="M46" s="178"/>
-      <c r="N46" s="178"/>
-      <c r="O46" s="178"/>
-      <c r="P46" s="178"/>
-      <c r="Q46" s="178"/>
-      <c r="R46" s="178"/>
-      <c r="S46" s="178"/>
-      <c r="T46" s="178"/>
-      <c r="U46" s="178"/>
-      <c r="V46" s="178"/>
-      <c r="W46" s="179"/>
+      <c r="G46" s="226"/>
+      <c r="H46" s="250"/>
+      <c r="I46" s="251"/>
+      <c r="J46" s="236"/>
+      <c r="K46" s="237"/>
+      <c r="L46" s="198"/>
+      <c r="M46" s="199"/>
+      <c r="N46" s="199"/>
+      <c r="O46" s="199"/>
+      <c r="P46" s="199"/>
+      <c r="Q46" s="199"/>
+      <c r="R46" s="199"/>
+      <c r="S46" s="199"/>
+      <c r="T46" s="199"/>
+      <c r="U46" s="199"/>
+      <c r="V46" s="199"/>
+      <c r="W46" s="200"/>
     </row>
     <row r="47" spans="2:23" ht="15" customHeight="1">
-      <c r="H47" s="95" t="s">
+      <c r="H47" s="264" t="s">
         <v>41</v>
       </c>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="107" t="s">
+      <c r="I47" s="265"/>
+      <c r="J47" s="265"/>
+      <c r="K47" s="276" t="s">
         <v>43</v>
       </c>
-      <c r="L47" s="107"/>
-      <c r="M47" s="107"/>
-      <c r="N47" s="107"/>
-      <c r="O47" s="107"/>
-      <c r="P47" s="107"/>
-      <c r="Q47" s="107"/>
-      <c r="R47" s="107"/>
-      <c r="S47" s="107"/>
-      <c r="T47" s="107"/>
-      <c r="U47" s="107"/>
-      <c r="V47" s="107"/>
-      <c r="W47" s="108"/>
+      <c r="L47" s="276"/>
+      <c r="M47" s="276"/>
+      <c r="N47" s="276"/>
+      <c r="O47" s="276"/>
+      <c r="P47" s="276"/>
+      <c r="Q47" s="276"/>
+      <c r="R47" s="276"/>
+      <c r="S47" s="276"/>
+      <c r="T47" s="276"/>
+      <c r="U47" s="276"/>
+      <c r="V47" s="276"/>
+      <c r="W47" s="277"/>
     </row>
     <row r="48" spans="2:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H48" s="97"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="109"/>
-      <c r="L48" s="109"/>
-      <c r="M48" s="109"/>
-      <c r="N48" s="109"/>
-      <c r="O48" s="109"/>
-      <c r="P48" s="109"/>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="109"/>
-      <c r="S48" s="109"/>
-      <c r="T48" s="109"/>
-      <c r="U48" s="109"/>
-      <c r="V48" s="109"/>
-      <c r="W48" s="110"/>
+      <c r="H48" s="266"/>
+      <c r="I48" s="267"/>
+      <c r="J48" s="267"/>
+      <c r="K48" s="278"/>
+      <c r="L48" s="278"/>
+      <c r="M48" s="278"/>
+      <c r="N48" s="278"/>
+      <c r="O48" s="278"/>
+      <c r="P48" s="278"/>
+      <c r="Q48" s="278"/>
+      <c r="R48" s="278"/>
+      <c r="S48" s="278"/>
+      <c r="T48" s="278"/>
+      <c r="U48" s="278"/>
+      <c r="V48" s="278"/>
+      <c r="W48" s="279"/>
     </row>
     <row r="49" spans="7:23" ht="15" customHeight="1">
-      <c r="G49" s="51" t="s">
+      <c r="G49" s="221" t="s">
         <v>50</v>
       </c>
-      <c r="H49" s="83" t="s">
+      <c r="H49" s="252" t="s">
         <v>38</v>
       </c>
-      <c r="I49" s="84"/>
-      <c r="J49" s="69" t="s">
+      <c r="I49" s="253"/>
+      <c r="J49" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="K49" s="70"/>
-      <c r="L49" s="149"/>
-      <c r="M49" s="150"/>
-      <c r="N49" s="150"/>
-      <c r="O49" s="150"/>
-      <c r="P49" s="150"/>
-      <c r="Q49" s="150"/>
-      <c r="R49" s="150"/>
-      <c r="S49" s="150"/>
-      <c r="T49" s="150"/>
-      <c r="U49" s="150"/>
-      <c r="V49" s="150"/>
-      <c r="W49" s="151"/>
+      <c r="K49" s="239"/>
+      <c r="L49" s="192"/>
+      <c r="M49" s="193"/>
+      <c r="N49" s="193"/>
+      <c r="O49" s="193"/>
+      <c r="P49" s="193"/>
+      <c r="Q49" s="193"/>
+      <c r="R49" s="193"/>
+      <c r="S49" s="193"/>
+      <c r="T49" s="193"/>
+      <c r="U49" s="193"/>
+      <c r="V49" s="193"/>
+      <c r="W49" s="194"/>
     </row>
     <row r="50" spans="7:23" ht="15" customHeight="1">
-      <c r="G50" s="52"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="143"/>
-      <c r="M50" s="144"/>
-      <c r="N50" s="144"/>
-      <c r="O50" s="144"/>
-      <c r="P50" s="144"/>
-      <c r="Q50" s="144"/>
-      <c r="R50" s="144"/>
-      <c r="S50" s="144"/>
-      <c r="T50" s="144"/>
-      <c r="U50" s="144"/>
-      <c r="V50" s="144"/>
-      <c r="W50" s="145"/>
+      <c r="G50" s="222"/>
+      <c r="H50" s="254"/>
+      <c r="I50" s="255"/>
+      <c r="J50" s="240"/>
+      <c r="K50" s="241"/>
+      <c r="L50" s="186"/>
+      <c r="M50" s="187"/>
+      <c r="N50" s="187"/>
+      <c r="O50" s="187"/>
+      <c r="P50" s="187"/>
+      <c r="Q50" s="187"/>
+      <c r="R50" s="187"/>
+      <c r="S50" s="187"/>
+      <c r="T50" s="187"/>
+      <c r="U50" s="187"/>
+      <c r="V50" s="187"/>
+      <c r="W50" s="188"/>
     </row>
     <row r="51" spans="7:23" ht="15" customHeight="1">
-      <c r="G51" s="52"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="86"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="143"/>
-      <c r="M51" s="144"/>
-      <c r="N51" s="144"/>
-      <c r="O51" s="144"/>
-      <c r="P51" s="144"/>
-      <c r="Q51" s="144"/>
-      <c r="R51" s="144"/>
-      <c r="S51" s="144"/>
-      <c r="T51" s="144"/>
-      <c r="U51" s="144"/>
-      <c r="V51" s="144"/>
-      <c r="W51" s="145"/>
+      <c r="G51" s="222"/>
+      <c r="H51" s="254"/>
+      <c r="I51" s="255"/>
+      <c r="J51" s="240"/>
+      <c r="K51" s="241"/>
+      <c r="L51" s="186"/>
+      <c r="M51" s="187"/>
+      <c r="N51" s="187"/>
+      <c r="O51" s="187"/>
+      <c r="P51" s="187"/>
+      <c r="Q51" s="187"/>
+      <c r="R51" s="187"/>
+      <c r="S51" s="187"/>
+      <c r="T51" s="187"/>
+      <c r="U51" s="187"/>
+      <c r="V51" s="187"/>
+      <c r="W51" s="188"/>
     </row>
     <row r="52" spans="7:23" ht="15" customHeight="1">
-      <c r="G52" s="52"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="86"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="143"/>
-      <c r="M52" s="144"/>
-      <c r="N52" s="144"/>
-      <c r="O52" s="144"/>
-      <c r="P52" s="144"/>
-      <c r="Q52" s="144"/>
-      <c r="R52" s="144"/>
-      <c r="S52" s="144"/>
-      <c r="T52" s="144"/>
-      <c r="U52" s="144"/>
-      <c r="V52" s="144"/>
-      <c r="W52" s="145"/>
+      <c r="G52" s="222"/>
+      <c r="H52" s="254"/>
+      <c r="I52" s="255"/>
+      <c r="J52" s="240"/>
+      <c r="K52" s="241"/>
+      <c r="L52" s="186"/>
+      <c r="M52" s="187"/>
+      <c r="N52" s="187"/>
+      <c r="O52" s="187"/>
+      <c r="P52" s="187"/>
+      <c r="Q52" s="187"/>
+      <c r="R52" s="187"/>
+      <c r="S52" s="187"/>
+      <c r="T52" s="187"/>
+      <c r="U52" s="187"/>
+      <c r="V52" s="187"/>
+      <c r="W52" s="188"/>
     </row>
     <row r="53" spans="7:23" ht="15" customHeight="1">
-      <c r="G53" s="52"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="143"/>
-      <c r="M53" s="144"/>
-      <c r="N53" s="144"/>
-      <c r="O53" s="144"/>
-      <c r="P53" s="144"/>
-      <c r="Q53" s="144"/>
-      <c r="R53" s="144"/>
-      <c r="S53" s="144"/>
-      <c r="T53" s="144"/>
-      <c r="U53" s="144"/>
-      <c r="V53" s="144"/>
-      <c r="W53" s="145"/>
+      <c r="G53" s="222"/>
+      <c r="H53" s="254"/>
+      <c r="I53" s="255"/>
+      <c r="J53" s="240"/>
+      <c r="K53" s="241"/>
+      <c r="L53" s="186"/>
+      <c r="M53" s="187"/>
+      <c r="N53" s="187"/>
+      <c r="O53" s="187"/>
+      <c r="P53" s="187"/>
+      <c r="Q53" s="187"/>
+      <c r="R53" s="187"/>
+      <c r="S53" s="187"/>
+      <c r="T53" s="187"/>
+      <c r="U53" s="187"/>
+      <c r="V53" s="187"/>
+      <c r="W53" s="188"/>
     </row>
     <row r="54" spans="7:23" ht="15" customHeight="1" thickBot="1">
-      <c r="G54" s="53"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="146"/>
-      <c r="M54" s="147"/>
-      <c r="N54" s="147"/>
-      <c r="O54" s="147"/>
-      <c r="P54" s="147"/>
-      <c r="Q54" s="147"/>
-      <c r="R54" s="147"/>
-      <c r="S54" s="147"/>
-      <c r="T54" s="147"/>
-      <c r="U54" s="147"/>
-      <c r="V54" s="147"/>
-      <c r="W54" s="148"/>
+      <c r="G54" s="223"/>
+      <c r="H54" s="254"/>
+      <c r="I54" s="255"/>
+      <c r="J54" s="240"/>
+      <c r="K54" s="241"/>
+      <c r="L54" s="189"/>
+      <c r="M54" s="190"/>
+      <c r="N54" s="190"/>
+      <c r="O54" s="190"/>
+      <c r="P54" s="190"/>
+      <c r="Q54" s="190"/>
+      <c r="R54" s="190"/>
+      <c r="S54" s="190"/>
+      <c r="T54" s="190"/>
+      <c r="U54" s="190"/>
+      <c r="V54" s="190"/>
+      <c r="W54" s="191"/>
     </row>
     <row r="55" spans="7:23" ht="15" customHeight="1">
-      <c r="H55" s="99" t="s">
+      <c r="H55" s="268" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="111" t="s">
+      <c r="I55" s="269"/>
+      <c r="J55" s="269"/>
+      <c r="K55" s="280" t="s">
         <v>44</v>
       </c>
-      <c r="L55" s="111"/>
-      <c r="M55" s="111"/>
-      <c r="N55" s="111"/>
-      <c r="O55" s="111"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="111"/>
-      <c r="R55" s="111"/>
-      <c r="S55" s="111"/>
-      <c r="T55" s="111"/>
-      <c r="U55" s="111"/>
-      <c r="V55" s="111"/>
-      <c r="W55" s="112"/>
+      <c r="L55" s="280"/>
+      <c r="M55" s="280"/>
+      <c r="N55" s="280"/>
+      <c r="O55" s="280"/>
+      <c r="P55" s="280"/>
+      <c r="Q55" s="280"/>
+      <c r="R55" s="280"/>
+      <c r="S55" s="280"/>
+      <c r="T55" s="280"/>
+      <c r="U55" s="280"/>
+      <c r="V55" s="280"/>
+      <c r="W55" s="281"/>
     </row>
     <row r="56" spans="7:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H56" s="101"/>
-      <c r="I56" s="102"/>
-      <c r="J56" s="102"/>
-      <c r="K56" s="113"/>
-      <c r="L56" s="113"/>
-      <c r="M56" s="113"/>
-      <c r="N56" s="113"/>
-      <c r="O56" s="113"/>
-      <c r="P56" s="113"/>
-      <c r="Q56" s="113"/>
-      <c r="R56" s="113"/>
-      <c r="S56" s="113"/>
-      <c r="T56" s="113"/>
-      <c r="U56" s="113"/>
-      <c r="V56" s="113"/>
-      <c r="W56" s="114"/>
+      <c r="H56" s="270"/>
+      <c r="I56" s="271"/>
+      <c r="J56" s="271"/>
+      <c r="K56" s="282"/>
+      <c r="L56" s="282"/>
+      <c r="M56" s="282"/>
+      <c r="N56" s="282"/>
+      <c r="O56" s="282"/>
+      <c r="P56" s="282"/>
+      <c r="Q56" s="282"/>
+      <c r="R56" s="282"/>
+      <c r="S56" s="282"/>
+      <c r="T56" s="282"/>
+      <c r="U56" s="282"/>
+      <c r="V56" s="282"/>
+      <c r="W56" s="283"/>
     </row>
     <row r="57" spans="7:23" ht="15" customHeight="1">
-      <c r="G57" s="48" t="s">
+      <c r="G57" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="H57" s="87" t="s">
+      <c r="H57" s="256" t="s">
         <v>39</v>
       </c>
-      <c r="I57" s="88"/>
-      <c r="J57" s="73" t="s">
+      <c r="I57" s="257"/>
+      <c r="J57" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="K57" s="74"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="135"/>
-      <c r="N57" s="135"/>
-      <c r="O57" s="135"/>
-      <c r="P57" s="135"/>
-      <c r="Q57" s="135"/>
-      <c r="R57" s="135"/>
-      <c r="S57" s="135"/>
-      <c r="T57" s="135"/>
-      <c r="U57" s="135"/>
-      <c r="V57" s="135"/>
-      <c r="W57" s="136"/>
+      <c r="K57" s="243"/>
+      <c r="L57" s="177"/>
+      <c r="M57" s="178"/>
+      <c r="N57" s="178"/>
+      <c r="O57" s="178"/>
+      <c r="P57" s="178"/>
+      <c r="Q57" s="178"/>
+      <c r="R57" s="178"/>
+      <c r="S57" s="178"/>
+      <c r="T57" s="178"/>
+      <c r="U57" s="178"/>
+      <c r="V57" s="178"/>
+      <c r="W57" s="179"/>
     </row>
     <row r="58" spans="7:23" ht="15" customHeight="1">
-      <c r="G58" s="49"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="137"/>
-      <c r="M58" s="138"/>
-      <c r="N58" s="138"/>
-      <c r="O58" s="138"/>
-      <c r="P58" s="138"/>
-      <c r="Q58" s="138"/>
-      <c r="R58" s="138"/>
-      <c r="S58" s="138"/>
-      <c r="T58" s="138"/>
-      <c r="U58" s="138"/>
-      <c r="V58" s="138"/>
-      <c r="W58" s="139"/>
+      <c r="G58" s="219"/>
+      <c r="H58" s="258"/>
+      <c r="I58" s="259"/>
+      <c r="J58" s="244"/>
+      <c r="K58" s="245"/>
+      <c r="L58" s="180"/>
+      <c r="M58" s="181"/>
+      <c r="N58" s="181"/>
+      <c r="O58" s="181"/>
+      <c r="P58" s="181"/>
+      <c r="Q58" s="181"/>
+      <c r="R58" s="181"/>
+      <c r="S58" s="181"/>
+      <c r="T58" s="181"/>
+      <c r="U58" s="181"/>
+      <c r="V58" s="181"/>
+      <c r="W58" s="182"/>
     </row>
     <row r="59" spans="7:23" ht="15" customHeight="1">
-      <c r="G59" s="49"/>
-      <c r="H59" s="89"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="137"/>
-      <c r="M59" s="138"/>
-      <c r="N59" s="138"/>
-      <c r="O59" s="138"/>
-      <c r="P59" s="138"/>
-      <c r="Q59" s="138"/>
-      <c r="R59" s="138"/>
-      <c r="S59" s="138"/>
-      <c r="T59" s="138"/>
-      <c r="U59" s="138"/>
-      <c r="V59" s="138"/>
-      <c r="W59" s="139"/>
+      <c r="G59" s="219"/>
+      <c r="H59" s="258"/>
+      <c r="I59" s="259"/>
+      <c r="J59" s="244"/>
+      <c r="K59" s="245"/>
+      <c r="L59" s="180"/>
+      <c r="M59" s="181"/>
+      <c r="N59" s="181"/>
+      <c r="O59" s="181"/>
+      <c r="P59" s="181"/>
+      <c r="Q59" s="181"/>
+      <c r="R59" s="181"/>
+      <c r="S59" s="181"/>
+      <c r="T59" s="181"/>
+      <c r="U59" s="181"/>
+      <c r="V59" s="181"/>
+      <c r="W59" s="182"/>
     </row>
     <row r="60" spans="7:23" ht="15" customHeight="1">
-      <c r="G60" s="49"/>
-      <c r="H60" s="89"/>
-      <c r="I60" s="90"/>
-      <c r="J60" s="75"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="137"/>
-      <c r="M60" s="138"/>
-      <c r="N60" s="138"/>
-      <c r="O60" s="138"/>
-      <c r="P60" s="138"/>
-      <c r="Q60" s="138"/>
-      <c r="R60" s="138"/>
-      <c r="S60" s="138"/>
-      <c r="T60" s="138"/>
-      <c r="U60" s="138"/>
-      <c r="V60" s="138"/>
-      <c r="W60" s="139"/>
+      <c r="G60" s="219"/>
+      <c r="H60" s="258"/>
+      <c r="I60" s="259"/>
+      <c r="J60" s="244"/>
+      <c r="K60" s="245"/>
+      <c r="L60" s="180"/>
+      <c r="M60" s="181"/>
+      <c r="N60" s="181"/>
+      <c r="O60" s="181"/>
+      <c r="P60" s="181"/>
+      <c r="Q60" s="181"/>
+      <c r="R60" s="181"/>
+      <c r="S60" s="181"/>
+      <c r="T60" s="181"/>
+      <c r="U60" s="181"/>
+      <c r="V60" s="181"/>
+      <c r="W60" s="182"/>
     </row>
     <row r="61" spans="7:23" ht="15" customHeight="1">
-      <c r="G61" s="49"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="137"/>
-      <c r="M61" s="138"/>
-      <c r="N61" s="138"/>
-      <c r="O61" s="138"/>
-      <c r="P61" s="138"/>
-      <c r="Q61" s="138"/>
-      <c r="R61" s="138"/>
-      <c r="S61" s="138"/>
-      <c r="T61" s="138"/>
-      <c r="U61" s="138"/>
-      <c r="V61" s="138"/>
-      <c r="W61" s="139"/>
+      <c r="G61" s="219"/>
+      <c r="H61" s="258"/>
+      <c r="I61" s="259"/>
+      <c r="J61" s="244"/>
+      <c r="K61" s="245"/>
+      <c r="L61" s="180"/>
+      <c r="M61" s="181"/>
+      <c r="N61" s="181"/>
+      <c r="O61" s="181"/>
+      <c r="P61" s="181"/>
+      <c r="Q61" s="181"/>
+      <c r="R61" s="181"/>
+      <c r="S61" s="181"/>
+      <c r="T61" s="181"/>
+      <c r="U61" s="181"/>
+      <c r="V61" s="181"/>
+      <c r="W61" s="182"/>
     </row>
     <row r="62" spans="7:23" ht="15" customHeight="1" thickBot="1">
-      <c r="G62" s="50"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="78"/>
-      <c r="L62" s="115"/>
-      <c r="M62" s="116"/>
-      <c r="N62" s="116"/>
-      <c r="O62" s="116"/>
-      <c r="P62" s="116"/>
-      <c r="Q62" s="116"/>
-      <c r="R62" s="116"/>
-      <c r="S62" s="116"/>
-      <c r="T62" s="116"/>
-      <c r="U62" s="116"/>
-      <c r="V62" s="116"/>
-      <c r="W62" s="117"/>
+      <c r="G62" s="220"/>
+      <c r="H62" s="258"/>
+      <c r="I62" s="259"/>
+      <c r="J62" s="246"/>
+      <c r="K62" s="247"/>
+      <c r="L62" s="284"/>
+      <c r="M62" s="285"/>
+      <c r="N62" s="285"/>
+      <c r="O62" s="285"/>
+      <c r="P62" s="285"/>
+      <c r="Q62" s="285"/>
+      <c r="R62" s="285"/>
+      <c r="S62" s="285"/>
+      <c r="T62" s="285"/>
+      <c r="U62" s="285"/>
+      <c r="V62" s="285"/>
+      <c r="W62" s="286"/>
     </row>
     <row r="63" spans="7:23" ht="15" customHeight="1">
-      <c r="H63" s="152" t="s">
+      <c r="H63" s="287" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="153"/>
-      <c r="J63" s="153"/>
-      <c r="K63" s="40" t="s">
+      <c r="I63" s="288"/>
+      <c r="J63" s="288"/>
+      <c r="K63" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
-      <c r="W63" s="41"/>
+      <c r="L63" s="211"/>
+      <c r="M63" s="211"/>
+      <c r="N63" s="211"/>
+      <c r="O63" s="211"/>
+      <c r="P63" s="211"/>
+      <c r="Q63" s="211"/>
+      <c r="R63" s="211"/>
+      <c r="S63" s="211"/>
+      <c r="T63" s="211"/>
+      <c r="U63" s="211"/>
+      <c r="V63" s="211"/>
+      <c r="W63" s="212"/>
     </row>
     <row r="64" spans="7:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H64" s="154"/>
-      <c r="I64" s="155"/>
-      <c r="J64" s="155"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="43"/>
-      <c r="U64" s="43"/>
-      <c r="V64" s="43"/>
-      <c r="W64" s="44"/>
+      <c r="H64" s="289"/>
+      <c r="I64" s="290"/>
+      <c r="J64" s="290"/>
+      <c r="K64" s="214"/>
+      <c r="L64" s="214"/>
+      <c r="M64" s="214"/>
+      <c r="N64" s="214"/>
+      <c r="O64" s="214"/>
+      <c r="P64" s="214"/>
+      <c r="Q64" s="214"/>
+      <c r="R64" s="214"/>
+      <c r="S64" s="214"/>
+      <c r="T64" s="214"/>
+      <c r="U64" s="214"/>
+      <c r="V64" s="214"/>
+      <c r="W64" s="215"/>
     </row>
     <row r="65" spans="11:23">
-      <c r="K65" s="39" t="s">
+      <c r="K65" s="210" t="s">
         <v>47</v>
       </c>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="40"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="40"/>
-      <c r="W65" s="41"/>
+      <c r="L65" s="211"/>
+      <c r="M65" s="211"/>
+      <c r="N65" s="211"/>
+      <c r="O65" s="211"/>
+      <c r="P65" s="211"/>
+      <c r="Q65" s="211"/>
+      <c r="R65" s="211"/>
+      <c r="S65" s="211"/>
+      <c r="T65" s="211"/>
+      <c r="U65" s="211"/>
+      <c r="V65" s="211"/>
+      <c r="W65" s="212"/>
     </row>
     <row r="66" spans="11:23" ht="15.75" thickBot="1">
-      <c r="K66" s="42"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="43"/>
-      <c r="W66" s="44"/>
+      <c r="K66" s="213"/>
+      <c r="L66" s="214"/>
+      <c r="M66" s="214"/>
+      <c r="N66" s="214"/>
+      <c r="O66" s="214"/>
+      <c r="P66" s="214"/>
+      <c r="Q66" s="214"/>
+      <c r="R66" s="214"/>
+      <c r="S66" s="214"/>
+      <c r="T66" s="214"/>
+      <c r="U66" s="214"/>
+      <c r="V66" s="214"/>
+      <c r="W66" s="215"/>
     </row>
   </sheetData>
-  <mergeCells count="109">
+  <mergeCells count="114">
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K65:W66"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="G49:G54"/>
+    <mergeCell ref="G41:G46"/>
+    <mergeCell ref="J33:K38"/>
+    <mergeCell ref="H33:I38"/>
+    <mergeCell ref="J41:K46"/>
+    <mergeCell ref="J49:K54"/>
+    <mergeCell ref="J57:K62"/>
+    <mergeCell ref="H41:I46"/>
+    <mergeCell ref="H49:I54"/>
+    <mergeCell ref="H57:I62"/>
+    <mergeCell ref="H39:J40"/>
+    <mergeCell ref="H47:J48"/>
+    <mergeCell ref="H55:J56"/>
+    <mergeCell ref="K39:W40"/>
+    <mergeCell ref="K47:W48"/>
+    <mergeCell ref="K55:W56"/>
+    <mergeCell ref="L62:W62"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="K63:W64"/>
+    <mergeCell ref="L37:W37"/>
+    <mergeCell ref="L38:W38"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L57:W57"/>
+    <mergeCell ref="L58:W58"/>
+    <mergeCell ref="L59:W59"/>
+    <mergeCell ref="L60:W60"/>
+    <mergeCell ref="L61:W61"/>
+    <mergeCell ref="L41:W41"/>
+    <mergeCell ref="L52:W52"/>
+    <mergeCell ref="L53:W53"/>
+    <mergeCell ref="L54:W54"/>
+    <mergeCell ref="L49:W49"/>
+    <mergeCell ref="L50:W50"/>
+    <mergeCell ref="L51:W51"/>
+    <mergeCell ref="L42:W42"/>
+    <mergeCell ref="L43:W43"/>
+    <mergeCell ref="L44:W44"/>
+    <mergeCell ref="L45:W45"/>
+    <mergeCell ref="L46:W46"/>
+    <mergeCell ref="J31:W32"/>
+    <mergeCell ref="L33:W33"/>
+    <mergeCell ref="L34:W34"/>
+    <mergeCell ref="L35:W35"/>
+    <mergeCell ref="L36:W36"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="K7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="A14:B14"/>
@@ -4061,91 +4392,6 @@
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="K7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="J31:W32"/>
-    <mergeCell ref="L33:W33"/>
-    <mergeCell ref="L34:W34"/>
-    <mergeCell ref="L35:W35"/>
-    <mergeCell ref="L36:W36"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="L57:W57"/>
-    <mergeCell ref="L58:W58"/>
-    <mergeCell ref="L59:W59"/>
-    <mergeCell ref="L60:W60"/>
-    <mergeCell ref="L61:W61"/>
-    <mergeCell ref="L41:W41"/>
-    <mergeCell ref="L52:W52"/>
-    <mergeCell ref="L53:W53"/>
-    <mergeCell ref="L54:W54"/>
-    <mergeCell ref="L49:W49"/>
-    <mergeCell ref="L50:W50"/>
-    <mergeCell ref="L51:W51"/>
-    <mergeCell ref="L42:W42"/>
-    <mergeCell ref="L43:W43"/>
-    <mergeCell ref="L44:W44"/>
-    <mergeCell ref="L45:W45"/>
-    <mergeCell ref="L46:W46"/>
-    <mergeCell ref="L37:W37"/>
-    <mergeCell ref="L38:W38"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="K65:W66"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="G49:G54"/>
-    <mergeCell ref="G41:G46"/>
-    <mergeCell ref="J33:K38"/>
-    <mergeCell ref="H33:I38"/>
-    <mergeCell ref="J41:K46"/>
-    <mergeCell ref="J49:K54"/>
-    <mergeCell ref="J57:K62"/>
-    <mergeCell ref="H41:I46"/>
-    <mergeCell ref="H49:I54"/>
-    <mergeCell ref="H57:I62"/>
-    <mergeCell ref="H39:J40"/>
-    <mergeCell ref="H47:J48"/>
-    <mergeCell ref="H55:J56"/>
-    <mergeCell ref="K39:W40"/>
-    <mergeCell ref="K47:W48"/>
-    <mergeCell ref="K55:W56"/>
-    <mergeCell ref="L62:W62"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="K63:W64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Metodos ( relaciones con la tabla ).xlsx
+++ b/Metodos ( relaciones con la tabla ).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>Dni</t>
   </si>
@@ -464,26 +464,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">BUSCAR (por equipo y por miembro) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">| </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LISTAR (todos)</t>
+      <t>LISTAR (por tarea)</t>
     </r>
     <r>
       <rPr>
@@ -504,6 +485,51 @@
       </rPr>
       <t xml:space="preserve">ELIMINAR </t>
     </r>
+  </si>
+  <si>
+    <t>1°</t>
+  </si>
+  <si>
+    <t>2°</t>
+  </si>
+  <si>
+    <t>3°</t>
+  </si>
+  <si>
+    <t>4°</t>
+  </si>
+  <si>
+    <t>EQUIPO              ↓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIEMBRO      ↓ </t>
+  </si>
+  <si>
+    <t>Nombre Equipo</t>
+  </si>
+  <si>
+    <t>Nombre Proyecto</t>
+  </si>
+  <si>
+    <t>Fecha incorporacion</t>
+  </si>
+  <si>
+    <t>Estado Equipo</t>
+  </si>
+  <si>
+    <t>Estado Proyecto</t>
+  </si>
+  <si>
+    <t>Nombre y Apellido - DNI</t>
+  </si>
+  <si>
+    <t>Estado Miembro</t>
+  </si>
+  <si>
+    <t>Fecha Incorporacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estado Proyecto</t>
   </si>
   <si>
     <r>
@@ -532,7 +558,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>LISTAR (por tarea)</t>
+      <t xml:space="preserve">BUSCAR (por equipo y por miembro) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MODIFICAR</t>
     </r>
     <r>
       <rPr>
@@ -555,53 +600,17 @@
     </r>
   </si>
   <si>
-    <t>1°</t>
-  </si>
-  <si>
-    <t>2°</t>
-  </si>
-  <si>
-    <t>3°</t>
-  </si>
-  <si>
-    <t>4°</t>
-  </si>
-  <si>
-    <t>EQUIPO              ↓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIEMBRO      ↓ </t>
-  </si>
-  <si>
-    <t>ID EQUIPO</t>
-  </si>
-  <si>
-    <t>NOMBRE EQUIPO</t>
-  </si>
-  <si>
-    <t>NOMBRE PROYECTO</t>
-  </si>
-  <si>
-    <t>FECHA CREACION</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>NOMBRE Y APELLIDO</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>FECHA INCORPORACION</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>oculto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +735,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -825,7 +841,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1529,11 +1545,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1619,6 +1646,543 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1814,12 +2378,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1856,564 +2414,51 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2711,8 +2756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63:W64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2752,29 +2797,29 @@
       <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="95" t="s">
+      <c r="C2" s="271"/>
+      <c r="D2" s="274" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="96"/>
+      <c r="E2" s="275"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="83" t="s">
+      <c r="K2" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="264"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
+      <c r="P2" s="225"/>
+      <c r="Q2" s="226"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
@@ -2786,21 +2831,21 @@
       <c r="A3" s="15">
         <v>6</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="277"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="266"/>
+      <c r="M3" s="267"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="50"/>
+      <c r="O3" s="227"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" s="229"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -2841,20 +2886,20 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="112" t="s">
+      <c r="K5" s="289" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="115"/>
+      <c r="L5" s="290"/>
+      <c r="M5" s="290"/>
+      <c r="N5" s="291"/>
+      <c r="O5" s="291"/>
+      <c r="P5" s="291"/>
+      <c r="Q5" s="291"/>
+      <c r="R5" s="291"/>
+      <c r="S5" s="291"/>
+      <c r="T5" s="291"/>
+      <c r="U5" s="291"/>
+      <c r="V5" s="292"/>
       <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23" ht="21.75" thickBot="1">
@@ -2869,25 +2914,25 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="116" t="s">
+      <c r="K6" s="293" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="117"/>
+      <c r="L6" s="294"/>
       <c r="M6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="89" t="s">
+      <c r="N6" s="268" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="90"/>
-      <c r="P6" s="41" t="s">
+      <c r="O6" s="269"/>
+      <c r="P6" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="39" t="s">
+      <c r="Q6" s="221"/>
+      <c r="R6" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="40"/>
+      <c r="S6" s="219"/>
       <c r="T6" s="37" t="s">
         <v>2</v>
       </c>
@@ -2909,25 +2954,25 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="134" t="s">
+      <c r="K7" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="135"/>
-      <c r="M7" s="136">
+      <c r="L7" s="194"/>
+      <c r="M7" s="197">
         <v>1</v>
       </c>
-      <c r="N7" s="155">
+      <c r="N7" s="132">
         <v>2</v>
       </c>
-      <c r="O7" s="138"/>
-      <c r="P7" s="81">
+      <c r="O7" s="133"/>
+      <c r="P7" s="260">
         <v>13</v>
       </c>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="132">
+      <c r="Q7" s="261"/>
+      <c r="R7" s="191">
         <v>1</v>
       </c>
-      <c r="S7" s="133"/>
+      <c r="S7" s="192"/>
       <c r="T7" s="35" t="s">
         <v>32</v>
       </c>
@@ -2949,15 +2994,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="204"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="149"/>
-      <c r="S8" s="150"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="197"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="190"/>
+      <c r="R8" s="210"/>
+      <c r="S8" s="211"/>
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
       <c r="V8" s="31"/>
@@ -2987,15 +3032,15 @@
       </c>
       <c r="H9" s="7"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="149"/>
-      <c r="S9" s="150"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="190"/>
+      <c r="R9" s="210"/>
+      <c r="S9" s="211"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
       <c r="V9" s="31"/>
@@ -3025,15 +3070,15 @@
       </c>
       <c r="H10" s="7"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="205"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="145"/>
-      <c r="Q10" s="146"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="152"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="206"/>
+      <c r="Q10" s="207"/>
+      <c r="R10" s="212"/>
+      <c r="S10" s="213"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
       <c r="V10" s="33"/>
@@ -3063,25 +3108,25 @@
       </c>
       <c r="H11" s="7"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="139" t="s">
+      <c r="K11" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="140"/>
-      <c r="M11" s="137">
+      <c r="L11" s="200"/>
+      <c r="M11" s="198">
         <v>1</v>
       </c>
-      <c r="N11" s="206">
+      <c r="N11" s="138">
         <v>6</v>
       </c>
-      <c r="O11" s="207"/>
-      <c r="P11" s="147">
+      <c r="O11" s="139"/>
+      <c r="P11" s="208">
         <v>17</v>
       </c>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="153">
+      <c r="Q11" s="209"/>
+      <c r="R11" s="214">
         <v>5</v>
       </c>
-      <c r="S11" s="154"/>
+      <c r="S11" s="215"/>
       <c r="T11" s="28" t="s">
         <v>7</v>
       </c>
@@ -3103,15 +3148,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="142"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="204"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="143"/>
-      <c r="S12" s="144"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="202"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="203"/>
+      <c r="S12" s="204"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
       <c r="V12" s="31"/>
@@ -3119,35 +3164,35 @@
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101"/>
+      <c r="C13" s="279"/>
+      <c r="D13" s="279"/>
+      <c r="E13" s="279"/>
+      <c r="F13" s="280"/>
       <c r="G13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="7"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="102" t="s">
+      <c r="K13" s="281" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="103"/>
-      <c r="M13" s="124">
+      <c r="L13" s="282"/>
+      <c r="M13" s="137">
         <v>1</v>
       </c>
-      <c r="N13" s="118"/>
-      <c r="O13" s="204"/>
-      <c r="P13" s="128">
+      <c r="N13" s="134"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="189">
         <v>18</v>
       </c>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="143">
+      <c r="Q13" s="190"/>
+      <c r="R13" s="203">
         <v>6</v>
       </c>
-      <c r="S13" s="144"/>
+      <c r="S13" s="204"/>
       <c r="T13" s="30" t="s">
         <v>8</v>
       </c>
@@ -3160,10 +3205,10 @@
       <c r="W13" s="7"/>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="222" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="223"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3171,15 +3216,15 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="208"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="121"/>
+      <c r="K14" s="195"/>
+      <c r="L14" s="196"/>
+      <c r="M14" s="187"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="141"/>
+      <c r="P14" s="179"/>
+      <c r="Q14" s="180"/>
+      <c r="R14" s="140"/>
+      <c r="S14" s="205"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="26"/>
@@ -3195,15 +3240,15 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="209"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="155"/>
-      <c r="S15" s="156"/>
+      <c r="K15" s="236"/>
+      <c r="L15" s="237"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="295"/>
+      <c r="Q15" s="296"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="216"/>
       <c r="T15" s="23"/>
       <c r="U15" s="23"/>
       <c r="V15" s="27"/>
@@ -3219,15 +3264,15 @@
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="173"/>
-      <c r="O16" s="174"/>
-      <c r="P16" s="171"/>
-      <c r="Q16" s="172"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="119"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="239"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="183"/>
+      <c r="O16" s="184"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="182"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="217"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="24"/>
@@ -3235,15 +3280,15 @@
     </row>
     <row r="17" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
       <c r="J17" s="5"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="169"/>
-      <c r="N17" s="173"/>
-      <c r="O17" s="174"/>
-      <c r="P17" s="171"/>
-      <c r="Q17" s="172"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="119"/>
+      <c r="K17" s="240"/>
+      <c r="L17" s="241"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="184"/>
+      <c r="P17" s="181"/>
+      <c r="Q17" s="182"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="217"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="24"/>
@@ -3259,15 +3304,15 @@
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="175"/>
-      <c r="O18" s="176"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="121"/>
+      <c r="K18" s="242"/>
+      <c r="L18" s="243"/>
+      <c r="M18" s="178"/>
+      <c r="N18" s="185"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="179"/>
+      <c r="Q18" s="180"/>
+      <c r="R18" s="140"/>
+      <c r="S18" s="205"/>
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
       <c r="V18" s="26"/>
@@ -3275,16 +3320,16 @@
     </row>
     <row r="19" spans="1:23" ht="29.25" customHeight="1" thickBot="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="297" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="298"/>
+      <c r="B19" s="302" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="303"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="291" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="292"/>
-      <c r="G19" s="293"/>
+      <c r="E19" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="7"/>
       <c r="J19" s="5"/>
       <c r="K19" s="6"/>
@@ -3303,31 +3348,31 @@
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="299"/>
-      <c r="C20" s="300"/>
+      <c r="B20" s="304"/>
+      <c r="C20" s="305"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="294"/>
-      <c r="F20" s="295"/>
-      <c r="G20" s="296"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="7"/>
       <c r="J20" s="5"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="69" t="s">
+      <c r="L20" s="248" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="70"/>
-      <c r="N20" s="73" t="s">
+      <c r="M20" s="249"/>
+      <c r="N20" s="252" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="74"/>
-      <c r="P20" s="77" t="s">
+      <c r="O20" s="253"/>
+      <c r="P20" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="65" t="s">
+      <c r="Q20" s="257"/>
+      <c r="R20" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="S20" s="66"/>
+      <c r="S20" s="245"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
@@ -3344,14 +3389,14 @@
       <c r="H21" s="7"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="68"/>
+      <c r="L21" s="250"/>
+      <c r="M21" s="251"/>
+      <c r="N21" s="254"/>
+      <c r="O21" s="255"/>
+      <c r="P21" s="258"/>
+      <c r="Q21" s="259"/>
+      <c r="R21" s="246"/>
+      <c r="S21" s="247"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
@@ -3365,67 +3410,70 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="106" t="s">
+      <c r="L22" s="283" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="108"/>
+      <c r="M22" s="284"/>
+      <c r="N22" s="284"/>
+      <c r="O22" s="284"/>
+      <c r="P22" s="284"/>
+      <c r="Q22" s="284"/>
+      <c r="R22" s="284"/>
+      <c r="S22" s="285"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="7"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="297" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="297" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="301" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="301"/>
+      <c r="E23" s="298" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="301" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="302"/>
-      <c r="E23" s="301" t="s">
+      <c r="F23" s="299"/>
+      <c r="G23" s="300" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="302"/>
-      <c r="G23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="307" t="s">
+        <v>63</v>
+      </c>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="111"/>
+      <c r="L23" s="286"/>
+      <c r="M23" s="287"/>
+      <c r="N23" s="287"/>
+      <c r="O23" s="287"/>
+      <c r="P23" s="287"/>
+      <c r="Q23" s="287"/>
+      <c r="R23" s="287"/>
+      <c r="S23" s="288"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="7"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="7"/>
+      <c r="A24" s="297"/>
+      <c r="B24" s="297"/>
+      <c r="C24" s="298"/>
+      <c r="D24" s="299"/>
+      <c r="E24" s="298"/>
+      <c r="F24" s="306"/>
+      <c r="G24" s="297"/>
+      <c r="H24" s="308" t="s">
+        <v>64</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -3442,14 +3490,14 @@
       <c r="W24" s="7"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="7"/>
+      <c r="A25" s="297"/>
+      <c r="B25" s="297"/>
+      <c r="C25" s="298"/>
+      <c r="D25" s="299"/>
+      <c r="E25" s="298"/>
+      <c r="F25" s="306"/>
+      <c r="G25" s="297"/>
+      <c r="H25" s="309"/>
       <c r="J25" s="8"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -3466,80 +3514,84 @@
       <c r="W25" s="10"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="297" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="297" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="301" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="301" t="s">
+      <c r="D26" s="301"/>
+      <c r="E26" s="298" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="306"/>
+      <c r="G26" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="304"/>
-      <c r="E26" s="303"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="309"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="7"/>
+      <c r="A27" s="297"/>
+      <c r="B27" s="297"/>
+      <c r="C27" s="298"/>
+      <c r="D27" s="299"/>
+      <c r="E27" s="298"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="297"/>
+      <c r="H27" s="309"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="7"/>
-      <c r="J28" s="51" t="s">
+      <c r="A28" s="297"/>
+      <c r="B28" s="297"/>
+      <c r="C28" s="298"/>
+      <c r="D28" s="299"/>
+      <c r="E28" s="298"/>
+      <c r="F28" s="306"/>
+      <c r="G28" s="297"/>
+      <c r="H28" s="309"/>
+      <c r="J28" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="53"/>
+      <c r="K28" s="231"/>
+      <c r="L28" s="231"/>
+      <c r="M28" s="231"/>
+      <c r="N28" s="231"/>
+      <c r="O28" s="231"/>
+      <c r="P28" s="231"/>
+      <c r="Q28" s="231"/>
+      <c r="R28" s="231"/>
+      <c r="S28" s="231"/>
+      <c r="T28" s="231"/>
+      <c r="U28" s="231"/>
+      <c r="V28" s="231"/>
+      <c r="W28" s="232"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="7"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="56"/>
+      <c r="A29" s="297"/>
+      <c r="B29" s="297"/>
+      <c r="C29" s="298"/>
+      <c r="D29" s="299"/>
+      <c r="E29" s="298"/>
+      <c r="F29" s="306"/>
+      <c r="G29" s="297"/>
+      <c r="H29" s="310"/>
+      <c r="J29" s="233"/>
+      <c r="K29" s="234"/>
+      <c r="L29" s="234"/>
+      <c r="M29" s="234"/>
+      <c r="N29" s="234"/>
+      <c r="O29" s="234"/>
+      <c r="P29" s="234"/>
+      <c r="Q29" s="234"/>
+      <c r="R29" s="234"/>
+      <c r="S29" s="234"/>
+      <c r="T29" s="234"/>
+      <c r="U29" s="234"/>
+      <c r="V29" s="234"/>
+      <c r="W29" s="235"/>
     </row>
     <row r="30" spans="1:23" ht="15.75" thickBot="1">
       <c r="A30" s="5"/>
@@ -3560,22 +3612,22 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="157" t="s">
+      <c r="J31" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="158"/>
-      <c r="Q31" s="158"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="158"/>
-      <c r="T31" s="158"/>
-      <c r="U31" s="158"/>
-      <c r="V31" s="158"/>
-      <c r="W31" s="159"/>
+      <c r="K31" s="169"/>
+      <c r="L31" s="169"/>
+      <c r="M31" s="169"/>
+      <c r="N31" s="169"/>
+      <c r="O31" s="169"/>
+      <c r="P31" s="169"/>
+      <c r="Q31" s="169"/>
+      <c r="R31" s="169"/>
+      <c r="S31" s="169"/>
+      <c r="T31" s="169"/>
+      <c r="U31" s="169"/>
+      <c r="V31" s="169"/>
+      <c r="W31" s="170"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" thickBot="1">
       <c r="A32" s="8"/>
@@ -3586,698 +3638,800 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="10"/>
-      <c r="J32" s="160"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="161"/>
-      <c r="S32" s="161"/>
-      <c r="T32" s="161"/>
-      <c r="U32" s="161"/>
-      <c r="V32" s="161"/>
-      <c r="W32" s="162"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="172"/>
+      <c r="L32" s="172"/>
+      <c r="M32" s="172"/>
+      <c r="N32" s="172"/>
+      <c r="O32" s="172"/>
+      <c r="P32" s="172"/>
+      <c r="Q32" s="172"/>
+      <c r="R32" s="172"/>
+      <c r="S32" s="172"/>
+      <c r="T32" s="172"/>
+      <c r="U32" s="172"/>
+      <c r="V32" s="172"/>
+      <c r="W32" s="173"/>
     </row>
     <row r="33" spans="2:23" ht="15" customHeight="1">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="G33" s="216" t="s">
+      <c r="G33" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="67"/>
+      <c r="J33" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="63"/>
+      <c r="L33" s="174"/>
+      <c r="M33" s="175"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="175"/>
+      <c r="Q33" s="175"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="175"/>
+      <c r="U33" s="175"/>
+      <c r="V33" s="175"/>
+      <c r="W33" s="176"/>
+    </row>
+    <row r="34" spans="2:23" ht="15" customHeight="1">
+      <c r="G34" s="51"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="127"/>
+      <c r="O34" s="127"/>
+      <c r="P34" s="127"/>
+      <c r="Q34" s="127"/>
+      <c r="R34" s="127"/>
+      <c r="S34" s="127"/>
+      <c r="T34" s="127"/>
+      <c r="U34" s="127"/>
+      <c r="V34" s="127"/>
+      <c r="W34" s="128"/>
+    </row>
+    <row r="35" spans="2:23" ht="15" customHeight="1">
+      <c r="G35" s="51"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="127"/>
+      <c r="P35" s="127"/>
+      <c r="Q35" s="127"/>
+      <c r="R35" s="127"/>
+      <c r="S35" s="127"/>
+      <c r="T35" s="127"/>
+      <c r="U35" s="127"/>
+      <c r="V35" s="127"/>
+      <c r="W35" s="128"/>
+    </row>
+    <row r="36" spans="2:23" ht="15" customHeight="1">
+      <c r="G36" s="51"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="127"/>
+      <c r="O36" s="127"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="127"/>
+      <c r="S36" s="127"/>
+      <c r="T36" s="127"/>
+      <c r="U36" s="127"/>
+      <c r="V36" s="127"/>
+      <c r="W36" s="128"/>
+    </row>
+    <row r="37" spans="2:23" ht="15" customHeight="1">
+      <c r="G37" s="51"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="127"/>
+      <c r="O37" s="127"/>
+      <c r="P37" s="127"/>
+      <c r="Q37" s="127"/>
+      <c r="R37" s="127"/>
+      <c r="S37" s="127"/>
+      <c r="T37" s="127"/>
+      <c r="U37" s="127"/>
+      <c r="V37" s="127"/>
+      <c r="W37" s="128"/>
+    </row>
+    <row r="38" spans="2:23" ht="15" customHeight="1" thickBot="1">
+      <c r="G38" s="52"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="130"/>
+      <c r="P38" s="130"/>
+      <c r="Q38" s="130"/>
+      <c r="R38" s="130"/>
+      <c r="S38" s="130"/>
+      <c r="T38" s="130"/>
+      <c r="U38" s="130"/>
+      <c r="V38" s="130"/>
+      <c r="W38" s="131"/>
+    </row>
+    <row r="39" spans="2:23" ht="15" customHeight="1">
+      <c r="H39" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" s="107"/>
+      <c r="M39" s="107"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="107"/>
+      <c r="U39" s="107"/>
+      <c r="V39" s="107"/>
+      <c r="W39" s="108"/>
+    </row>
+    <row r="40" spans="2:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H40" s="97"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="109"/>
+      <c r="N40" s="109"/>
+      <c r="O40" s="109"/>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="109"/>
+      <c r="R40" s="109"/>
+      <c r="S40" s="109"/>
+      <c r="T40" s="109"/>
+      <c r="U40" s="109"/>
+      <c r="V40" s="109"/>
+      <c r="W40" s="110"/>
+    </row>
+    <row r="41" spans="2:23" ht="15" customHeight="1">
+      <c r="G41" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="232" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="231"/>
-      <c r="J33" s="227" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="228"/>
-      <c r="L33" s="163"/>
-      <c r="M33" s="164"/>
-      <c r="N33" s="164"/>
-      <c r="O33" s="164"/>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="164"/>
-      <c r="R33" s="164"/>
-      <c r="S33" s="164"/>
-      <c r="T33" s="164"/>
-      <c r="U33" s="164"/>
-      <c r="V33" s="164"/>
-      <c r="W33" s="165"/>
-    </row>
-    <row r="34" spans="2:23" ht="15" customHeight="1">
-      <c r="G34" s="216"/>
-      <c r="H34" s="232"/>
-      <c r="I34" s="233"/>
-      <c r="J34" s="229"/>
-      <c r="K34" s="230"/>
-      <c r="L34" s="166"/>
-      <c r="M34" s="167"/>
-      <c r="N34" s="167"/>
-      <c r="O34" s="167"/>
-      <c r="P34" s="167"/>
-      <c r="Q34" s="167"/>
-      <c r="R34" s="167"/>
-      <c r="S34" s="167"/>
-      <c r="T34" s="167"/>
-      <c r="U34" s="167"/>
-      <c r="V34" s="167"/>
-      <c r="W34" s="168"/>
-    </row>
-    <row r="35" spans="2:23" ht="15" customHeight="1">
-      <c r="G35" s="216"/>
-      <c r="H35" s="232"/>
-      <c r="I35" s="233"/>
-      <c r="J35" s="229"/>
-      <c r="K35" s="230"/>
-      <c r="L35" s="166"/>
-      <c r="M35" s="167"/>
-      <c r="N35" s="167"/>
-      <c r="O35" s="167"/>
-      <c r="P35" s="167"/>
-      <c r="Q35" s="167"/>
-      <c r="R35" s="167"/>
-      <c r="S35" s="167"/>
-      <c r="T35" s="167"/>
-      <c r="U35" s="167"/>
-      <c r="V35" s="167"/>
-      <c r="W35" s="168"/>
-    </row>
-    <row r="36" spans="2:23" ht="15" customHeight="1">
-      <c r="G36" s="216"/>
-      <c r="H36" s="232"/>
-      <c r="I36" s="233"/>
-      <c r="J36" s="229"/>
-      <c r="K36" s="230"/>
-      <c r="L36" s="166"/>
-      <c r="M36" s="167"/>
-      <c r="N36" s="167"/>
-      <c r="O36" s="167"/>
-      <c r="P36" s="167"/>
-      <c r="Q36" s="167"/>
-      <c r="R36" s="167"/>
-      <c r="S36" s="167"/>
-      <c r="T36" s="167"/>
-      <c r="U36" s="167"/>
-      <c r="V36" s="167"/>
-      <c r="W36" s="168"/>
-    </row>
-    <row r="37" spans="2:23" ht="15" customHeight="1">
-      <c r="G37" s="216"/>
-      <c r="H37" s="232"/>
-      <c r="I37" s="233"/>
-      <c r="J37" s="229"/>
-      <c r="K37" s="230"/>
-      <c r="L37" s="166"/>
-      <c r="M37" s="167"/>
-      <c r="N37" s="167"/>
-      <c r="O37" s="167"/>
-      <c r="P37" s="167"/>
-      <c r="Q37" s="167"/>
-      <c r="R37" s="167"/>
-      <c r="S37" s="167"/>
-      <c r="T37" s="167"/>
-      <c r="U37" s="167"/>
-      <c r="V37" s="167"/>
-      <c r="W37" s="168"/>
-    </row>
-    <row r="38" spans="2:23" ht="15" customHeight="1" thickBot="1">
-      <c r="G38" s="217"/>
-      <c r="H38" s="232"/>
-      <c r="I38" s="233"/>
-      <c r="J38" s="229"/>
-      <c r="K38" s="230"/>
-      <c r="L38" s="201"/>
-      <c r="M38" s="202"/>
-      <c r="N38" s="202"/>
-      <c r="O38" s="202"/>
-      <c r="P38" s="202"/>
-      <c r="Q38" s="202"/>
-      <c r="R38" s="202"/>
-      <c r="S38" s="202"/>
-      <c r="T38" s="202"/>
-      <c r="U38" s="202"/>
-      <c r="V38" s="202"/>
-      <c r="W38" s="203"/>
-    </row>
-    <row r="39" spans="2:23" ht="15" customHeight="1">
-      <c r="H39" s="260" t="s">
+      <c r="H41" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="84"/>
+      <c r="J41" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="70"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="151"/>
+      <c r="N41" s="151"/>
+      <c r="O41" s="151"/>
+      <c r="P41" s="151"/>
+      <c r="Q41" s="151"/>
+      <c r="R41" s="151"/>
+      <c r="S41" s="151"/>
+      <c r="T41" s="151"/>
+      <c r="U41" s="151"/>
+      <c r="V41" s="151"/>
+      <c r="W41" s="152"/>
+    </row>
+    <row r="42" spans="2:23" ht="15" customHeight="1">
+      <c r="G42" s="60"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="162"/>
+      <c r="M42" s="163"/>
+      <c r="N42" s="163"/>
+      <c r="O42" s="163"/>
+      <c r="P42" s="163"/>
+      <c r="Q42" s="163"/>
+      <c r="R42" s="163"/>
+      <c r="S42" s="163"/>
+      <c r="T42" s="163"/>
+      <c r="U42" s="163"/>
+      <c r="V42" s="163"/>
+      <c r="W42" s="164"/>
+    </row>
+    <row r="43" spans="2:23" ht="15" customHeight="1">
+      <c r="G43" s="60"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="162"/>
+      <c r="M43" s="163"/>
+      <c r="N43" s="163"/>
+      <c r="O43" s="163"/>
+      <c r="P43" s="163"/>
+      <c r="Q43" s="163"/>
+      <c r="R43" s="163"/>
+      <c r="S43" s="163"/>
+      <c r="T43" s="163"/>
+      <c r="U43" s="163"/>
+      <c r="V43" s="163"/>
+      <c r="W43" s="164"/>
+    </row>
+    <row r="44" spans="2:23" ht="15" customHeight="1">
+      <c r="G44" s="60"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="162"/>
+      <c r="M44" s="163"/>
+      <c r="N44" s="163"/>
+      <c r="O44" s="163"/>
+      <c r="P44" s="163"/>
+      <c r="Q44" s="163"/>
+      <c r="R44" s="163"/>
+      <c r="S44" s="163"/>
+      <c r="T44" s="163"/>
+      <c r="U44" s="163"/>
+      <c r="V44" s="163"/>
+      <c r="W44" s="164"/>
+    </row>
+    <row r="45" spans="2:23" ht="15" customHeight="1">
+      <c r="G45" s="60"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="162"/>
+      <c r="M45" s="163"/>
+      <c r="N45" s="163"/>
+      <c r="O45" s="163"/>
+      <c r="P45" s="163"/>
+      <c r="Q45" s="163"/>
+      <c r="R45" s="163"/>
+      <c r="S45" s="163"/>
+      <c r="T45" s="163"/>
+      <c r="U45" s="163"/>
+      <c r="V45" s="163"/>
+      <c r="W45" s="164"/>
+    </row>
+    <row r="46" spans="2:23" ht="15" customHeight="1" thickBot="1">
+      <c r="G46" s="61"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="165"/>
+      <c r="M46" s="166"/>
+      <c r="N46" s="166"/>
+      <c r="O46" s="166"/>
+      <c r="P46" s="166"/>
+      <c r="Q46" s="166"/>
+      <c r="R46" s="166"/>
+      <c r="S46" s="166"/>
+      <c r="T46" s="166"/>
+      <c r="U46" s="166"/>
+      <c r="V46" s="166"/>
+      <c r="W46" s="167"/>
+    </row>
+    <row r="47" spans="2:23" ht="15" customHeight="1">
+      <c r="H47" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="261"/>
-      <c r="J39" s="261"/>
-      <c r="K39" s="272" t="s">
-        <v>42</v>
-      </c>
-      <c r="L39" s="272"/>
-      <c r="M39" s="272"/>
-      <c r="N39" s="272"/>
-      <c r="O39" s="272"/>
-      <c r="P39" s="272"/>
-      <c r="Q39" s="272"/>
-      <c r="R39" s="272"/>
-      <c r="S39" s="272"/>
-      <c r="T39" s="272"/>
-      <c r="U39" s="272"/>
-      <c r="V39" s="272"/>
-      <c r="W39" s="273"/>
-    </row>
-    <row r="40" spans="2:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H40" s="262"/>
-      <c r="I40" s="263"/>
-      <c r="J40" s="263"/>
-      <c r="K40" s="274"/>
-      <c r="L40" s="274"/>
-      <c r="M40" s="274"/>
-      <c r="N40" s="274"/>
-      <c r="O40" s="274"/>
-      <c r="P40" s="274"/>
-      <c r="Q40" s="274"/>
-      <c r="R40" s="274"/>
-      <c r="S40" s="274"/>
-      <c r="T40" s="274"/>
-      <c r="U40" s="274"/>
-      <c r="V40" s="274"/>
-      <c r="W40" s="275"/>
-    </row>
-    <row r="41" spans="2:23" ht="15" customHeight="1">
-      <c r="G41" s="224" t="s">
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="111"/>
+      <c r="T47" s="111"/>
+      <c r="U47" s="111"/>
+      <c r="V47" s="111"/>
+      <c r="W47" s="112"/>
+    </row>
+    <row r="48" spans="2:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H48" s="101"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="113"/>
+      <c r="N48" s="113"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="113"/>
+      <c r="Q48" s="113"/>
+      <c r="R48" s="113"/>
+      <c r="S48" s="113"/>
+      <c r="T48" s="113"/>
+      <c r="U48" s="113"/>
+      <c r="V48" s="113"/>
+      <c r="W48" s="114"/>
+    </row>
+    <row r="49" spans="7:23" ht="15" customHeight="1">
+      <c r="G49" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" s="249"/>
-      <c r="J41" s="234" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41" s="235"/>
-      <c r="L41" s="183"/>
-      <c r="M41" s="184"/>
-      <c r="N41" s="184"/>
-      <c r="O41" s="184"/>
-      <c r="P41" s="184"/>
-      <c r="Q41" s="184"/>
-      <c r="R41" s="184"/>
-      <c r="S41" s="184"/>
-      <c r="T41" s="184"/>
-      <c r="U41" s="184"/>
-      <c r="V41" s="184"/>
-      <c r="W41" s="185"/>
-    </row>
-    <row r="42" spans="2:23" ht="15" customHeight="1">
-      <c r="G42" s="225"/>
-      <c r="H42" s="250"/>
-      <c r="I42" s="251"/>
-      <c r="J42" s="236"/>
-      <c r="K42" s="237"/>
-      <c r="L42" s="195"/>
-      <c r="M42" s="196"/>
-      <c r="N42" s="196"/>
-      <c r="O42" s="196"/>
-      <c r="P42" s="196"/>
-      <c r="Q42" s="196"/>
-      <c r="R42" s="196"/>
-      <c r="S42" s="196"/>
-      <c r="T42" s="196"/>
-      <c r="U42" s="196"/>
-      <c r="V42" s="196"/>
-      <c r="W42" s="197"/>
-    </row>
-    <row r="43" spans="2:23" ht="15" customHeight="1">
-      <c r="G43" s="225"/>
-      <c r="H43" s="250"/>
-      <c r="I43" s="251"/>
-      <c r="J43" s="236"/>
-      <c r="K43" s="237"/>
-      <c r="L43" s="195"/>
-      <c r="M43" s="196"/>
-      <c r="N43" s="196"/>
-      <c r="O43" s="196"/>
-      <c r="P43" s="196"/>
-      <c r="Q43" s="196"/>
-      <c r="R43" s="196"/>
-      <c r="S43" s="196"/>
-      <c r="T43" s="196"/>
-      <c r="U43" s="196"/>
-      <c r="V43" s="196"/>
-      <c r="W43" s="197"/>
-    </row>
-    <row r="44" spans="2:23" ht="15" customHeight="1">
-      <c r="G44" s="225"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="236"/>
-      <c r="K44" s="237"/>
-      <c r="L44" s="195"/>
-      <c r="M44" s="196"/>
-      <c r="N44" s="196"/>
-      <c r="O44" s="196"/>
-      <c r="P44" s="196"/>
-      <c r="Q44" s="196"/>
-      <c r="R44" s="196"/>
-      <c r="S44" s="196"/>
-      <c r="T44" s="196"/>
-      <c r="U44" s="196"/>
-      <c r="V44" s="196"/>
-      <c r="W44" s="197"/>
-    </row>
-    <row r="45" spans="2:23" ht="15" customHeight="1">
-      <c r="G45" s="225"/>
-      <c r="H45" s="250"/>
-      <c r="I45" s="251"/>
-      <c r="J45" s="236"/>
-      <c r="K45" s="237"/>
-      <c r="L45" s="195"/>
-      <c r="M45" s="196"/>
-      <c r="N45" s="196"/>
-      <c r="O45" s="196"/>
-      <c r="P45" s="196"/>
-      <c r="Q45" s="196"/>
-      <c r="R45" s="196"/>
-      <c r="S45" s="196"/>
-      <c r="T45" s="196"/>
-      <c r="U45" s="196"/>
-      <c r="V45" s="196"/>
-      <c r="W45" s="197"/>
-    </row>
-    <row r="46" spans="2:23" ht="15" customHeight="1" thickBot="1">
-      <c r="G46" s="226"/>
-      <c r="H46" s="250"/>
-      <c r="I46" s="251"/>
-      <c r="J46" s="236"/>
-      <c r="K46" s="237"/>
-      <c r="L46" s="198"/>
-      <c r="M46" s="199"/>
-      <c r="N46" s="199"/>
-      <c r="O46" s="199"/>
-      <c r="P46" s="199"/>
-      <c r="Q46" s="199"/>
-      <c r="R46" s="199"/>
-      <c r="S46" s="199"/>
-      <c r="T46" s="199"/>
-      <c r="U46" s="199"/>
-      <c r="V46" s="199"/>
-      <c r="W46" s="200"/>
-    </row>
-    <row r="47" spans="2:23" ht="15" customHeight="1">
-      <c r="H47" s="264" t="s">
+      <c r="H49" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="88"/>
+      <c r="J49" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="74"/>
+      <c r="L49" s="159"/>
+      <c r="M49" s="160"/>
+      <c r="N49" s="160"/>
+      <c r="O49" s="160"/>
+      <c r="P49" s="160"/>
+      <c r="Q49" s="160"/>
+      <c r="R49" s="160"/>
+      <c r="S49" s="160"/>
+      <c r="T49" s="160"/>
+      <c r="U49" s="160"/>
+      <c r="V49" s="160"/>
+      <c r="W49" s="161"/>
+    </row>
+    <row r="50" spans="7:23" ht="15" customHeight="1">
+      <c r="G50" s="57"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="153"/>
+      <c r="M50" s="154"/>
+      <c r="N50" s="154"/>
+      <c r="O50" s="154"/>
+      <c r="P50" s="154"/>
+      <c r="Q50" s="154"/>
+      <c r="R50" s="154"/>
+      <c r="S50" s="154"/>
+      <c r="T50" s="154"/>
+      <c r="U50" s="154"/>
+      <c r="V50" s="154"/>
+      <c r="W50" s="155"/>
+    </row>
+    <row r="51" spans="7:23" ht="15" customHeight="1">
+      <c r="G51" s="57"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="154"/>
+      <c r="N51" s="154"/>
+      <c r="O51" s="154"/>
+      <c r="P51" s="154"/>
+      <c r="Q51" s="154"/>
+      <c r="R51" s="154"/>
+      <c r="S51" s="154"/>
+      <c r="T51" s="154"/>
+      <c r="U51" s="154"/>
+      <c r="V51" s="154"/>
+      <c r="W51" s="155"/>
+    </row>
+    <row r="52" spans="7:23" ht="15" customHeight="1">
+      <c r="G52" s="57"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="153"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
+      <c r="O52" s="154"/>
+      <c r="P52" s="154"/>
+      <c r="Q52" s="154"/>
+      <c r="R52" s="154"/>
+      <c r="S52" s="154"/>
+      <c r="T52" s="154"/>
+      <c r="U52" s="154"/>
+      <c r="V52" s="154"/>
+      <c r="W52" s="155"/>
+    </row>
+    <row r="53" spans="7:23" ht="15" customHeight="1">
+      <c r="G53" s="57"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="153"/>
+      <c r="M53" s="154"/>
+      <c r="N53" s="154"/>
+      <c r="O53" s="154"/>
+      <c r="P53" s="154"/>
+      <c r="Q53" s="154"/>
+      <c r="R53" s="154"/>
+      <c r="S53" s="154"/>
+      <c r="T53" s="154"/>
+      <c r="U53" s="154"/>
+      <c r="V53" s="154"/>
+      <c r="W53" s="155"/>
+    </row>
+    <row r="54" spans="7:23" ht="15" customHeight="1" thickBot="1">
+      <c r="G54" s="58"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="156"/>
+      <c r="M54" s="157"/>
+      <c r="N54" s="157"/>
+      <c r="O54" s="157"/>
+      <c r="P54" s="157"/>
+      <c r="Q54" s="157"/>
+      <c r="R54" s="157"/>
+      <c r="S54" s="157"/>
+      <c r="T54" s="157"/>
+      <c r="U54" s="157"/>
+      <c r="V54" s="157"/>
+      <c r="W54" s="158"/>
+    </row>
+    <row r="55" spans="7:23" ht="15" customHeight="1">
+      <c r="H55" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="I47" s="265"/>
-      <c r="J47" s="265"/>
-      <c r="K47" s="276" t="s">
-        <v>43</v>
-      </c>
-      <c r="L47" s="276"/>
-      <c r="M47" s="276"/>
-      <c r="N47" s="276"/>
-      <c r="O47" s="276"/>
-      <c r="P47" s="276"/>
-      <c r="Q47" s="276"/>
-      <c r="R47" s="276"/>
-      <c r="S47" s="276"/>
-      <c r="T47" s="276"/>
-      <c r="U47" s="276"/>
-      <c r="V47" s="276"/>
-      <c r="W47" s="277"/>
-    </row>
-    <row r="48" spans="2:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H48" s="266"/>
-      <c r="I48" s="267"/>
-      <c r="J48" s="267"/>
-      <c r="K48" s="278"/>
-      <c r="L48" s="278"/>
-      <c r="M48" s="278"/>
-      <c r="N48" s="278"/>
-      <c r="O48" s="278"/>
-      <c r="P48" s="278"/>
-      <c r="Q48" s="278"/>
-      <c r="R48" s="278"/>
-      <c r="S48" s="278"/>
-      <c r="T48" s="278"/>
-      <c r="U48" s="278"/>
-      <c r="V48" s="278"/>
-      <c r="W48" s="279"/>
-    </row>
-    <row r="49" spans="7:23" ht="15" customHeight="1">
-      <c r="G49" s="221" t="s">
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="L55" s="115"/>
+      <c r="M55" s="115"/>
+      <c r="N55" s="115"/>
+      <c r="O55" s="115"/>
+      <c r="P55" s="115"/>
+      <c r="Q55" s="115"/>
+      <c r="R55" s="115"/>
+      <c r="S55" s="115"/>
+      <c r="T55" s="115"/>
+      <c r="U55" s="115"/>
+      <c r="V55" s="115"/>
+      <c r="W55" s="116"/>
+    </row>
+    <row r="56" spans="7:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H56" s="105"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="117"/>
+      <c r="L56" s="117"/>
+      <c r="M56" s="117"/>
+      <c r="N56" s="117"/>
+      <c r="O56" s="117"/>
+      <c r="P56" s="117"/>
+      <c r="Q56" s="117"/>
+      <c r="R56" s="117"/>
+      <c r="S56" s="117"/>
+      <c r="T56" s="117"/>
+      <c r="U56" s="117"/>
+      <c r="V56" s="117"/>
+      <c r="W56" s="118"/>
+    </row>
+    <row r="57" spans="7:23" ht="15" customHeight="1">
+      <c r="G57" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H49" s="252" t="s">
-        <v>38</v>
-      </c>
-      <c r="I49" s="253"/>
-      <c r="J49" s="238" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="239"/>
-      <c r="L49" s="192"/>
-      <c r="M49" s="193"/>
-      <c r="N49" s="193"/>
-      <c r="O49" s="193"/>
-      <c r="P49" s="193"/>
-      <c r="Q49" s="193"/>
-      <c r="R49" s="193"/>
-      <c r="S49" s="193"/>
-      <c r="T49" s="193"/>
-      <c r="U49" s="193"/>
-      <c r="V49" s="193"/>
-      <c r="W49" s="194"/>
-    </row>
-    <row r="50" spans="7:23" ht="15" customHeight="1">
-      <c r="G50" s="222"/>
-      <c r="H50" s="254"/>
-      <c r="I50" s="255"/>
-      <c r="J50" s="240"/>
-      <c r="K50" s="241"/>
-      <c r="L50" s="186"/>
-      <c r="M50" s="187"/>
-      <c r="N50" s="187"/>
-      <c r="O50" s="187"/>
-      <c r="P50" s="187"/>
-      <c r="Q50" s="187"/>
-      <c r="R50" s="187"/>
-      <c r="S50" s="187"/>
-      <c r="T50" s="187"/>
-      <c r="U50" s="187"/>
-      <c r="V50" s="187"/>
-      <c r="W50" s="188"/>
-    </row>
-    <row r="51" spans="7:23" ht="15" customHeight="1">
-      <c r="G51" s="222"/>
-      <c r="H51" s="254"/>
-      <c r="I51" s="255"/>
-      <c r="J51" s="240"/>
-      <c r="K51" s="241"/>
-      <c r="L51" s="186"/>
-      <c r="M51" s="187"/>
-      <c r="N51" s="187"/>
-      <c r="O51" s="187"/>
-      <c r="P51" s="187"/>
-      <c r="Q51" s="187"/>
-      <c r="R51" s="187"/>
-      <c r="S51" s="187"/>
-      <c r="T51" s="187"/>
-      <c r="U51" s="187"/>
-      <c r="V51" s="187"/>
-      <c r="W51" s="188"/>
-    </row>
-    <row r="52" spans="7:23" ht="15" customHeight="1">
-      <c r="G52" s="222"/>
-      <c r="H52" s="254"/>
-      <c r="I52" s="255"/>
-      <c r="J52" s="240"/>
-      <c r="K52" s="241"/>
-      <c r="L52" s="186"/>
-      <c r="M52" s="187"/>
-      <c r="N52" s="187"/>
-      <c r="O52" s="187"/>
-      <c r="P52" s="187"/>
-      <c r="Q52" s="187"/>
-      <c r="R52" s="187"/>
-      <c r="S52" s="187"/>
-      <c r="T52" s="187"/>
-      <c r="U52" s="187"/>
-      <c r="V52" s="187"/>
-      <c r="W52" s="188"/>
-    </row>
-    <row r="53" spans="7:23" ht="15" customHeight="1">
-      <c r="G53" s="222"/>
-      <c r="H53" s="254"/>
-      <c r="I53" s="255"/>
-      <c r="J53" s="240"/>
-      <c r="K53" s="241"/>
-      <c r="L53" s="186"/>
-      <c r="M53" s="187"/>
-      <c r="N53" s="187"/>
-      <c r="O53" s="187"/>
-      <c r="P53" s="187"/>
-      <c r="Q53" s="187"/>
-      <c r="R53" s="187"/>
-      <c r="S53" s="187"/>
-      <c r="T53" s="187"/>
-      <c r="U53" s="187"/>
-      <c r="V53" s="187"/>
-      <c r="W53" s="188"/>
-    </row>
-    <row r="54" spans="7:23" ht="15" customHeight="1" thickBot="1">
-      <c r="G54" s="223"/>
-      <c r="H54" s="254"/>
-      <c r="I54" s="255"/>
-      <c r="J54" s="240"/>
-      <c r="K54" s="241"/>
-      <c r="L54" s="189"/>
-      <c r="M54" s="190"/>
-      <c r="N54" s="190"/>
-      <c r="O54" s="190"/>
-      <c r="P54" s="190"/>
-      <c r="Q54" s="190"/>
-      <c r="R54" s="190"/>
-      <c r="S54" s="190"/>
-      <c r="T54" s="190"/>
-      <c r="U54" s="190"/>
-      <c r="V54" s="190"/>
-      <c r="W54" s="191"/>
-    </row>
-    <row r="55" spans="7:23" ht="15" customHeight="1">
-      <c r="H55" s="268" t="s">
+      <c r="H57" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" s="92"/>
+      <c r="J57" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="K57" s="78"/>
+      <c r="L57" s="144"/>
+      <c r="M57" s="145"/>
+      <c r="N57" s="145"/>
+      <c r="O57" s="145"/>
+      <c r="P57" s="145"/>
+      <c r="Q57" s="145"/>
+      <c r="R57" s="145"/>
+      <c r="S57" s="145"/>
+      <c r="T57" s="145"/>
+      <c r="U57" s="145"/>
+      <c r="V57" s="145"/>
+      <c r="W57" s="146"/>
+    </row>
+    <row r="58" spans="7:23" ht="15" customHeight="1">
+      <c r="G58" s="54"/>
+      <c r="H58" s="93"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="147"/>
+      <c r="M58" s="148"/>
+      <c r="N58" s="148"/>
+      <c r="O58" s="148"/>
+      <c r="P58" s="148"/>
+      <c r="Q58" s="148"/>
+      <c r="R58" s="148"/>
+      <c r="S58" s="148"/>
+      <c r="T58" s="148"/>
+      <c r="U58" s="148"/>
+      <c r="V58" s="148"/>
+      <c r="W58" s="149"/>
+    </row>
+    <row r="59" spans="7:23" ht="15" customHeight="1">
+      <c r="G59" s="54"/>
+      <c r="H59" s="93"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="147"/>
+      <c r="M59" s="148"/>
+      <c r="N59" s="148"/>
+      <c r="O59" s="148"/>
+      <c r="P59" s="148"/>
+      <c r="Q59" s="148"/>
+      <c r="R59" s="148"/>
+      <c r="S59" s="148"/>
+      <c r="T59" s="148"/>
+      <c r="U59" s="148"/>
+      <c r="V59" s="148"/>
+      <c r="W59" s="149"/>
+    </row>
+    <row r="60" spans="7:23" ht="15" customHeight="1">
+      <c r="G60" s="54"/>
+      <c r="H60" s="93"/>
+      <c r="I60" s="94"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="147"/>
+      <c r="M60" s="148"/>
+      <c r="N60" s="148"/>
+      <c r="O60" s="148"/>
+      <c r="P60" s="148"/>
+      <c r="Q60" s="148"/>
+      <c r="R60" s="148"/>
+      <c r="S60" s="148"/>
+      <c r="T60" s="148"/>
+      <c r="U60" s="148"/>
+      <c r="V60" s="148"/>
+      <c r="W60" s="149"/>
+    </row>
+    <row r="61" spans="7:23" ht="15" customHeight="1">
+      <c r="G61" s="54"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="94"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="147"/>
+      <c r="M61" s="148"/>
+      <c r="N61" s="148"/>
+      <c r="O61" s="148"/>
+      <c r="P61" s="148"/>
+      <c r="Q61" s="148"/>
+      <c r="R61" s="148"/>
+      <c r="S61" s="148"/>
+      <c r="T61" s="148"/>
+      <c r="U61" s="148"/>
+      <c r="V61" s="148"/>
+      <c r="W61" s="149"/>
+    </row>
+    <row r="62" spans="7:23" ht="15" customHeight="1" thickBot="1">
+      <c r="G62" s="55"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="94"/>
+      <c r="J62" s="81"/>
+      <c r="K62" s="82"/>
+      <c r="L62" s="119"/>
+      <c r="M62" s="120"/>
+      <c r="N62" s="120"/>
+      <c r="O62" s="120"/>
+      <c r="P62" s="120"/>
+      <c r="Q62" s="120"/>
+      <c r="R62" s="120"/>
+      <c r="S62" s="120"/>
+      <c r="T62" s="120"/>
+      <c r="U62" s="120"/>
+      <c r="V62" s="120"/>
+      <c r="W62" s="121"/>
+    </row>
+    <row r="63" spans="7:23" ht="15" customHeight="1">
+      <c r="H63" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="269"/>
-      <c r="J55" s="269"/>
-      <c r="K55" s="280" t="s">
-        <v>44</v>
-      </c>
-      <c r="L55" s="280"/>
-      <c r="M55" s="280"/>
-      <c r="N55" s="280"/>
-      <c r="O55" s="280"/>
-      <c r="P55" s="280"/>
-      <c r="Q55" s="280"/>
-      <c r="R55" s="280"/>
-      <c r="S55" s="280"/>
-      <c r="T55" s="280"/>
-      <c r="U55" s="280"/>
-      <c r="V55" s="280"/>
-      <c r="W55" s="281"/>
-    </row>
-    <row r="56" spans="7:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H56" s="270"/>
-      <c r="I56" s="271"/>
-      <c r="J56" s="271"/>
-      <c r="K56" s="282"/>
-      <c r="L56" s="282"/>
-      <c r="M56" s="282"/>
-      <c r="N56" s="282"/>
-      <c r="O56" s="282"/>
-      <c r="P56" s="282"/>
-      <c r="Q56" s="282"/>
-      <c r="R56" s="282"/>
-      <c r="S56" s="282"/>
-      <c r="T56" s="282"/>
-      <c r="U56" s="282"/>
-      <c r="V56" s="282"/>
-      <c r="W56" s="283"/>
-    </row>
-    <row r="57" spans="7:23" ht="15" customHeight="1">
-      <c r="G57" s="218" t="s">
-        <v>51</v>
-      </c>
-      <c r="H57" s="256" t="s">
-        <v>39</v>
-      </c>
-      <c r="I57" s="257"/>
-      <c r="J57" s="242" t="s">
-        <v>45</v>
-      </c>
-      <c r="K57" s="243"/>
-      <c r="L57" s="177"/>
-      <c r="M57" s="178"/>
-      <c r="N57" s="178"/>
-      <c r="O57" s="178"/>
-      <c r="P57" s="178"/>
-      <c r="Q57" s="178"/>
-      <c r="R57" s="178"/>
-      <c r="S57" s="178"/>
-      <c r="T57" s="178"/>
-      <c r="U57" s="178"/>
-      <c r="V57" s="178"/>
-      <c r="W57" s="179"/>
-    </row>
-    <row r="58" spans="7:23" ht="15" customHeight="1">
-      <c r="G58" s="219"/>
-      <c r="H58" s="258"/>
-      <c r="I58" s="259"/>
-      <c r="J58" s="244"/>
-      <c r="K58" s="245"/>
-      <c r="L58" s="180"/>
-      <c r="M58" s="181"/>
-      <c r="N58" s="181"/>
-      <c r="O58" s="181"/>
-      <c r="P58" s="181"/>
-      <c r="Q58" s="181"/>
-      <c r="R58" s="181"/>
-      <c r="S58" s="181"/>
-      <c r="T58" s="181"/>
-      <c r="U58" s="181"/>
-      <c r="V58" s="181"/>
-      <c r="W58" s="182"/>
-    </row>
-    <row r="59" spans="7:23" ht="15" customHeight="1">
-      <c r="G59" s="219"/>
-      <c r="H59" s="258"/>
-      <c r="I59" s="259"/>
-      <c r="J59" s="244"/>
-      <c r="K59" s="245"/>
-      <c r="L59" s="180"/>
-      <c r="M59" s="181"/>
-      <c r="N59" s="181"/>
-      <c r="O59" s="181"/>
-      <c r="P59" s="181"/>
-      <c r="Q59" s="181"/>
-      <c r="R59" s="181"/>
-      <c r="S59" s="181"/>
-      <c r="T59" s="181"/>
-      <c r="U59" s="181"/>
-      <c r="V59" s="181"/>
-      <c r="W59" s="182"/>
-    </row>
-    <row r="60" spans="7:23" ht="15" customHeight="1">
-      <c r="G60" s="219"/>
-      <c r="H60" s="258"/>
-      <c r="I60" s="259"/>
-      <c r="J60" s="244"/>
-      <c r="K60" s="245"/>
-      <c r="L60" s="180"/>
-      <c r="M60" s="181"/>
-      <c r="N60" s="181"/>
-      <c r="O60" s="181"/>
-      <c r="P60" s="181"/>
-      <c r="Q60" s="181"/>
-      <c r="R60" s="181"/>
-      <c r="S60" s="181"/>
-      <c r="T60" s="181"/>
-      <c r="U60" s="181"/>
-      <c r="V60" s="181"/>
-      <c r="W60" s="182"/>
-    </row>
-    <row r="61" spans="7:23" ht="15" customHeight="1">
-      <c r="G61" s="219"/>
-      <c r="H61" s="258"/>
-      <c r="I61" s="259"/>
-      <c r="J61" s="244"/>
-      <c r="K61" s="245"/>
-      <c r="L61" s="180"/>
-      <c r="M61" s="181"/>
-      <c r="N61" s="181"/>
-      <c r="O61" s="181"/>
-      <c r="P61" s="181"/>
-      <c r="Q61" s="181"/>
-      <c r="R61" s="181"/>
-      <c r="S61" s="181"/>
-      <c r="T61" s="181"/>
-      <c r="U61" s="181"/>
-      <c r="V61" s="181"/>
-      <c r="W61" s="182"/>
-    </row>
-    <row r="62" spans="7:23" ht="15" customHeight="1" thickBot="1">
-      <c r="G62" s="220"/>
-      <c r="H62" s="258"/>
-      <c r="I62" s="259"/>
-      <c r="J62" s="246"/>
-      <c r="K62" s="247"/>
-      <c r="L62" s="284"/>
-      <c r="M62" s="285"/>
-      <c r="N62" s="285"/>
-      <c r="O62" s="285"/>
-      <c r="P62" s="285"/>
-      <c r="Q62" s="285"/>
-      <c r="R62" s="285"/>
-      <c r="S62" s="285"/>
-      <c r="T62" s="285"/>
-      <c r="U62" s="285"/>
-      <c r="V62" s="285"/>
-      <c r="W62" s="286"/>
-    </row>
-    <row r="63" spans="7:23" ht="15" customHeight="1">
-      <c r="H63" s="287" t="s">
-        <v>41</v>
-      </c>
-      <c r="I63" s="288"/>
-      <c r="J63" s="288"/>
-      <c r="K63" s="211" t="s">
+      <c r="I63" s="123"/>
+      <c r="J63" s="123"/>
+      <c r="K63" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="46"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="47"/>
+    </row>
+    <row r="64" spans="7:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H64" s="124"/>
+      <c r="I64" s="125"/>
+      <c r="J64" s="125"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="49"/>
+      <c r="T64" s="49"/>
+      <c r="U64" s="49"/>
+      <c r="V64" s="49"/>
+      <c r="W64" s="50"/>
+    </row>
+    <row r="65" spans="11:23">
+      <c r="K65" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="L63" s="211"/>
-      <c r="M63" s="211"/>
-      <c r="N63" s="211"/>
-      <c r="O63" s="211"/>
-      <c r="P63" s="211"/>
-      <c r="Q63" s="211"/>
-      <c r="R63" s="211"/>
-      <c r="S63" s="211"/>
-      <c r="T63" s="211"/>
-      <c r="U63" s="211"/>
-      <c r="V63" s="211"/>
-      <c r="W63" s="212"/>
-    </row>
-    <row r="64" spans="7:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H64" s="289"/>
-      <c r="I64" s="290"/>
-      <c r="J64" s="290"/>
-      <c r="K64" s="214"/>
-      <c r="L64" s="214"/>
-      <c r="M64" s="214"/>
-      <c r="N64" s="214"/>
-      <c r="O64" s="214"/>
-      <c r="P64" s="214"/>
-      <c r="Q64" s="214"/>
-      <c r="R64" s="214"/>
-      <c r="S64" s="214"/>
-      <c r="T64" s="214"/>
-      <c r="U64" s="214"/>
-      <c r="V64" s="214"/>
-      <c r="W64" s="215"/>
-    </row>
-    <row r="65" spans="11:23">
-      <c r="K65" s="210" t="s">
-        <v>47</v>
-      </c>
-      <c r="L65" s="211"/>
-      <c r="M65" s="211"/>
-      <c r="N65" s="211"/>
-      <c r="O65" s="211"/>
-      <c r="P65" s="211"/>
-      <c r="Q65" s="211"/>
-      <c r="R65" s="211"/>
-      <c r="S65" s="211"/>
-      <c r="T65" s="211"/>
-      <c r="U65" s="211"/>
-      <c r="V65" s="211"/>
-      <c r="W65" s="212"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="46"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="47"/>
     </row>
     <row r="66" spans="11:23" ht="15.75" thickBot="1">
-      <c r="K66" s="213"/>
-      <c r="L66" s="214"/>
-      <c r="M66" s="214"/>
-      <c r="N66" s="214"/>
-      <c r="O66" s="214"/>
-      <c r="P66" s="214"/>
-      <c r="Q66" s="214"/>
-      <c r="R66" s="214"/>
-      <c r="S66" s="214"/>
-      <c r="T66" s="214"/>
-      <c r="U66" s="214"/>
-      <c r="V66" s="214"/>
-      <c r="W66" s="215"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="49"/>
+      <c r="V66" s="49"/>
+      <c r="W66" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="126">
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="J28:W29"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="R20:S21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="P20:Q21"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="K2:M3"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="L22:S23"/>
+    <mergeCell ref="K5:V5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="K7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="L50:W50"/>
+    <mergeCell ref="L51:W51"/>
+    <mergeCell ref="L42:W42"/>
+    <mergeCell ref="L43:W43"/>
+    <mergeCell ref="L44:W44"/>
+    <mergeCell ref="L45:W45"/>
+    <mergeCell ref="L46:W46"/>
+    <mergeCell ref="J31:W32"/>
+    <mergeCell ref="L33:W33"/>
+    <mergeCell ref="L34:W34"/>
+    <mergeCell ref="L35:W35"/>
+    <mergeCell ref="L36:W36"/>
+    <mergeCell ref="L62:W62"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="K63:W64"/>
+    <mergeCell ref="L37:W37"/>
+    <mergeCell ref="L38:W38"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L57:W57"/>
+    <mergeCell ref="L58:W58"/>
+    <mergeCell ref="L59:W59"/>
+    <mergeCell ref="L60:W60"/>
+    <mergeCell ref="L61:W61"/>
+    <mergeCell ref="L41:W41"/>
+    <mergeCell ref="L52:W52"/>
+    <mergeCell ref="L53:W53"/>
+    <mergeCell ref="L54:W54"/>
+    <mergeCell ref="L49:W49"/>
     <mergeCell ref="B19:C20"/>
     <mergeCell ref="E19:G20"/>
     <mergeCell ref="C23:D23"/>
@@ -4302,96 +4456,6 @@
     <mergeCell ref="K39:W40"/>
     <mergeCell ref="K47:W48"/>
     <mergeCell ref="K55:W56"/>
-    <mergeCell ref="L62:W62"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="K63:W64"/>
-    <mergeCell ref="L37:W37"/>
-    <mergeCell ref="L38:W38"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L57:W57"/>
-    <mergeCell ref="L58:W58"/>
-    <mergeCell ref="L59:W59"/>
-    <mergeCell ref="L60:W60"/>
-    <mergeCell ref="L61:W61"/>
-    <mergeCell ref="L41:W41"/>
-    <mergeCell ref="L52:W52"/>
-    <mergeCell ref="L53:W53"/>
-    <mergeCell ref="L54:W54"/>
-    <mergeCell ref="L49:W49"/>
-    <mergeCell ref="L50:W50"/>
-    <mergeCell ref="L51:W51"/>
-    <mergeCell ref="L42:W42"/>
-    <mergeCell ref="L43:W43"/>
-    <mergeCell ref="L44:W44"/>
-    <mergeCell ref="L45:W45"/>
-    <mergeCell ref="L46:W46"/>
-    <mergeCell ref="J31:W32"/>
-    <mergeCell ref="L33:W33"/>
-    <mergeCell ref="L34:W34"/>
-    <mergeCell ref="L35:W35"/>
-    <mergeCell ref="L36:W36"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="K7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="J28:W29"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="R20:S21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="P20:Q21"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="K2:M3"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="L22:S23"/>
-    <mergeCell ref="K5:V5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Metodos ( relaciones con la tabla ).xlsx
+++ b/Metodos ( relaciones con la tabla ).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>Dni</t>
   </si>
@@ -604,6 +604,24 @@
   </si>
   <si>
     <t>oculto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercado </t>
+  </si>
+  <si>
+    <t>florencia</t>
+  </si>
+  <si>
+    <t>pepe</t>
+  </si>
+  <si>
+    <t>urquiza</t>
+  </si>
+  <si>
+    <t>id tarea</t>
+  </si>
+  <si>
+    <t>hacer pruebas</t>
   </si>
 </sst>
 </file>
@@ -841,7 +859,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1194,43 +1212,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1556,11 +1537,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1612,7 +1668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1637,14 +1693,549 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1662,57 +2253,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1886,579 +2468,119 @@
     <xf numFmtId="0" fontId="13" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2754,10 +2876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W66"/>
+  <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63:W64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2765,11 +2887,11 @@
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="18" max="22" width="11.28515625" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" customWidth="1"/>
+    <col min="19" max="23" width="11.28515625" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2791,69 +2913,72 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
-      <c r="W1" s="4"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1">
+      <c r="W1" s="3"/>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="270" t="s">
+      <c r="B2" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="274" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="275"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="262" t="s">
+      <c r="K2" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="263"/>
-      <c r="M2" s="264"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="224" t="s">
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="226"/>
-      <c r="R2" s="18"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="63"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
-      <c r="U2" s="6"/>
+      <c r="U2" s="18"/>
       <c r="V2" s="6"/>
-      <c r="W2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" ht="24.75" customHeight="1" thickBot="1">
+      <c r="W2" s="6"/>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24" ht="24.75" customHeight="1" thickBot="1">
       <c r="A3" s="15">
         <v>6</v>
       </c>
-      <c r="B3" s="272"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="277"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="265"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="267"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="229"/>
-      <c r="R3" s="6"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="66"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="7"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="W3" s="6"/>
+      <c r="X3" s="7"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="15"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -2866,18 +2991,19 @@
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="22"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
-      <c r="R4" s="6"/>
+      <c r="R4" s="22"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="7"/>
-    </row>
-    <row r="5" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
+      <c r="W4" s="6"/>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" ht="20.25" customHeight="1" thickBot="1">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2886,23 +3012,24 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="289" t="s">
+      <c r="K5" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="290"/>
-      <c r="M5" s="290"/>
-      <c r="N5" s="291"/>
-      <c r="O5" s="291"/>
-      <c r="P5" s="291"/>
-      <c r="Q5" s="291"/>
-      <c r="R5" s="291"/>
-      <c r="S5" s="291"/>
-      <c r="T5" s="291"/>
-      <c r="U5" s="291"/>
-      <c r="V5" s="292"/>
-      <c r="W5" s="7"/>
-    </row>
-    <row r="6" spans="1:23" ht="21.75" thickBot="1">
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="7"/>
+    </row>
+    <row r="6" spans="1:24" ht="24" thickBot="1">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -2914,37 +3041,40 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="293" t="s">
+      <c r="K6" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="294"/>
-      <c r="M6" s="36" t="s">
+      <c r="L6" s="132"/>
+      <c r="M6" s="298" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="268" t="s">
+      <c r="N6" s="329" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="321" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="269"/>
-      <c r="P6" s="220" t="s">
+      <c r="P6" s="105"/>
+      <c r="Q6" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="218" t="s">
+      <c r="R6" s="58"/>
+      <c r="S6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="219"/>
-      <c r="T6" s="37" t="s">
+      <c r="T6" s="56"/>
+      <c r="U6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="38" t="s">
+      <c r="V6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="V6" s="34" t="s">
+      <c r="W6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="W6" s="7"/>
-    </row>
-    <row r="7" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X6" s="7"/>
+    </row>
+    <row r="7" spans="1:24" ht="20.25" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2954,37 +3084,40 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="193" t="s">
+      <c r="K7" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="194"/>
-      <c r="M7" s="197">
+      <c r="L7" s="136"/>
+      <c r="M7" s="316">
         <v>1</v>
       </c>
-      <c r="N7" s="132">
+      <c r="N7" s="329">
         <v>2</v>
       </c>
-      <c r="O7" s="133"/>
-      <c r="P7" s="260">
+      <c r="O7" s="322">
+        <v>2</v>
+      </c>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="97">
         <v>13</v>
       </c>
-      <c r="Q7" s="261"/>
-      <c r="R7" s="191">
+      <c r="R7" s="98"/>
+      <c r="S7" s="133">
         <v>1</v>
       </c>
-      <c r="S7" s="192"/>
-      <c r="T7" s="35" t="s">
+      <c r="T7" s="134"/>
+      <c r="U7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="35" t="s">
+      <c r="V7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="29">
+      <c r="W7" s="29">
         <v>36589556</v>
       </c>
-      <c r="W7" s="7"/>
-    </row>
-    <row r="8" spans="1:23" ht="20.25" customHeight="1">
+      <c r="X7" s="7"/>
+    </row>
+    <row r="8" spans="1:24" ht="20.25" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2994,21 +3127,22 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="189"/>
-      <c r="Q8" s="190"/>
-      <c r="R8" s="210"/>
-      <c r="S8" s="211"/>
-      <c r="T8" s="30"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="316"/>
+      <c r="N8" s="329"/>
+      <c r="O8" s="323"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="151"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="7"/>
-    </row>
-    <row r="9" spans="1:23" ht="20.25" customHeight="1">
+      <c r="V8" s="30"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="7"/>
+    </row>
+    <row r="9" spans="1:24" ht="20.25" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -3032,21 +3166,22 @@
       </c>
       <c r="H9" s="7"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="194"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="189"/>
-      <c r="Q9" s="190"/>
-      <c r="R9" s="210"/>
-      <c r="S9" s="211"/>
-      <c r="T9" s="30"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="316"/>
+      <c r="N9" s="329"/>
+      <c r="O9" s="323"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="145"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="151"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="7"/>
-    </row>
-    <row r="10" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
+      <c r="V9" s="30"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="7"/>
+    </row>
+    <row r="10" spans="1:24" ht="20.25" customHeight="1" thickBot="1">
       <c r="A10" s="16">
         <v>17</v>
       </c>
@@ -3070,21 +3205,22 @@
       </c>
       <c r="H10" s="7"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="195"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="136"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="206"/>
-      <c r="Q10" s="207"/>
-      <c r="R10" s="212"/>
-      <c r="S10" s="213"/>
-      <c r="T10" s="32"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="317"/>
+      <c r="N10" s="329"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="153"/>
       <c r="U10" s="32"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="7"/>
-    </row>
-    <row r="11" spans="1:23" ht="20.25" customHeight="1">
+      <c r="V10" s="32"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="7"/>
+    </row>
+    <row r="11" spans="1:24" ht="20.25" customHeight="1">
       <c r="A11" s="16">
         <v>18</v>
       </c>
@@ -3108,37 +3244,40 @@
       </c>
       <c r="H11" s="7"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="199" t="s">
+      <c r="K11" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="200"/>
-      <c r="M11" s="198">
+      <c r="L11" s="139"/>
+      <c r="M11" s="318">
         <v>1</v>
       </c>
-      <c r="N11" s="138">
+      <c r="N11" s="329">
+        <v>4</v>
+      </c>
+      <c r="O11" s="324">
         <v>6</v>
       </c>
-      <c r="O11" s="139"/>
-      <c r="P11" s="208">
+      <c r="P11" s="197"/>
+      <c r="Q11" s="148">
         <v>17</v>
       </c>
-      <c r="Q11" s="209"/>
-      <c r="R11" s="214">
+      <c r="R11" s="149"/>
+      <c r="S11" s="154">
         <v>5</v>
       </c>
-      <c r="S11" s="215"/>
-      <c r="T11" s="28" t="s">
+      <c r="T11" s="155"/>
+      <c r="U11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="28" t="s">
+      <c r="V11" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="V11" s="29">
+      <c r="W11" s="29">
         <v>45678925</v>
       </c>
-      <c r="W11" s="7"/>
-    </row>
-    <row r="12" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
+      <c r="X11" s="7"/>
+    </row>
+    <row r="12" spans="1:24" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="17"/>
       <c r="C12" s="6"/>
@@ -3148,67 +3287,71 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="202"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="189"/>
-      <c r="Q12" s="190"/>
-      <c r="R12" s="203"/>
-      <c r="S12" s="204"/>
-      <c r="T12" s="30"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="319"/>
+      <c r="N12" s="329"/>
+      <c r="O12" s="323"/>
+      <c r="P12" s="196"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="142"/>
+      <c r="T12" s="143"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="7"/>
-    </row>
-    <row r="13" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
+      <c r="V12" s="30"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="7"/>
+    </row>
+    <row r="13" spans="1:24" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="278" t="s">
+      <c r="B13" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="279"/>
-      <c r="D13" s="279"/>
-      <c r="E13" s="279"/>
-      <c r="F13" s="280"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="116"/>
       <c r="G13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="7"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="281" t="s">
+      <c r="K13" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="282"/>
-      <c r="M13" s="137">
+      <c r="L13" s="118"/>
+      <c r="M13" s="320">
         <v>1</v>
       </c>
-      <c r="N13" s="134"/>
-      <c r="O13" s="135"/>
-      <c r="P13" s="189">
+      <c r="N13" s="329">
+        <v>5</v>
+      </c>
+      <c r="O13" s="323"/>
+      <c r="P13" s="196"/>
+      <c r="Q13" s="144">
         <v>18</v>
       </c>
-      <c r="Q13" s="190"/>
-      <c r="R13" s="203">
+      <c r="R13" s="145"/>
+      <c r="S13" s="142">
         <v>6</v>
       </c>
-      <c r="S13" s="204"/>
-      <c r="T13" s="30" t="s">
+      <c r="T13" s="143"/>
+      <c r="U13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="U13" s="30" t="s">
+      <c r="V13" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="V13" s="31">
+      <c r="W13" s="31">
         <v>44487596</v>
       </c>
-      <c r="W13" s="7"/>
-    </row>
-    <row r="14" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A14" s="222" t="s">
+      <c r="X13" s="7"/>
+    </row>
+    <row r="14" spans="1:24" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A14" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="223"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3216,21 +3359,24 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="195"/>
-      <c r="L14" s="196"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="179"/>
-      <c r="Q14" s="180"/>
-      <c r="R14" s="140"/>
-      <c r="S14" s="205"/>
-      <c r="T14" s="25"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="317"/>
+      <c r="N14" s="329">
+        <v>8</v>
+      </c>
+      <c r="O14" s="325"/>
+      <c r="P14" s="198"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="157"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="42"/>
       <c r="U14" s="25"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="7"/>
-    </row>
-    <row r="15" spans="1:23" ht="20.25" customHeight="1">
+      <c r="V14" s="25"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="1:24" ht="20.25" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3240,21 +3386,24 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="236"/>
-      <c r="L15" s="237"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="143"/>
+      <c r="K15" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="74"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="330"/>
+      <c r="O15" s="326"/>
       <c r="P15" s="295"/>
-      <c r="Q15" s="296"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="216"/>
-      <c r="T15" s="23"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="52"/>
       <c r="U15" s="23"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="7"/>
-    </row>
-    <row r="16" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
+      <c r="V15" s="23"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="7"/>
+    </row>
+    <row r="16" spans="1:24" ht="20.25" customHeight="1" thickBot="1">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3264,37 +3413,51 @@
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="238"/>
-      <c r="L16" s="239"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="184"/>
-      <c r="P16" s="181"/>
-      <c r="Q16" s="182"/>
-      <c r="R16" s="134"/>
-      <c r="S16" s="217"/>
-      <c r="T16" s="11"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="299"/>
+      <c r="N16" s="330"/>
+      <c r="O16" s="327"/>
+      <c r="P16" s="296"/>
+      <c r="Q16" s="158"/>
+      <c r="R16" s="159"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="54"/>
       <c r="U16" s="11"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="7"/>
-    </row>
-    <row r="17" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
+      <c r="V16" s="11"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="7"/>
+    </row>
+    <row r="17" spans="1:24" ht="20.25" customHeight="1" thickBot="1">
       <c r="J17" s="5"/>
-      <c r="K17" s="240"/>
-      <c r="L17" s="241"/>
-      <c r="M17" s="177"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="184"/>
-      <c r="P17" s="181"/>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="134"/>
-      <c r="S17" s="217"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="7"/>
-    </row>
-    <row r="18" spans="1:23" ht="20.25" customHeight="1" thickBot="1">
+      <c r="K17" s="77"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="300"/>
+      <c r="N17" s="331">
+        <v>7</v>
+      </c>
+      <c r="O17" s="327">
+        <v>5</v>
+      </c>
+      <c r="P17" s="296"/>
+      <c r="Q17" s="158">
+        <v>23</v>
+      </c>
+      <c r="R17" s="159"/>
+      <c r="S17" s="53">
+        <v>13</v>
+      </c>
+      <c r="T17" s="54"/>
+      <c r="U17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="W17" s="24"/>
+      <c r="X17" s="7"/>
+    </row>
+    <row r="18" spans="1:24" ht="20.25" customHeight="1" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3304,32 +3467,43 @@
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="242"/>
-      <c r="L18" s="243"/>
-      <c r="M18" s="178"/>
-      <c r="N18" s="185"/>
-      <c r="O18" s="186"/>
-      <c r="P18" s="179"/>
-      <c r="Q18" s="180"/>
-      <c r="R18" s="140"/>
-      <c r="S18" s="205"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="7"/>
-    </row>
-    <row r="19" spans="1:23" ht="29.25" customHeight="1" thickBot="1">
+      <c r="K18" s="79"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="301"/>
+      <c r="N18" s="332"/>
+      <c r="O18" s="328">
+        <v>5</v>
+      </c>
+      <c r="P18" s="297"/>
+      <c r="Q18" s="156">
+        <v>16</v>
+      </c>
+      <c r="R18" s="157"/>
+      <c r="S18" s="41">
+        <v>4</v>
+      </c>
+      <c r="T18" s="42"/>
+      <c r="U18" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="V18" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="W18" s="26"/>
+      <c r="X18" s="7"/>
+    </row>
+    <row r="19" spans="1:24" ht="29.25" customHeight="1" thickBot="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="302" t="s">
+      <c r="B19" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="303"/>
+      <c r="C19" s="215"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="220"/>
       <c r="H19" s="7"/>
       <c r="J19" s="5"/>
       <c r="K19" s="6"/>
@@ -3344,41 +3518,43 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
-      <c r="W19" s="7"/>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" thickBot="1">
+      <c r="W19" s="6"/>
+      <c r="X19" s="7"/>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="304"/>
-      <c r="C20" s="305"/>
+      <c r="B20" s="216"/>
+      <c r="C20" s="217"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
+      <c r="E20" s="221"/>
+      <c r="F20" s="222"/>
+      <c r="G20" s="223"/>
       <c r="H20" s="7"/>
       <c r="J20" s="5"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="248" t="s">
+      <c r="L20" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="249"/>
-      <c r="N20" s="252" t="s">
+      <c r="M20" s="302"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="253"/>
-      <c r="P20" s="256" t="s">
+      <c r="P20" s="90"/>
+      <c r="Q20" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="257"/>
-      <c r="R20" s="244" t="s">
+      <c r="R20" s="94"/>
+      <c r="S20" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="S20" s="245"/>
-      <c r="T20" s="6"/>
+      <c r="T20" s="82"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
-      <c r="W20" s="7"/>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1">
+      <c r="W20" s="6"/>
+      <c r="X20" s="7"/>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3389,20 +3565,21 @@
       <c r="H21" s="7"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="250"/>
-      <c r="M21" s="251"/>
-      <c r="N21" s="254"/>
-      <c r="O21" s="255"/>
-      <c r="P21" s="258"/>
-      <c r="Q21" s="259"/>
-      <c r="R21" s="246"/>
-      <c r="S21" s="247"/>
-      <c r="T21" s="6"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="303"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="84"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
-      <c r="W21" s="7"/>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="W21" s="6"/>
+      <c r="X21" s="7"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -3412,66 +3589,68 @@
       <c r="G22" s="6"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="283" t="s">
+      <c r="L22" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="284"/>
-      <c r="N22" s="284"/>
-      <c r="O22" s="284"/>
-      <c r="P22" s="284"/>
-      <c r="Q22" s="284"/>
-      <c r="R22" s="284"/>
-      <c r="S22" s="285"/>
-      <c r="T22" s="6"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="123"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
-      <c r="W22" s="7"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A23" s="297" t="s">
+      <c r="W22" s="6"/>
+      <c r="X22" s="7"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A23" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="297" t="s">
+      <c r="B23" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="301" t="s">
+      <c r="C23" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="301"/>
-      <c r="E23" s="298" t="s">
+      <c r="D23" s="224"/>
+      <c r="E23" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="299"/>
-      <c r="G23" s="300" t="s">
+      <c r="F23" s="46"/>
+      <c r="G23" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="307" t="s">
+      <c r="H23" s="40" t="s">
         <v>63</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="286"/>
-      <c r="M23" s="287"/>
-      <c r="N23" s="287"/>
-      <c r="O23" s="287"/>
-      <c r="P23" s="287"/>
-      <c r="Q23" s="287"/>
-      <c r="R23" s="287"/>
-      <c r="S23" s="288"/>
-      <c r="T23" s="6"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="126"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
-      <c r="W23" s="7"/>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="297"/>
-      <c r="B24" s="297"/>
-      <c r="C24" s="298"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="298"/>
-      <c r="F24" s="306"/>
-      <c r="G24" s="297"/>
-      <c r="H24" s="308" t="s">
+      <c r="W23" s="6"/>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="48" t="s">
         <v>64</v>
       </c>
       <c r="J24" s="5"/>
@@ -3487,17 +3666,18 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
-      <c r="W24" s="7"/>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A25" s="297"/>
-      <c r="B25" s="297"/>
-      <c r="C25" s="298"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="298"/>
-      <c r="F25" s="306"/>
-      <c r="G25" s="297"/>
-      <c r="H25" s="309"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="7"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="49"/>
       <c r="J25" s="8"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -3511,89 +3691,92 @@
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
-      <c r="W25" s="10"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" s="297" t="s">
+      <c r="W25" s="9"/>
+      <c r="X25" s="10"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="297" t="s">
+      <c r="B26" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="301" t="s">
+      <c r="C26" s="224" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="301"/>
-      <c r="E26" s="298" t="s">
+      <c r="D26" s="224"/>
+      <c r="E26" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="306"/>
-      <c r="G26" s="297" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="309"/>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="297"/>
-      <c r="B27" s="297"/>
-      <c r="C27" s="298"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="298"/>
-      <c r="F27" s="306"/>
-      <c r="G27" s="297"/>
-      <c r="H27" s="309"/>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28" s="297"/>
-      <c r="B28" s="297"/>
-      <c r="C28" s="298"/>
-      <c r="D28" s="299"/>
-      <c r="E28" s="298"/>
-      <c r="F28" s="306"/>
-      <c r="G28" s="297"/>
-      <c r="H28" s="309"/>
-      <c r="J28" s="230" t="s">
+      <c r="H26" s="49"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="49"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="49"/>
+      <c r="J28" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="231"/>
-      <c r="L28" s="231"/>
-      <c r="M28" s="231"/>
-      <c r="N28" s="231"/>
-      <c r="O28" s="231"/>
-      <c r="P28" s="231"/>
-      <c r="Q28" s="231"/>
-      <c r="R28" s="231"/>
-      <c r="S28" s="231"/>
-      <c r="T28" s="231"/>
-      <c r="U28" s="231"/>
-      <c r="V28" s="231"/>
-      <c r="W28" s="232"/>
-    </row>
-    <row r="29" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A29" s="297"/>
-      <c r="B29" s="297"/>
-      <c r="C29" s="298"/>
-      <c r="D29" s="299"/>
-      <c r="E29" s="298"/>
-      <c r="F29" s="306"/>
-      <c r="G29" s="297"/>
-      <c r="H29" s="310"/>
-      <c r="J29" s="233"/>
-      <c r="K29" s="234"/>
-      <c r="L29" s="234"/>
-      <c r="M29" s="234"/>
-      <c r="N29" s="234"/>
-      <c r="O29" s="234"/>
-      <c r="P29" s="234"/>
-      <c r="Q29" s="234"/>
-      <c r="R29" s="234"/>
-      <c r="S29" s="234"/>
-      <c r="T29" s="234"/>
-      <c r="U29" s="234"/>
-      <c r="V29" s="234"/>
-      <c r="W29" s="235"/>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" thickBot="1">
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="69"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="50"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="72"/>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" thickBot="1">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3603,7 +3786,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -3612,24 +3795,25 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="168" t="s">
+      <c r="J31" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="169"/>
-      <c r="L31" s="169"/>
-      <c r="M31" s="169"/>
-      <c r="N31" s="169"/>
-      <c r="O31" s="169"/>
-      <c r="P31" s="169"/>
-      <c r="Q31" s="169"/>
-      <c r="R31" s="169"/>
-      <c r="S31" s="169"/>
-      <c r="T31" s="169"/>
-      <c r="U31" s="169"/>
-      <c r="V31" s="169"/>
-      <c r="W31" s="170"/>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="171"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="171"/>
+      <c r="P31" s="171"/>
+      <c r="Q31" s="171"/>
+      <c r="R31" s="171"/>
+      <c r="S31" s="171"/>
+      <c r="T31" s="171"/>
+      <c r="U31" s="171"/>
+      <c r="V31" s="171"/>
+      <c r="W31" s="171"/>
+      <c r="X31" s="172"/>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" thickBot="1">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -3638,806 +3822,739 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="10"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="172"/>
-      <c r="L32" s="172"/>
-      <c r="M32" s="172"/>
-      <c r="N32" s="172"/>
-      <c r="O32" s="172"/>
-      <c r="P32" s="172"/>
-      <c r="Q32" s="172"/>
-      <c r="R32" s="172"/>
-      <c r="S32" s="172"/>
-      <c r="T32" s="172"/>
-      <c r="U32" s="172"/>
-      <c r="V32" s="172"/>
-      <c r="W32" s="173"/>
-    </row>
-    <row r="33" spans="2:23" ht="15" customHeight="1">
+      <c r="J32" s="173"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="174"/>
+      <c r="M32" s="174"/>
+      <c r="N32" s="174"/>
+      <c r="O32" s="174"/>
+      <c r="P32" s="174"/>
+      <c r="Q32" s="174"/>
+      <c r="R32" s="174"/>
+      <c r="S32" s="174"/>
+      <c r="T32" s="174"/>
+      <c r="U32" s="174"/>
+      <c r="V32" s="174"/>
+      <c r="W32" s="174"/>
+      <c r="X32" s="175"/>
+    </row>
+    <row r="33" spans="2:24" ht="15" customHeight="1">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="66" t="s">
+      <c r="H33" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="67"/>
-      <c r="J33" s="62" t="s">
+      <c r="I33" s="243"/>
+      <c r="J33" s="238" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="63"/>
-      <c r="L33" s="174"/>
-      <c r="M33" s="175"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="175"/>
-      <c r="Q33" s="175"/>
-      <c r="R33" s="175"/>
-      <c r="S33" s="175"/>
-      <c r="T33" s="175"/>
-      <c r="U33" s="175"/>
-      <c r="V33" s="175"/>
-      <c r="W33" s="176"/>
-    </row>
-    <row r="34" spans="2:23" ht="15" customHeight="1">
-      <c r="G34" s="51"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="127"/>
-      <c r="N34" s="127"/>
-      <c r="O34" s="127"/>
-      <c r="P34" s="127"/>
-      <c r="Q34" s="127"/>
-      <c r="R34" s="127"/>
-      <c r="S34" s="127"/>
-      <c r="T34" s="127"/>
-      <c r="U34" s="127"/>
-      <c r="V34" s="127"/>
-      <c r="W34" s="128"/>
-    </row>
-    <row r="35" spans="2:23" ht="15" customHeight="1">
-      <c r="G35" s="51"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
-      <c r="O35" s="127"/>
-      <c r="P35" s="127"/>
-      <c r="Q35" s="127"/>
-      <c r="R35" s="127"/>
-      <c r="S35" s="127"/>
-      <c r="T35" s="127"/>
-      <c r="U35" s="127"/>
-      <c r="V35" s="127"/>
-      <c r="W35" s="128"/>
-    </row>
-    <row r="36" spans="2:23" ht="15" customHeight="1">
-      <c r="G36" s="51"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="127"/>
-      <c r="N36" s="127"/>
-      <c r="O36" s="127"/>
-      <c r="P36" s="127"/>
-      <c r="Q36" s="127"/>
-      <c r="R36" s="127"/>
-      <c r="S36" s="127"/>
-      <c r="T36" s="127"/>
-      <c r="U36" s="127"/>
-      <c r="V36" s="127"/>
-      <c r="W36" s="128"/>
-    </row>
-    <row r="37" spans="2:23" ht="15" customHeight="1">
-      <c r="G37" s="51"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="127"/>
-      <c r="N37" s="127"/>
-      <c r="O37" s="127"/>
-      <c r="P37" s="127"/>
-      <c r="Q37" s="127"/>
-      <c r="R37" s="127"/>
-      <c r="S37" s="127"/>
-      <c r="T37" s="127"/>
-      <c r="U37" s="127"/>
-      <c r="V37" s="127"/>
-      <c r="W37" s="128"/>
-    </row>
-    <row r="38" spans="2:23" ht="15" customHeight="1" thickBot="1">
-      <c r="G38" s="52"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="130"/>
-      <c r="P38" s="130"/>
-      <c r="Q38" s="130"/>
-      <c r="R38" s="130"/>
-      <c r="S38" s="130"/>
-      <c r="T38" s="130"/>
-      <c r="U38" s="130"/>
-      <c r="V38" s="130"/>
-      <c r="W38" s="131"/>
-    </row>
-    <row r="39" spans="2:23" ht="15" customHeight="1">
-      <c r="H39" s="95" t="s">
+      <c r="K33" s="239"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="304"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="177"/>
+      <c r="S33" s="177"/>
+      <c r="T33" s="177"/>
+      <c r="U33" s="177"/>
+      <c r="V33" s="177"/>
+      <c r="W33" s="177"/>
+      <c r="X33" s="178"/>
+    </row>
+    <row r="34" spans="2:24" ht="15" customHeight="1">
+      <c r="G34" s="227"/>
+      <c r="H34" s="242"/>
+      <c r="I34" s="244"/>
+      <c r="J34" s="240"/>
+      <c r="K34" s="241"/>
+      <c r="L34" s="179"/>
+      <c r="M34" s="305"/>
+      <c r="N34" s="180"/>
+      <c r="O34" s="180"/>
+      <c r="P34" s="180"/>
+      <c r="Q34" s="180"/>
+      <c r="R34" s="180"/>
+      <c r="S34" s="180"/>
+      <c r="T34" s="180"/>
+      <c r="U34" s="180"/>
+      <c r="V34" s="180"/>
+      <c r="W34" s="180"/>
+      <c r="X34" s="181"/>
+    </row>
+    <row r="35" spans="2:24" ht="15" customHeight="1">
+      <c r="G35" s="227"/>
+      <c r="H35" s="242"/>
+      <c r="I35" s="244"/>
+      <c r="J35" s="240"/>
+      <c r="K35" s="241"/>
+      <c r="L35" s="179"/>
+      <c r="M35" s="305"/>
+      <c r="N35" s="180"/>
+      <c r="O35" s="180"/>
+      <c r="P35" s="180"/>
+      <c r="Q35" s="180"/>
+      <c r="R35" s="180"/>
+      <c r="S35" s="180"/>
+      <c r="T35" s="180"/>
+      <c r="U35" s="180"/>
+      <c r="V35" s="180"/>
+      <c r="W35" s="180"/>
+      <c r="X35" s="181"/>
+    </row>
+    <row r="36" spans="2:24" ht="15" customHeight="1">
+      <c r="G36" s="227"/>
+      <c r="H36" s="242"/>
+      <c r="I36" s="244"/>
+      <c r="J36" s="240"/>
+      <c r="K36" s="241"/>
+      <c r="L36" s="179"/>
+      <c r="M36" s="305"/>
+      <c r="N36" s="180"/>
+      <c r="O36" s="180"/>
+      <c r="P36" s="180"/>
+      <c r="Q36" s="180"/>
+      <c r="R36" s="180"/>
+      <c r="S36" s="180"/>
+      <c r="T36" s="180"/>
+      <c r="U36" s="180"/>
+      <c r="V36" s="180"/>
+      <c r="W36" s="180"/>
+      <c r="X36" s="181"/>
+    </row>
+    <row r="37" spans="2:24" ht="15" customHeight="1">
+      <c r="G37" s="227"/>
+      <c r="H37" s="242"/>
+      <c r="I37" s="244"/>
+      <c r="J37" s="240"/>
+      <c r="K37" s="241"/>
+      <c r="L37" s="179"/>
+      <c r="M37" s="305"/>
+      <c r="N37" s="180"/>
+      <c r="O37" s="180"/>
+      <c r="P37" s="180"/>
+      <c r="Q37" s="180"/>
+      <c r="R37" s="180"/>
+      <c r="S37" s="180"/>
+      <c r="T37" s="180"/>
+      <c r="U37" s="180"/>
+      <c r="V37" s="180"/>
+      <c r="W37" s="180"/>
+      <c r="X37" s="181"/>
+    </row>
+    <row r="38" spans="2:24" ht="15" customHeight="1" thickBot="1">
+      <c r="G38" s="228"/>
+      <c r="H38" s="242"/>
+      <c r="I38" s="244"/>
+      <c r="J38" s="240"/>
+      <c r="K38" s="241"/>
+      <c r="L38" s="193"/>
+      <c r="M38" s="306"/>
+      <c r="N38" s="194"/>
+      <c r="O38" s="194"/>
+      <c r="P38" s="194"/>
+      <c r="Q38" s="194"/>
+      <c r="R38" s="194"/>
+      <c r="S38" s="194"/>
+      <c r="T38" s="194"/>
+      <c r="U38" s="194"/>
+      <c r="V38" s="194"/>
+      <c r="W38" s="194"/>
+      <c r="X38" s="195"/>
+    </row>
+    <row r="39" spans="2:24" ht="15" customHeight="1">
+      <c r="H39" s="271" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="107" t="s">
+      <c r="I39" s="272"/>
+      <c r="J39" s="272"/>
+      <c r="K39" s="283" t="s">
         <v>42</v>
       </c>
-      <c r="L39" s="107"/>
-      <c r="M39" s="107"/>
-      <c r="N39" s="107"/>
-      <c r="O39" s="107"/>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="107"/>
-      <c r="T39" s="107"/>
-      <c r="U39" s="107"/>
-      <c r="V39" s="107"/>
-      <c r="W39" s="108"/>
-    </row>
-    <row r="40" spans="2:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H40" s="97"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="109"/>
-      <c r="L40" s="109"/>
-      <c r="M40" s="109"/>
-      <c r="N40" s="109"/>
-      <c r="O40" s="109"/>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="109"/>
-      <c r="R40" s="109"/>
-      <c r="S40" s="109"/>
-      <c r="T40" s="109"/>
-      <c r="U40" s="109"/>
-      <c r="V40" s="109"/>
-      <c r="W40" s="110"/>
-    </row>
-    <row r="41" spans="2:23" ht="15" customHeight="1">
-      <c r="G41" s="59" t="s">
+      <c r="L39" s="283"/>
+      <c r="M39" s="283"/>
+      <c r="N39" s="283"/>
+      <c r="O39" s="283"/>
+      <c r="P39" s="283"/>
+      <c r="Q39" s="283"/>
+      <c r="R39" s="283"/>
+      <c r="S39" s="283"/>
+      <c r="T39" s="283"/>
+      <c r="U39" s="283"/>
+      <c r="V39" s="283"/>
+      <c r="W39" s="283"/>
+      <c r="X39" s="284"/>
+    </row>
+    <row r="40" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H40" s="273"/>
+      <c r="I40" s="274"/>
+      <c r="J40" s="274"/>
+      <c r="K40" s="285"/>
+      <c r="L40" s="285"/>
+      <c r="M40" s="285"/>
+      <c r="N40" s="285"/>
+      <c r="O40" s="285"/>
+      <c r="P40" s="285"/>
+      <c r="Q40" s="285"/>
+      <c r="R40" s="285"/>
+      <c r="S40" s="285"/>
+      <c r="T40" s="285"/>
+      <c r="U40" s="285"/>
+      <c r="V40" s="285"/>
+      <c r="W40" s="285"/>
+      <c r="X40" s="286"/>
+    </row>
+    <row r="41" spans="2:24" ht="15" customHeight="1">
+      <c r="G41" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="83" t="s">
+      <c r="H41" s="259" t="s">
         <v>37</v>
       </c>
-      <c r="I41" s="84"/>
-      <c r="J41" s="69" t="s">
+      <c r="I41" s="260"/>
+      <c r="J41" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="K41" s="70"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="151"/>
-      <c r="N41" s="151"/>
-      <c r="O41" s="151"/>
-      <c r="P41" s="151"/>
-      <c r="Q41" s="151"/>
-      <c r="R41" s="151"/>
-      <c r="S41" s="151"/>
-      <c r="T41" s="151"/>
-      <c r="U41" s="151"/>
-      <c r="V41" s="151"/>
-      <c r="W41" s="152"/>
-    </row>
-    <row r="42" spans="2:23" ht="15" customHeight="1">
-      <c r="G42" s="60"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="162"/>
-      <c r="M42" s="163"/>
-      <c r="N42" s="163"/>
-      <c r="O42" s="163"/>
-      <c r="P42" s="163"/>
-      <c r="Q42" s="163"/>
-      <c r="R42" s="163"/>
-      <c r="S42" s="163"/>
-      <c r="T42" s="163"/>
-      <c r="U42" s="163"/>
-      <c r="V42" s="163"/>
-      <c r="W42" s="164"/>
-    </row>
-    <row r="43" spans="2:23" ht="15" customHeight="1">
-      <c r="G43" s="60"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="162"/>
-      <c r="M43" s="163"/>
-      <c r="N43" s="163"/>
-      <c r="O43" s="163"/>
-      <c r="P43" s="163"/>
-      <c r="Q43" s="163"/>
-      <c r="R43" s="163"/>
-      <c r="S43" s="163"/>
-      <c r="T43" s="163"/>
-      <c r="U43" s="163"/>
-      <c r="V43" s="163"/>
-      <c r="W43" s="164"/>
-    </row>
-    <row r="44" spans="2:23" ht="15" customHeight="1">
-      <c r="G44" s="60"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="162"/>
-      <c r="M44" s="163"/>
-      <c r="N44" s="163"/>
-      <c r="O44" s="163"/>
-      <c r="P44" s="163"/>
-      <c r="Q44" s="163"/>
-      <c r="R44" s="163"/>
-      <c r="S44" s="163"/>
-      <c r="T44" s="163"/>
-      <c r="U44" s="163"/>
-      <c r="V44" s="163"/>
-      <c r="W44" s="164"/>
-    </row>
-    <row r="45" spans="2:23" ht="15" customHeight="1">
-      <c r="G45" s="60"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="162"/>
-      <c r="M45" s="163"/>
-      <c r="N45" s="163"/>
-      <c r="O45" s="163"/>
-      <c r="P45" s="163"/>
-      <c r="Q45" s="163"/>
-      <c r="R45" s="163"/>
-      <c r="S45" s="163"/>
-      <c r="T45" s="163"/>
-      <c r="U45" s="163"/>
-      <c r="V45" s="163"/>
-      <c r="W45" s="164"/>
-    </row>
-    <row r="46" spans="2:23" ht="15" customHeight="1" thickBot="1">
-      <c r="G46" s="61"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="165"/>
-      <c r="M46" s="166"/>
-      <c r="N46" s="166"/>
-      <c r="O46" s="166"/>
-      <c r="P46" s="166"/>
-      <c r="Q46" s="166"/>
-      <c r="R46" s="166"/>
-      <c r="S46" s="166"/>
-      <c r="T46" s="166"/>
-      <c r="U46" s="166"/>
-      <c r="V46" s="166"/>
-      <c r="W46" s="167"/>
-    </row>
-    <row r="47" spans="2:23" ht="15" customHeight="1">
-      <c r="H47" s="99" t="s">
+      <c r="K41" s="246"/>
+      <c r="L41" s="205"/>
+      <c r="M41" s="307"/>
+      <c r="N41" s="206"/>
+      <c r="O41" s="206"/>
+      <c r="P41" s="206"/>
+      <c r="Q41" s="206"/>
+      <c r="R41" s="206"/>
+      <c r="S41" s="206"/>
+      <c r="T41" s="206"/>
+      <c r="U41" s="206"/>
+      <c r="V41" s="206"/>
+      <c r="W41" s="206"/>
+      <c r="X41" s="207"/>
+    </row>
+    <row r="42" spans="2:24" ht="15" customHeight="1">
+      <c r="G42" s="236"/>
+      <c r="H42" s="261"/>
+      <c r="I42" s="262"/>
+      <c r="J42" s="247"/>
+      <c r="K42" s="248"/>
+      <c r="L42" s="164"/>
+      <c r="M42" s="308"/>
+      <c r="N42" s="165"/>
+      <c r="O42" s="165"/>
+      <c r="P42" s="165"/>
+      <c r="Q42" s="165"/>
+      <c r="R42" s="165"/>
+      <c r="S42" s="165"/>
+      <c r="T42" s="165"/>
+      <c r="U42" s="165"/>
+      <c r="V42" s="165"/>
+      <c r="W42" s="165"/>
+      <c r="X42" s="166"/>
+    </row>
+    <row r="43" spans="2:24" ht="15" customHeight="1">
+      <c r="G43" s="236"/>
+      <c r="H43" s="261"/>
+      <c r="I43" s="262"/>
+      <c r="J43" s="247"/>
+      <c r="K43" s="248"/>
+      <c r="L43" s="164"/>
+      <c r="M43" s="308"/>
+      <c r="N43" s="165"/>
+      <c r="O43" s="165"/>
+      <c r="P43" s="165"/>
+      <c r="Q43" s="165"/>
+      <c r="R43" s="165"/>
+      <c r="S43" s="165"/>
+      <c r="T43" s="165"/>
+      <c r="U43" s="165"/>
+      <c r="V43" s="165"/>
+      <c r="W43" s="165"/>
+      <c r="X43" s="166"/>
+    </row>
+    <row r="44" spans="2:24" ht="15" customHeight="1">
+      <c r="G44" s="236"/>
+      <c r="H44" s="261"/>
+      <c r="I44" s="262"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="248"/>
+      <c r="L44" s="164"/>
+      <c r="M44" s="308"/>
+      <c r="N44" s="165"/>
+      <c r="O44" s="165"/>
+      <c r="P44" s="165"/>
+      <c r="Q44" s="165"/>
+      <c r="R44" s="165"/>
+      <c r="S44" s="165"/>
+      <c r="T44" s="165"/>
+      <c r="U44" s="165"/>
+      <c r="V44" s="165"/>
+      <c r="W44" s="165"/>
+      <c r="X44" s="166"/>
+    </row>
+    <row r="45" spans="2:24" ht="15" customHeight="1">
+      <c r="G45" s="236"/>
+      <c r="H45" s="261"/>
+      <c r="I45" s="262"/>
+      <c r="J45" s="247"/>
+      <c r="K45" s="248"/>
+      <c r="L45" s="164"/>
+      <c r="M45" s="308"/>
+      <c r="N45" s="165"/>
+      <c r="O45" s="165"/>
+      <c r="P45" s="165"/>
+      <c r="Q45" s="165"/>
+      <c r="R45" s="165"/>
+      <c r="S45" s="165"/>
+      <c r="T45" s="165"/>
+      <c r="U45" s="165"/>
+      <c r="V45" s="165"/>
+      <c r="W45" s="165"/>
+      <c r="X45" s="166"/>
+    </row>
+    <row r="46" spans="2:24" ht="15" customHeight="1" thickBot="1">
+      <c r="G46" s="237"/>
+      <c r="H46" s="261"/>
+      <c r="I46" s="262"/>
+      <c r="J46" s="247"/>
+      <c r="K46" s="248"/>
+      <c r="L46" s="167"/>
+      <c r="M46" s="309"/>
+      <c r="N46" s="168"/>
+      <c r="O46" s="168"/>
+      <c r="P46" s="168"/>
+      <c r="Q46" s="168"/>
+      <c r="R46" s="168"/>
+      <c r="S46" s="168"/>
+      <c r="T46" s="168"/>
+      <c r="U46" s="168"/>
+      <c r="V46" s="168"/>
+      <c r="W46" s="168"/>
+      <c r="X46" s="169"/>
+    </row>
+    <row r="47" spans="2:24" ht="15" customHeight="1">
+      <c r="H47" s="275" t="s">
         <v>41</v>
       </c>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="111" t="s">
+      <c r="I47" s="276"/>
+      <c r="J47" s="276"/>
+      <c r="K47" s="287" t="s">
         <v>43</v>
       </c>
-      <c r="L47" s="111"/>
-      <c r="M47" s="111"/>
-      <c r="N47" s="111"/>
-      <c r="O47" s="111"/>
-      <c r="P47" s="111"/>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="111"/>
-      <c r="S47" s="111"/>
-      <c r="T47" s="111"/>
-      <c r="U47" s="111"/>
-      <c r="V47" s="111"/>
-      <c r="W47" s="112"/>
-    </row>
-    <row r="48" spans="2:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H48" s="101"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="113"/>
-      <c r="L48" s="113"/>
-      <c r="M48" s="113"/>
-      <c r="N48" s="113"/>
-      <c r="O48" s="113"/>
-      <c r="P48" s="113"/>
-      <c r="Q48" s="113"/>
-      <c r="R48" s="113"/>
-      <c r="S48" s="113"/>
-      <c r="T48" s="113"/>
-      <c r="U48" s="113"/>
-      <c r="V48" s="113"/>
-      <c r="W48" s="114"/>
-    </row>
-    <row r="49" spans="7:23" ht="15" customHeight="1">
-      <c r="G49" s="56" t="s">
+      <c r="L47" s="287"/>
+      <c r="M47" s="287"/>
+      <c r="N47" s="287"/>
+      <c r="O47" s="287"/>
+      <c r="P47" s="287"/>
+      <c r="Q47" s="287"/>
+      <c r="R47" s="287"/>
+      <c r="S47" s="287"/>
+      <c r="T47" s="287"/>
+      <c r="U47" s="287"/>
+      <c r="V47" s="287"/>
+      <c r="W47" s="287"/>
+      <c r="X47" s="288"/>
+    </row>
+    <row r="48" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H48" s="277"/>
+      <c r="I48" s="278"/>
+      <c r="J48" s="278"/>
+      <c r="K48" s="289"/>
+      <c r="L48" s="289"/>
+      <c r="M48" s="289"/>
+      <c r="N48" s="289"/>
+      <c r="O48" s="289"/>
+      <c r="P48" s="289"/>
+      <c r="Q48" s="289"/>
+      <c r="R48" s="289"/>
+      <c r="S48" s="289"/>
+      <c r="T48" s="289"/>
+      <c r="U48" s="289"/>
+      <c r="V48" s="289"/>
+      <c r="W48" s="289"/>
+      <c r="X48" s="290"/>
+    </row>
+    <row r="49" spans="7:24" ht="15" customHeight="1">
+      <c r="G49" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="H49" s="87" t="s">
+      <c r="H49" s="263" t="s">
         <v>38</v>
       </c>
-      <c r="I49" s="88"/>
-      <c r="J49" s="73" t="s">
+      <c r="I49" s="264"/>
+      <c r="J49" s="249" t="s">
         <v>28</v>
       </c>
-      <c r="K49" s="74"/>
-      <c r="L49" s="159"/>
-      <c r="M49" s="160"/>
-      <c r="N49" s="160"/>
-      <c r="O49" s="160"/>
-      <c r="P49" s="160"/>
-      <c r="Q49" s="160"/>
-      <c r="R49" s="160"/>
-      <c r="S49" s="160"/>
-      <c r="T49" s="160"/>
-      <c r="U49" s="160"/>
-      <c r="V49" s="160"/>
-      <c r="W49" s="161"/>
-    </row>
-    <row r="50" spans="7:23" ht="15" customHeight="1">
-      <c r="G50" s="57"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="153"/>
-      <c r="M50" s="154"/>
-      <c r="N50" s="154"/>
-      <c r="O50" s="154"/>
-      <c r="P50" s="154"/>
-      <c r="Q50" s="154"/>
-      <c r="R50" s="154"/>
-      <c r="S50" s="154"/>
-      <c r="T50" s="154"/>
-      <c r="U50" s="154"/>
-      <c r="V50" s="154"/>
-      <c r="W50" s="155"/>
-    </row>
-    <row r="51" spans="7:23" ht="15" customHeight="1">
-      <c r="G51" s="57"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="153"/>
-      <c r="M51" s="154"/>
-      <c r="N51" s="154"/>
-      <c r="O51" s="154"/>
-      <c r="P51" s="154"/>
-      <c r="Q51" s="154"/>
-      <c r="R51" s="154"/>
-      <c r="S51" s="154"/>
-      <c r="T51" s="154"/>
-      <c r="U51" s="154"/>
-      <c r="V51" s="154"/>
-      <c r="W51" s="155"/>
-    </row>
-    <row r="52" spans="7:23" ht="15" customHeight="1">
-      <c r="G52" s="57"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="153"/>
-      <c r="M52" s="154"/>
-      <c r="N52" s="154"/>
-      <c r="O52" s="154"/>
-      <c r="P52" s="154"/>
-      <c r="Q52" s="154"/>
-      <c r="R52" s="154"/>
-      <c r="S52" s="154"/>
-      <c r="T52" s="154"/>
-      <c r="U52" s="154"/>
-      <c r="V52" s="154"/>
-      <c r="W52" s="155"/>
-    </row>
-    <row r="53" spans="7:23" ht="15" customHeight="1">
-      <c r="G53" s="57"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="153"/>
-      <c r="M53" s="154"/>
-      <c r="N53" s="154"/>
-      <c r="O53" s="154"/>
-      <c r="P53" s="154"/>
-      <c r="Q53" s="154"/>
-      <c r="R53" s="154"/>
-      <c r="S53" s="154"/>
-      <c r="T53" s="154"/>
-      <c r="U53" s="154"/>
-      <c r="V53" s="154"/>
-      <c r="W53" s="155"/>
-    </row>
-    <row r="54" spans="7:23" ht="15" customHeight="1" thickBot="1">
-      <c r="G54" s="58"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="156"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="157"/>
-      <c r="O54" s="157"/>
-      <c r="P54" s="157"/>
-      <c r="Q54" s="157"/>
-      <c r="R54" s="157"/>
-      <c r="S54" s="157"/>
-      <c r="T54" s="157"/>
-      <c r="U54" s="157"/>
-      <c r="V54" s="157"/>
-      <c r="W54" s="158"/>
-    </row>
-    <row r="55" spans="7:23" ht="15" customHeight="1">
-      <c r="H55" s="103" t="s">
+      <c r="K49" s="250"/>
+      <c r="L49" s="211"/>
+      <c r="M49" s="310"/>
+      <c r="N49" s="212"/>
+      <c r="O49" s="212"/>
+      <c r="P49" s="212"/>
+      <c r="Q49" s="212"/>
+      <c r="R49" s="212"/>
+      <c r="S49" s="212"/>
+      <c r="T49" s="212"/>
+      <c r="U49" s="212"/>
+      <c r="V49" s="212"/>
+      <c r="W49" s="212"/>
+      <c r="X49" s="213"/>
+    </row>
+    <row r="50" spans="7:24" ht="15" customHeight="1">
+      <c r="G50" s="233"/>
+      <c r="H50" s="265"/>
+      <c r="I50" s="266"/>
+      <c r="J50" s="251"/>
+      <c r="K50" s="252"/>
+      <c r="L50" s="161"/>
+      <c r="M50" s="311"/>
+      <c r="N50" s="162"/>
+      <c r="O50" s="162"/>
+      <c r="P50" s="162"/>
+      <c r="Q50" s="162"/>
+      <c r="R50" s="162"/>
+      <c r="S50" s="162"/>
+      <c r="T50" s="162"/>
+      <c r="U50" s="162"/>
+      <c r="V50" s="162"/>
+      <c r="W50" s="162"/>
+      <c r="X50" s="163"/>
+    </row>
+    <row r="51" spans="7:24" ht="15" customHeight="1">
+      <c r="G51" s="233"/>
+      <c r="H51" s="265"/>
+      <c r="I51" s="266"/>
+      <c r="J51" s="251"/>
+      <c r="K51" s="252"/>
+      <c r="L51" s="161"/>
+      <c r="M51" s="311"/>
+      <c r="N51" s="162"/>
+      <c r="O51" s="162"/>
+      <c r="P51" s="162"/>
+      <c r="Q51" s="162"/>
+      <c r="R51" s="162"/>
+      <c r="S51" s="162"/>
+      <c r="T51" s="162"/>
+      <c r="U51" s="162"/>
+      <c r="V51" s="162"/>
+      <c r="W51" s="162"/>
+      <c r="X51" s="163"/>
+    </row>
+    <row r="52" spans="7:24" ht="15" customHeight="1">
+      <c r="G52" s="233"/>
+      <c r="H52" s="265"/>
+      <c r="I52" s="266"/>
+      <c r="J52" s="251"/>
+      <c r="K52" s="252"/>
+      <c r="L52" s="161"/>
+      <c r="M52" s="311"/>
+      <c r="N52" s="162"/>
+      <c r="O52" s="162"/>
+      <c r="P52" s="162"/>
+      <c r="Q52" s="162"/>
+      <c r="R52" s="162"/>
+      <c r="S52" s="162"/>
+      <c r="T52" s="162"/>
+      <c r="U52" s="162"/>
+      <c r="V52" s="162"/>
+      <c r="W52" s="162"/>
+      <c r="X52" s="163"/>
+    </row>
+    <row r="53" spans="7:24" ht="15" customHeight="1">
+      <c r="G53" s="233"/>
+      <c r="H53" s="265"/>
+      <c r="I53" s="266"/>
+      <c r="J53" s="251"/>
+      <c r="K53" s="252"/>
+      <c r="L53" s="161"/>
+      <c r="M53" s="311"/>
+      <c r="N53" s="162"/>
+      <c r="O53" s="162"/>
+      <c r="P53" s="162"/>
+      <c r="Q53" s="162"/>
+      <c r="R53" s="162"/>
+      <c r="S53" s="162"/>
+      <c r="T53" s="162"/>
+      <c r="U53" s="162"/>
+      <c r="V53" s="162"/>
+      <c r="W53" s="162"/>
+      <c r="X53" s="163"/>
+    </row>
+    <row r="54" spans="7:24" ht="15" customHeight="1" thickBot="1">
+      <c r="G54" s="234"/>
+      <c r="H54" s="265"/>
+      <c r="I54" s="266"/>
+      <c r="J54" s="251"/>
+      <c r="K54" s="252"/>
+      <c r="L54" s="208"/>
+      <c r="M54" s="312"/>
+      <c r="N54" s="209"/>
+      <c r="O54" s="209"/>
+      <c r="P54" s="209"/>
+      <c r="Q54" s="209"/>
+      <c r="R54" s="209"/>
+      <c r="S54" s="209"/>
+      <c r="T54" s="209"/>
+      <c r="U54" s="209"/>
+      <c r="V54" s="209"/>
+      <c r="W54" s="209"/>
+      <c r="X54" s="210"/>
+    </row>
+    <row r="55" spans="7:24" ht="15" customHeight="1">
+      <c r="H55" s="279" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="104"/>
-      <c r="J55" s="104"/>
-      <c r="K55" s="115" t="s">
+      <c r="I55" s="280"/>
+      <c r="J55" s="280"/>
+      <c r="K55" s="291" t="s">
         <v>44</v>
       </c>
-      <c r="L55" s="115"/>
-      <c r="M55" s="115"/>
-      <c r="N55" s="115"/>
-      <c r="O55" s="115"/>
-      <c r="P55" s="115"/>
-      <c r="Q55" s="115"/>
-      <c r="R55" s="115"/>
-      <c r="S55" s="115"/>
-      <c r="T55" s="115"/>
-      <c r="U55" s="115"/>
-      <c r="V55" s="115"/>
-      <c r="W55" s="116"/>
-    </row>
-    <row r="56" spans="7:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H56" s="105"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="117"/>
-      <c r="L56" s="117"/>
-      <c r="M56" s="117"/>
-      <c r="N56" s="117"/>
-      <c r="O56" s="117"/>
-      <c r="P56" s="117"/>
-      <c r="Q56" s="117"/>
-      <c r="R56" s="117"/>
-      <c r="S56" s="117"/>
-      <c r="T56" s="117"/>
-      <c r="U56" s="117"/>
-      <c r="V56" s="117"/>
-      <c r="W56" s="118"/>
-    </row>
-    <row r="57" spans="7:23" ht="15" customHeight="1">
-      <c r="G57" s="53" t="s">
+      <c r="L55" s="291"/>
+      <c r="M55" s="291"/>
+      <c r="N55" s="291"/>
+      <c r="O55" s="291"/>
+      <c r="P55" s="291"/>
+      <c r="Q55" s="291"/>
+      <c r="R55" s="291"/>
+      <c r="S55" s="291"/>
+      <c r="T55" s="291"/>
+      <c r="U55" s="291"/>
+      <c r="V55" s="291"/>
+      <c r="W55" s="291"/>
+      <c r="X55" s="292"/>
+    </row>
+    <row r="56" spans="7:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H56" s="281"/>
+      <c r="I56" s="282"/>
+      <c r="J56" s="282"/>
+      <c r="K56" s="293"/>
+      <c r="L56" s="293"/>
+      <c r="M56" s="293"/>
+      <c r="N56" s="293"/>
+      <c r="O56" s="293"/>
+      <c r="P56" s="293"/>
+      <c r="Q56" s="293"/>
+      <c r="R56" s="293"/>
+      <c r="S56" s="293"/>
+      <c r="T56" s="293"/>
+      <c r="U56" s="293"/>
+      <c r="V56" s="293"/>
+      <c r="W56" s="293"/>
+      <c r="X56" s="294"/>
+    </row>
+    <row r="57" spans="7:24" ht="15" customHeight="1">
+      <c r="G57" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="H57" s="91" t="s">
+      <c r="H57" s="267" t="s">
         <v>39</v>
       </c>
-      <c r="I57" s="92"/>
-      <c r="J57" s="77" t="s">
+      <c r="I57" s="268"/>
+      <c r="J57" s="253" t="s">
         <v>45</v>
       </c>
-      <c r="K57" s="78"/>
-      <c r="L57" s="144"/>
-      <c r="M57" s="145"/>
-      <c r="N57" s="145"/>
-      <c r="O57" s="145"/>
-      <c r="P57" s="145"/>
-      <c r="Q57" s="145"/>
-      <c r="R57" s="145"/>
-      <c r="S57" s="145"/>
-      <c r="T57" s="145"/>
-      <c r="U57" s="145"/>
-      <c r="V57" s="145"/>
-      <c r="W57" s="146"/>
-    </row>
-    <row r="58" spans="7:23" ht="15" customHeight="1">
-      <c r="G58" s="54"/>
-      <c r="H58" s="93"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="147"/>
-      <c r="M58" s="148"/>
-      <c r="N58" s="148"/>
-      <c r="O58" s="148"/>
-      <c r="P58" s="148"/>
-      <c r="Q58" s="148"/>
-      <c r="R58" s="148"/>
-      <c r="S58" s="148"/>
-      <c r="T58" s="148"/>
-      <c r="U58" s="148"/>
-      <c r="V58" s="148"/>
-      <c r="W58" s="149"/>
-    </row>
-    <row r="59" spans="7:23" ht="15" customHeight="1">
-      <c r="G59" s="54"/>
-      <c r="H59" s="93"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="147"/>
-      <c r="M59" s="148"/>
-      <c r="N59" s="148"/>
-      <c r="O59" s="148"/>
-      <c r="P59" s="148"/>
-      <c r="Q59" s="148"/>
-      <c r="R59" s="148"/>
-      <c r="S59" s="148"/>
-      <c r="T59" s="148"/>
-      <c r="U59" s="148"/>
-      <c r="V59" s="148"/>
-      <c r="W59" s="149"/>
-    </row>
-    <row r="60" spans="7:23" ht="15" customHeight="1">
-      <c r="G60" s="54"/>
-      <c r="H60" s="93"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="147"/>
-      <c r="M60" s="148"/>
-      <c r="N60" s="148"/>
-      <c r="O60" s="148"/>
-      <c r="P60" s="148"/>
-      <c r="Q60" s="148"/>
-      <c r="R60" s="148"/>
-      <c r="S60" s="148"/>
-      <c r="T60" s="148"/>
-      <c r="U60" s="148"/>
-      <c r="V60" s="148"/>
-      <c r="W60" s="149"/>
-    </row>
-    <row r="61" spans="7:23" ht="15" customHeight="1">
-      <c r="G61" s="54"/>
-      <c r="H61" s="93"/>
-      <c r="I61" s="94"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="147"/>
-      <c r="M61" s="148"/>
-      <c r="N61" s="148"/>
-      <c r="O61" s="148"/>
-      <c r="P61" s="148"/>
-      <c r="Q61" s="148"/>
-      <c r="R61" s="148"/>
-      <c r="S61" s="148"/>
-      <c r="T61" s="148"/>
-      <c r="U61" s="148"/>
-      <c r="V61" s="148"/>
-      <c r="W61" s="149"/>
-    </row>
-    <row r="62" spans="7:23" ht="15" customHeight="1" thickBot="1">
-      <c r="G62" s="55"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="94"/>
-      <c r="J62" s="81"/>
-      <c r="K62" s="82"/>
-      <c r="L62" s="119"/>
-      <c r="M62" s="120"/>
-      <c r="N62" s="120"/>
-      <c r="O62" s="120"/>
-      <c r="P62" s="120"/>
-      <c r="Q62" s="120"/>
-      <c r="R62" s="120"/>
-      <c r="S62" s="120"/>
-      <c r="T62" s="120"/>
-      <c r="U62" s="120"/>
-      <c r="V62" s="120"/>
-      <c r="W62" s="121"/>
-    </row>
-    <row r="63" spans="7:23" ht="15" customHeight="1">
-      <c r="H63" s="122" t="s">
+      <c r="K57" s="254"/>
+      <c r="L57" s="199"/>
+      <c r="M57" s="313"/>
+      <c r="N57" s="200"/>
+      <c r="O57" s="200"/>
+      <c r="P57" s="200"/>
+      <c r="Q57" s="200"/>
+      <c r="R57" s="200"/>
+      <c r="S57" s="200"/>
+      <c r="T57" s="200"/>
+      <c r="U57" s="200"/>
+      <c r="V57" s="200"/>
+      <c r="W57" s="200"/>
+      <c r="X57" s="201"/>
+    </row>
+    <row r="58" spans="7:24" ht="15" customHeight="1">
+      <c r="G58" s="230"/>
+      <c r="H58" s="269"/>
+      <c r="I58" s="270"/>
+      <c r="J58" s="255"/>
+      <c r="K58" s="256"/>
+      <c r="L58" s="202"/>
+      <c r="M58" s="314"/>
+      <c r="N58" s="203"/>
+      <c r="O58" s="203"/>
+      <c r="P58" s="203"/>
+      <c r="Q58" s="203"/>
+      <c r="R58" s="203"/>
+      <c r="S58" s="203"/>
+      <c r="T58" s="203"/>
+      <c r="U58" s="203"/>
+      <c r="V58" s="203"/>
+      <c r="W58" s="203"/>
+      <c r="X58" s="204"/>
+    </row>
+    <row r="59" spans="7:24" ht="15" customHeight="1">
+      <c r="G59" s="230"/>
+      <c r="H59" s="269"/>
+      <c r="I59" s="270"/>
+      <c r="J59" s="255"/>
+      <c r="K59" s="256"/>
+      <c r="L59" s="202"/>
+      <c r="M59" s="314"/>
+      <c r="N59" s="203"/>
+      <c r="O59" s="203"/>
+      <c r="P59" s="203"/>
+      <c r="Q59" s="203"/>
+      <c r="R59" s="203"/>
+      <c r="S59" s="203"/>
+      <c r="T59" s="203"/>
+      <c r="U59" s="203"/>
+      <c r="V59" s="203"/>
+      <c r="W59" s="203"/>
+      <c r="X59" s="204"/>
+    </row>
+    <row r="60" spans="7:24" ht="15" customHeight="1">
+      <c r="G60" s="230"/>
+      <c r="H60" s="269"/>
+      <c r="I60" s="270"/>
+      <c r="J60" s="255"/>
+      <c r="K60" s="256"/>
+      <c r="L60" s="202"/>
+      <c r="M60" s="314"/>
+      <c r="N60" s="203"/>
+      <c r="O60" s="203"/>
+      <c r="P60" s="203"/>
+      <c r="Q60" s="203"/>
+      <c r="R60" s="203"/>
+      <c r="S60" s="203"/>
+      <c r="T60" s="203"/>
+      <c r="U60" s="203"/>
+      <c r="V60" s="203"/>
+      <c r="W60" s="203"/>
+      <c r="X60" s="204"/>
+    </row>
+    <row r="61" spans="7:24" ht="15" customHeight="1">
+      <c r="G61" s="230"/>
+      <c r="H61" s="269"/>
+      <c r="I61" s="270"/>
+      <c r="J61" s="255"/>
+      <c r="K61" s="256"/>
+      <c r="L61" s="202"/>
+      <c r="M61" s="314"/>
+      <c r="N61" s="203"/>
+      <c r="O61" s="203"/>
+      <c r="P61" s="203"/>
+      <c r="Q61" s="203"/>
+      <c r="R61" s="203"/>
+      <c r="S61" s="203"/>
+      <c r="T61" s="203"/>
+      <c r="U61" s="203"/>
+      <c r="V61" s="203"/>
+      <c r="W61" s="203"/>
+      <c r="X61" s="204"/>
+    </row>
+    <row r="62" spans="7:24" ht="15" customHeight="1" thickBot="1">
+      <c r="G62" s="231"/>
+      <c r="H62" s="269"/>
+      <c r="I62" s="270"/>
+      <c r="J62" s="257"/>
+      <c r="K62" s="258"/>
+      <c r="L62" s="182"/>
+      <c r="M62" s="315"/>
+      <c r="N62" s="183"/>
+      <c r="O62" s="183"/>
+      <c r="P62" s="183"/>
+      <c r="Q62" s="183"/>
+      <c r="R62" s="183"/>
+      <c r="S62" s="183"/>
+      <c r="T62" s="183"/>
+      <c r="U62" s="183"/>
+      <c r="V62" s="183"/>
+      <c r="W62" s="183"/>
+      <c r="X62" s="184"/>
+    </row>
+    <row r="63" spans="7:24" ht="15" customHeight="1">
+      <c r="H63" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="123"/>
-      <c r="J63" s="123"/>
-      <c r="K63" s="46" t="s">
+      <c r="I63" s="186"/>
+      <c r="J63" s="186"/>
+      <c r="K63" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="46"/>
-      <c r="R63" s="46"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="46"/>
-      <c r="V63" s="46"/>
-      <c r="W63" s="47"/>
-    </row>
-    <row r="64" spans="7:23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H64" s="124"/>
-      <c r="I64" s="125"/>
-      <c r="J64" s="125"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="49"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="49"/>
-      <c r="U64" s="49"/>
-      <c r="V64" s="49"/>
-      <c r="W64" s="50"/>
-    </row>
-    <row r="65" spans="11:23">
-      <c r="K65" s="45" t="s">
+      <c r="L63" s="189"/>
+      <c r="M63" s="189"/>
+      <c r="N63" s="189"/>
+      <c r="O63" s="189"/>
+      <c r="P63" s="189"/>
+      <c r="Q63" s="189"/>
+      <c r="R63" s="189"/>
+      <c r="S63" s="189"/>
+      <c r="T63" s="189"/>
+      <c r="U63" s="189"/>
+      <c r="V63" s="189"/>
+      <c r="W63" s="189"/>
+      <c r="X63" s="190"/>
+    </row>
+    <row r="64" spans="7:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="H64" s="187"/>
+      <c r="I64" s="188"/>
+      <c r="J64" s="188"/>
+      <c r="K64" s="191"/>
+      <c r="L64" s="191"/>
+      <c r="M64" s="191"/>
+      <c r="N64" s="191"/>
+      <c r="O64" s="191"/>
+      <c r="P64" s="191"/>
+      <c r="Q64" s="191"/>
+      <c r="R64" s="191"/>
+      <c r="S64" s="191"/>
+      <c r="T64" s="191"/>
+      <c r="U64" s="191"/>
+      <c r="V64" s="191"/>
+      <c r="W64" s="191"/>
+      <c r="X64" s="192"/>
+    </row>
+    <row r="65" spans="11:24">
+      <c r="K65" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="46"/>
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
-      <c r="Q65" s="46"/>
-      <c r="R65" s="46"/>
-      <c r="S65" s="46"/>
-      <c r="T65" s="46"/>
-      <c r="U65" s="46"/>
-      <c r="V65" s="46"/>
-      <c r="W65" s="47"/>
-    </row>
-    <row r="66" spans="11:23" ht="15.75" thickBot="1">
-      <c r="K66" s="48"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="49"/>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="49"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="49"/>
-      <c r="T66" s="49"/>
-      <c r="U66" s="49"/>
-      <c r="V66" s="49"/>
-      <c r="W66" s="50"/>
+      <c r="L65" s="189"/>
+      <c r="M65" s="189"/>
+      <c r="N65" s="189"/>
+      <c r="O65" s="189"/>
+      <c r="P65" s="189"/>
+      <c r="Q65" s="189"/>
+      <c r="R65" s="189"/>
+      <c r="S65" s="189"/>
+      <c r="T65" s="189"/>
+      <c r="U65" s="189"/>
+      <c r="V65" s="189"/>
+      <c r="W65" s="189"/>
+      <c r="X65" s="190"/>
+    </row>
+    <row r="66" spans="11:24" ht="15.75" thickBot="1">
+      <c r="K66" s="226"/>
+      <c r="L66" s="191"/>
+      <c r="M66" s="191"/>
+      <c r="N66" s="191"/>
+      <c r="O66" s="191"/>
+      <c r="P66" s="191"/>
+      <c r="Q66" s="191"/>
+      <c r="R66" s="191"/>
+      <c r="S66" s="191"/>
+      <c r="T66" s="191"/>
+      <c r="U66" s="191"/>
+      <c r="V66" s="191"/>
+      <c r="W66" s="191"/>
+      <c r="X66" s="192"/>
     </row>
   </sheetData>
-  <mergeCells count="126">
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H24:H29"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="J28:W29"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="R20:S21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="P20:Q21"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="K2:M3"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="L22:S23"/>
-    <mergeCell ref="K5:V5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="K7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="L50:W50"/>
-    <mergeCell ref="L51:W51"/>
-    <mergeCell ref="L42:W42"/>
-    <mergeCell ref="L43:W43"/>
-    <mergeCell ref="L44:W44"/>
-    <mergeCell ref="L45:W45"/>
-    <mergeCell ref="L46:W46"/>
-    <mergeCell ref="J31:W32"/>
-    <mergeCell ref="L33:W33"/>
-    <mergeCell ref="L34:W34"/>
-    <mergeCell ref="L35:W35"/>
-    <mergeCell ref="L36:W36"/>
-    <mergeCell ref="L62:W62"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="K63:W64"/>
-    <mergeCell ref="L37:W37"/>
-    <mergeCell ref="L38:W38"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L57:W57"/>
-    <mergeCell ref="L58:W58"/>
-    <mergeCell ref="L59:W59"/>
-    <mergeCell ref="L60:W60"/>
-    <mergeCell ref="L61:W61"/>
-    <mergeCell ref="L41:W41"/>
-    <mergeCell ref="L52:W52"/>
-    <mergeCell ref="L53:W53"/>
-    <mergeCell ref="L54:W54"/>
-    <mergeCell ref="L49:W49"/>
+  <mergeCells count="125">
     <mergeCell ref="B19:C20"/>
     <mergeCell ref="E19:G20"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K65:W66"/>
+    <mergeCell ref="K65:X66"/>
     <mergeCell ref="G33:G38"/>
     <mergeCell ref="G57:G62"/>
     <mergeCell ref="G49:G54"/>
@@ -4453,9 +4570,110 @@
     <mergeCell ref="H39:J40"/>
     <mergeCell ref="H47:J48"/>
     <mergeCell ref="H55:J56"/>
-    <mergeCell ref="K39:W40"/>
-    <mergeCell ref="K47:W48"/>
-    <mergeCell ref="K55:W56"/>
+    <mergeCell ref="K39:X40"/>
+    <mergeCell ref="K47:X48"/>
+    <mergeCell ref="K55:X56"/>
+    <mergeCell ref="L62:X62"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="K63:X64"/>
+    <mergeCell ref="L37:X37"/>
+    <mergeCell ref="L38:X38"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="L57:X57"/>
+    <mergeCell ref="L58:X58"/>
+    <mergeCell ref="L59:X59"/>
+    <mergeCell ref="L60:X60"/>
+    <mergeCell ref="L61:X61"/>
+    <mergeCell ref="L41:X41"/>
+    <mergeCell ref="L52:X52"/>
+    <mergeCell ref="L53:X53"/>
+    <mergeCell ref="L54:X54"/>
+    <mergeCell ref="L49:X49"/>
+    <mergeCell ref="L50:X50"/>
+    <mergeCell ref="L51:X51"/>
+    <mergeCell ref="L42:X42"/>
+    <mergeCell ref="L43:X43"/>
+    <mergeCell ref="L44:X44"/>
+    <mergeCell ref="L45:X45"/>
+    <mergeCell ref="L46:X46"/>
+    <mergeCell ref="J31:X32"/>
+    <mergeCell ref="L33:X33"/>
+    <mergeCell ref="L34:X34"/>
+    <mergeCell ref="L35:X35"/>
+    <mergeCell ref="L36:X36"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="J28:X29"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="S20:T21"/>
+    <mergeCell ref="L20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="K2:N3"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="L22:T23"/>
+    <mergeCell ref="K5:W5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="K7:L10"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="N15:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Metodos ( relaciones con la tabla ).xlsx
+++ b/Metodos ( relaciones con la tabla ).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>Dni</t>
   </si>
@@ -622,6 +622,69 @@
   </si>
   <si>
     <t>hacer pruebas</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Equipos</t>
+  </si>
+  <si>
+    <t>Miembros</t>
+  </si>
+  <si>
+    <t>Tareas</t>
+  </si>
+  <si>
+    <t>VIAJE</t>
+  </si>
+  <si>
+    <t>Equipo 1  / id 6</t>
+  </si>
+  <si>
+    <t>Equipo 7  / id 5</t>
+  </si>
+  <si>
+    <t>Equipo 85  / id 14</t>
+  </si>
+  <si>
+    <t>Equipo 2 /  id 2</t>
+  </si>
+  <si>
+    <t>Matias / id 17</t>
+  </si>
+  <si>
+    <t>Martina  / id 18</t>
+  </si>
+  <si>
+    <t>Susanita  / id 13</t>
+  </si>
+  <si>
+    <t>Lautaro / id 27</t>
+  </si>
+  <si>
+    <t>Pepe  / id 26</t>
+  </si>
+  <si>
+    <t>Marquitos  / id 25</t>
+  </si>
+  <si>
+    <t>Pepe / id 23</t>
+  </si>
+  <si>
+    <t>Florencia   / id 16</t>
+  </si>
+  <si>
+    <t>Es la Jefa</t>
+  </si>
+  <si>
+    <t>Contar Chistes</t>
+  </si>
+  <si>
+    <t>Crear Clases</t>
+  </si>
+  <si>
+    <t>ayudante</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1708,22 +1771,841 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
@@ -1742,845 +2624,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2876,10 +2984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X66"/>
+  <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:X25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2920,30 +3028,30 @@
       <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="285" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="110" t="s">
+      <c r="C2" s="286"/>
+      <c r="D2" s="289" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="111"/>
+      <c r="E2" s="290"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="99" t="s">
+      <c r="K2" s="277" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="101"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="279"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="237" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="239"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
@@ -2955,22 +3063,22 @@
       <c r="A3" s="15">
         <v>6</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
+      <c r="B3" s="287"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="292"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="104"/>
+      <c r="K3" s="280"/>
+      <c r="L3" s="281"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="282"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="66"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="241"/>
+      <c r="R3" s="242"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
@@ -3012,21 +3120,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="127" t="s">
+      <c r="K5" s="306" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="130"/>
+      <c r="L5" s="307"/>
+      <c r="M5" s="307"/>
+      <c r="N5" s="307"/>
+      <c r="O5" s="308"/>
+      <c r="P5" s="308"/>
+      <c r="Q5" s="308"/>
+      <c r="R5" s="308"/>
+      <c r="S5" s="308"/>
+      <c r="T5" s="308"/>
+      <c r="U5" s="308"/>
+      <c r="V5" s="308"/>
+      <c r="W5" s="309"/>
       <c r="X5" s="7"/>
     </row>
     <row r="6" spans="1:24" ht="24" thickBot="1">
@@ -3041,28 +3149,28 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="131" t="s">
+      <c r="K6" s="310" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="132"/>
-      <c r="M6" s="298" t="s">
+      <c r="L6" s="311"/>
+      <c r="M6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="329" t="s">
+      <c r="N6" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="321" t="s">
+      <c r="O6" s="283" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="57" t="s">
+      <c r="P6" s="284"/>
+      <c r="Q6" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="58"/>
-      <c r="S6" s="55" t="s">
+      <c r="R6" s="234"/>
+      <c r="S6" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="56"/>
+      <c r="T6" s="232"/>
       <c r="U6" s="36" t="s">
         <v>2</v>
       </c>
@@ -3084,28 +3192,28 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="135" t="s">
+      <c r="K7" s="316" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="136"/>
-      <c r="M7" s="316">
+      <c r="L7" s="317"/>
+      <c r="M7" s="205">
         <v>1</v>
       </c>
-      <c r="N7" s="329">
+      <c r="N7" s="45">
         <v>2</v>
       </c>
-      <c r="O7" s="322">
+      <c r="O7" s="151">
         <v>2</v>
       </c>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="97">
+      <c r="P7" s="152"/>
+      <c r="Q7" s="275">
         <v>13</v>
       </c>
-      <c r="R7" s="98"/>
-      <c r="S7" s="133">
+      <c r="R7" s="276"/>
+      <c r="S7" s="314">
         <v>1</v>
       </c>
-      <c r="T7" s="134"/>
+      <c r="T7" s="315"/>
       <c r="U7" s="35" t="s">
         <v>32</v>
       </c>
@@ -3127,16 +3235,16 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="316"/>
-      <c r="N8" s="329"/>
-      <c r="O8" s="323"/>
-      <c r="P8" s="196"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="150"/>
-      <c r="T8" s="151"/>
+      <c r="K8" s="316"/>
+      <c r="L8" s="317"/>
+      <c r="M8" s="205"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="153"/>
+      <c r="P8" s="154"/>
+      <c r="Q8" s="216"/>
+      <c r="R8" s="217"/>
+      <c r="S8" s="222"/>
+      <c r="T8" s="223"/>
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
       <c r="W8" s="31"/>
@@ -3166,16 +3274,16 @@
       </c>
       <c r="H9" s="7"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="316"/>
-      <c r="N9" s="329"/>
-      <c r="O9" s="323"/>
-      <c r="P9" s="196"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="145"/>
-      <c r="S9" s="150"/>
-      <c r="T9" s="151"/>
+      <c r="K9" s="316"/>
+      <c r="L9" s="317"/>
+      <c r="M9" s="205"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="216"/>
+      <c r="R9" s="217"/>
+      <c r="S9" s="222"/>
+      <c r="T9" s="223"/>
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
       <c r="W9" s="31"/>
@@ -3205,16 +3313,16 @@
       </c>
       <c r="H10" s="7"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="317"/>
-      <c r="N10" s="329"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="146"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="153"/>
+      <c r="K10" s="298"/>
+      <c r="L10" s="299"/>
+      <c r="M10" s="206"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="155"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="218"/>
+      <c r="R10" s="219"/>
+      <c r="S10" s="224"/>
+      <c r="T10" s="225"/>
       <c r="U10" s="32"/>
       <c r="V10" s="32"/>
       <c r="W10" s="33"/>
@@ -3244,28 +3352,28 @@
       </c>
       <c r="H11" s="7"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="138" t="s">
+      <c r="K11" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="139"/>
-      <c r="M11" s="318">
+      <c r="L11" s="210"/>
+      <c r="M11" s="207">
         <v>1</v>
       </c>
-      <c r="N11" s="329">
+      <c r="N11" s="45">
         <v>4</v>
       </c>
-      <c r="O11" s="324">
+      <c r="O11" s="157">
         <v>6</v>
       </c>
-      <c r="P11" s="197"/>
-      <c r="Q11" s="148">
+      <c r="P11" s="158"/>
+      <c r="Q11" s="220">
         <v>17</v>
       </c>
-      <c r="R11" s="149"/>
-      <c r="S11" s="154">
+      <c r="R11" s="221"/>
+      <c r="S11" s="226">
         <v>5</v>
       </c>
-      <c r="T11" s="155"/>
+      <c r="T11" s="227"/>
       <c r="U11" s="28" t="s">
         <v>7</v>
       </c>
@@ -3287,16 +3395,16 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="319"/>
-      <c r="N12" s="329"/>
-      <c r="O12" s="323"/>
-      <c r="P12" s="196"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="142"/>
-      <c r="T12" s="143"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="208"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="216"/>
+      <c r="R12" s="217"/>
+      <c r="S12" s="213"/>
+      <c r="T12" s="155"/>
       <c r="U12" s="30"/>
       <c r="V12" s="30"/>
       <c r="W12" s="31"/>
@@ -3304,38 +3412,38 @@
     </row>
     <row r="13" spans="1:24" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="293" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="116"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="295"/>
       <c r="G13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="7"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="117" t="s">
+      <c r="K13" s="296" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="118"/>
-      <c r="M13" s="320">
+      <c r="L13" s="297"/>
+      <c r="M13" s="228">
         <v>1</v>
       </c>
-      <c r="N13" s="329">
+      <c r="N13" s="45">
         <v>5</v>
       </c>
-      <c r="O13" s="323"/>
-      <c r="P13" s="196"/>
-      <c r="Q13" s="144">
+      <c r="O13" s="153"/>
+      <c r="P13" s="154"/>
+      <c r="Q13" s="216">
         <v>18</v>
       </c>
-      <c r="R13" s="145"/>
-      <c r="S13" s="142">
+      <c r="R13" s="217"/>
+      <c r="S13" s="213">
         <v>6</v>
       </c>
-      <c r="T13" s="143"/>
+      <c r="T13" s="155"/>
       <c r="U13" s="30" t="s">
         <v>8</v>
       </c>
@@ -3348,10 +3456,10 @@
       <c r="X13" s="7"/>
     </row>
     <row r="14" spans="1:24" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="60"/>
+      <c r="B14" s="236"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3359,18 +3467,18 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="317"/>
-      <c r="N14" s="329">
+      <c r="K14" s="298"/>
+      <c r="L14" s="299"/>
+      <c r="M14" s="206"/>
+      <c r="N14" s="45">
         <v>8</v>
       </c>
-      <c r="O14" s="325"/>
-      <c r="P14" s="198"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="157"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="42"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="229"/>
+      <c r="R14" s="230"/>
+      <c r="S14" s="214"/>
+      <c r="T14" s="215"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
       <c r="W14" s="26"/>
@@ -3386,18 +3494,18 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="73" t="s">
+      <c r="K15" s="249" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="74"/>
+      <c r="L15" s="250"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="330"/>
-      <c r="O15" s="326"/>
-      <c r="P15" s="295"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="52"/>
+      <c r="N15" s="332"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="318"/>
+      <c r="R15" s="319"/>
+      <c r="S15" s="324"/>
+      <c r="T15" s="325"/>
       <c r="U15" s="23"/>
       <c r="V15" s="23"/>
       <c r="W15" s="27"/>
@@ -3413,16 +3521,16 @@
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="299"/>
-      <c r="N16" s="330"/>
-      <c r="O16" s="327"/>
-      <c r="P16" s="296"/>
-      <c r="Q16" s="158"/>
-      <c r="R16" s="159"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="54"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="252"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="332"/>
+      <c r="O16" s="328"/>
+      <c r="P16" s="329"/>
+      <c r="Q16" s="326"/>
+      <c r="R16" s="327"/>
+      <c r="S16" s="312"/>
+      <c r="T16" s="313"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="24"/>
@@ -3430,24 +3538,24 @@
     </row>
     <row r="17" spans="1:24" ht="20.25" customHeight="1" thickBot="1">
       <c r="J17" s="5"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="300"/>
-      <c r="N17" s="331">
+      <c r="K17" s="253"/>
+      <c r="L17" s="254"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="46">
         <v>7</v>
       </c>
-      <c r="O17" s="327">
+      <c r="O17" s="328">
         <v>5</v>
       </c>
-      <c r="P17" s="296"/>
-      <c r="Q17" s="158">
+      <c r="P17" s="329"/>
+      <c r="Q17" s="326">
         <v>23</v>
       </c>
-      <c r="R17" s="159"/>
-      <c r="S17" s="53">
+      <c r="R17" s="327"/>
+      <c r="S17" s="312">
         <v>13</v>
       </c>
-      <c r="T17" s="54"/>
+      <c r="T17" s="313"/>
       <c r="U17" s="11" t="s">
         <v>67</v>
       </c>
@@ -3467,22 +3575,22 @@
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="301"/>
-      <c r="N18" s="332"/>
-      <c r="O18" s="328">
+      <c r="K18" s="255"/>
+      <c r="L18" s="256"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="330">
         <v>5</v>
       </c>
-      <c r="P18" s="297"/>
-      <c r="Q18" s="156">
+      <c r="P18" s="331"/>
+      <c r="Q18" s="229">
         <v>16</v>
       </c>
-      <c r="R18" s="157"/>
-      <c r="S18" s="41">
+      <c r="R18" s="230"/>
+      <c r="S18" s="214">
         <v>4</v>
       </c>
-      <c r="T18" s="42"/>
+      <c r="T18" s="215"/>
       <c r="U18" s="25" t="s">
         <v>65</v>
       </c>
@@ -3494,16 +3602,16 @@
     </row>
     <row r="19" spans="1:24" ht="29.25" customHeight="1" thickBot="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="214" t="s">
+      <c r="B19" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="215"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="218" t="s">
+      <c r="E19" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="219"/>
-      <c r="G19" s="220"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="7"/>
       <c r="J19" s="5"/>
       <c r="K19" s="6"/>
@@ -3523,32 +3631,32 @@
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="216"/>
-      <c r="C20" s="217"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="221"/>
-      <c r="F20" s="222"/>
-      <c r="G20" s="223"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="7"/>
       <c r="J20" s="5"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="85" t="s">
+      <c r="L20" s="261" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="302"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="89" t="s">
+      <c r="M20" s="262"/>
+      <c r="N20" s="263"/>
+      <c r="O20" s="267" t="s">
         <v>28</v>
       </c>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="93" t="s">
+      <c r="P20" s="268"/>
+      <c r="Q20" s="271" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="94"/>
-      <c r="S20" s="81" t="s">
+      <c r="R20" s="272"/>
+      <c r="S20" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="T20" s="82"/>
+      <c r="T20" s="258"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
@@ -3565,15 +3673,15 @@
       <c r="H21" s="7"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="303"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="84"/>
+      <c r="L21" s="264"/>
+      <c r="M21" s="265"/>
+      <c r="N21" s="266"/>
+      <c r="O21" s="269"/>
+      <c r="P21" s="270"/>
+      <c r="Q21" s="273"/>
+      <c r="R21" s="274"/>
+      <c r="S21" s="259"/>
+      <c r="T21" s="260"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -3589,17 +3697,17 @@
       <c r="G22" s="6"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="121" t="s">
+      <c r="L22" s="300" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="122"/>
-      <c r="T22" s="123"/>
+      <c r="M22" s="301"/>
+      <c r="N22" s="301"/>
+      <c r="O22" s="301"/>
+      <c r="P22" s="301"/>
+      <c r="Q22" s="301"/>
+      <c r="R22" s="301"/>
+      <c r="S22" s="301"/>
+      <c r="T22" s="302"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
@@ -3612,14 +3720,14 @@
       <c r="B23" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="224" t="s">
+      <c r="C23" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="224"/>
-      <c r="E23" s="45" t="s">
+      <c r="D23" s="58"/>
+      <c r="E23" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="46"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="39" t="s">
         <v>57</v>
       </c>
@@ -3628,15 +3736,15 @@
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="126"/>
+      <c r="L23" s="303"/>
+      <c r="M23" s="304"/>
+      <c r="N23" s="304"/>
+      <c r="O23" s="304"/>
+      <c r="P23" s="304"/>
+      <c r="Q23" s="304"/>
+      <c r="R23" s="304"/>
+      <c r="S23" s="304"/>
+      <c r="T23" s="305"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
@@ -3645,12 +3753,12 @@
     <row r="24" spans="1:24">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="47"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="320"/>
       <c r="G24" s="38"/>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="321" t="s">
         <v>64</v>
       </c>
       <c r="J24" s="5"/>
@@ -3672,12 +3780,12 @@
     <row r="25" spans="1:24" ht="15.75" thickBot="1">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="47"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="320"/>
       <c r="G25" s="38"/>
-      <c r="H25" s="49"/>
+      <c r="H25" s="322"/>
       <c r="J25" s="8"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -3701,80 +3809,80 @@
       <c r="B26" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="224" t="s">
+      <c r="C26" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="224"/>
-      <c r="E26" s="45" t="s">
+      <c r="D26" s="58"/>
+      <c r="E26" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="320"/>
       <c r="G26" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="49"/>
+      <c r="H26" s="322"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="47"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="320"/>
       <c r="G27" s="38"/>
-      <c r="H27" s="49"/>
+      <c r="H27" s="322"/>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="47"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="320"/>
       <c r="G28" s="38"/>
-      <c r="H28" s="49"/>
-      <c r="J28" s="67" t="s">
+      <c r="H28" s="322"/>
+      <c r="J28" s="243" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="69"/>
+      <c r="K28" s="244"/>
+      <c r="L28" s="244"/>
+      <c r="M28" s="244"/>
+      <c r="N28" s="244"/>
+      <c r="O28" s="244"/>
+      <c r="P28" s="244"/>
+      <c r="Q28" s="244"/>
+      <c r="R28" s="244"/>
+      <c r="S28" s="244"/>
+      <c r="T28" s="244"/>
+      <c r="U28" s="244"/>
+      <c r="V28" s="244"/>
+      <c r="W28" s="244"/>
+      <c r="X28" s="245"/>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="47"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="320"/>
       <c r="G29" s="38"/>
-      <c r="H29" s="50"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="72"/>
+      <c r="H29" s="323"/>
+      <c r="J29" s="246"/>
+      <c r="K29" s="247"/>
+      <c r="L29" s="247"/>
+      <c r="M29" s="247"/>
+      <c r="N29" s="247"/>
+      <c r="O29" s="247"/>
+      <c r="P29" s="247"/>
+      <c r="Q29" s="247"/>
+      <c r="R29" s="247"/>
+      <c r="S29" s="247"/>
+      <c r="T29" s="247"/>
+      <c r="U29" s="247"/>
+      <c r="V29" s="247"/>
+      <c r="W29" s="247"/>
+      <c r="X29" s="248"/>
     </row>
     <row r="30" spans="1:24" ht="15.75" thickBot="1">
       <c r="A30" s="5"/>
@@ -3795,23 +3903,23 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="J31" s="170" t="s">
+      <c r="J31" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="171"/>
-      <c r="N31" s="171"/>
-      <c r="O31" s="171"/>
-      <c r="P31" s="171"/>
-      <c r="Q31" s="171"/>
-      <c r="R31" s="171"/>
-      <c r="S31" s="171"/>
-      <c r="T31" s="171"/>
-      <c r="U31" s="171"/>
-      <c r="V31" s="171"/>
-      <c r="W31" s="171"/>
-      <c r="X31" s="172"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="196"/>
+      <c r="M31" s="196"/>
+      <c r="N31" s="196"/>
+      <c r="O31" s="196"/>
+      <c r="P31" s="196"/>
+      <c r="Q31" s="196"/>
+      <c r="R31" s="196"/>
+      <c r="S31" s="196"/>
+      <c r="T31" s="196"/>
+      <c r="U31" s="196"/>
+      <c r="V31" s="196"/>
+      <c r="W31" s="196"/>
+      <c r="X31" s="197"/>
     </row>
     <row r="32" spans="1:24" ht="15.75" thickBot="1">
       <c r="A32" s="8"/>
@@ -3822,733 +3930,1074 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="10"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="174"/>
-      <c r="M32" s="174"/>
-      <c r="N32" s="174"/>
-      <c r="O32" s="174"/>
-      <c r="P32" s="174"/>
-      <c r="Q32" s="174"/>
-      <c r="R32" s="174"/>
-      <c r="S32" s="174"/>
-      <c r="T32" s="174"/>
-      <c r="U32" s="174"/>
-      <c r="V32" s="174"/>
-      <c r="W32" s="174"/>
-      <c r="X32" s="175"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="199"/>
+      <c r="L32" s="199"/>
+      <c r="M32" s="199"/>
+      <c r="N32" s="199"/>
+      <c r="O32" s="199"/>
+      <c r="P32" s="199"/>
+      <c r="Q32" s="199"/>
+      <c r="R32" s="199"/>
+      <c r="S32" s="199"/>
+      <c r="T32" s="199"/>
+      <c r="U32" s="199"/>
+      <c r="V32" s="199"/>
+      <c r="W32" s="199"/>
+      <c r="X32" s="200"/>
     </row>
     <row r="33" spans="2:24" ht="15" customHeight="1">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="G33" s="227" t="s">
+      <c r="G33" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="242" t="s">
+      <c r="H33" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="243"/>
-      <c r="J33" s="238" t="s">
+      <c r="I33" s="83"/>
+      <c r="J33" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="239"/>
-      <c r="L33" s="176"/>
-      <c r="M33" s="304"/>
-      <c r="N33" s="177"/>
-      <c r="O33" s="177"/>
-      <c r="P33" s="177"/>
-      <c r="Q33" s="177"/>
-      <c r="R33" s="177"/>
-      <c r="S33" s="177"/>
-      <c r="T33" s="177"/>
-      <c r="U33" s="177"/>
-      <c r="V33" s="177"/>
-      <c r="W33" s="177"/>
-      <c r="X33" s="178"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="201"/>
+      <c r="M33" s="202"/>
+      <c r="N33" s="203"/>
+      <c r="O33" s="203"/>
+      <c r="P33" s="203"/>
+      <c r="Q33" s="203"/>
+      <c r="R33" s="203"/>
+      <c r="S33" s="203"/>
+      <c r="T33" s="203"/>
+      <c r="U33" s="203"/>
+      <c r="V33" s="203"/>
+      <c r="W33" s="203"/>
+      <c r="X33" s="204"/>
     </row>
     <row r="34" spans="2:24" ht="15" customHeight="1">
-      <c r="G34" s="227"/>
-      <c r="H34" s="242"/>
-      <c r="I34" s="244"/>
-      <c r="J34" s="240"/>
-      <c r="K34" s="241"/>
-      <c r="L34" s="179"/>
-      <c r="M34" s="305"/>
-      <c r="N34" s="180"/>
-      <c r="O34" s="180"/>
-      <c r="P34" s="180"/>
-      <c r="Q34" s="180"/>
-      <c r="R34" s="180"/>
-      <c r="S34" s="180"/>
-      <c r="T34" s="180"/>
-      <c r="U34" s="180"/>
-      <c r="V34" s="180"/>
-      <c r="W34" s="180"/>
-      <c r="X34" s="181"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="145"/>
+      <c r="Q34" s="145"/>
+      <c r="R34" s="145"/>
+      <c r="S34" s="145"/>
+      <c r="T34" s="145"/>
+      <c r="U34" s="145"/>
+      <c r="V34" s="145"/>
+      <c r="W34" s="145"/>
+      <c r="X34" s="146"/>
     </row>
     <row r="35" spans="2:24" ht="15" customHeight="1">
-      <c r="G35" s="227"/>
-      <c r="H35" s="242"/>
-      <c r="I35" s="244"/>
-      <c r="J35" s="240"/>
-      <c r="K35" s="241"/>
-      <c r="L35" s="179"/>
-      <c r="M35" s="305"/>
-      <c r="N35" s="180"/>
-      <c r="O35" s="180"/>
-      <c r="P35" s="180"/>
-      <c r="Q35" s="180"/>
-      <c r="R35" s="180"/>
-      <c r="S35" s="180"/>
-      <c r="T35" s="180"/>
-      <c r="U35" s="180"/>
-      <c r="V35" s="180"/>
-      <c r="W35" s="180"/>
-      <c r="X35" s="181"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="144"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="145"/>
+      <c r="S35" s="145"/>
+      <c r="T35" s="145"/>
+      <c r="U35" s="145"/>
+      <c r="V35" s="145"/>
+      <c r="W35" s="145"/>
+      <c r="X35" s="146"/>
     </row>
     <row r="36" spans="2:24" ht="15" customHeight="1">
-      <c r="G36" s="227"/>
-      <c r="H36" s="242"/>
-      <c r="I36" s="244"/>
-      <c r="J36" s="240"/>
-      <c r="K36" s="241"/>
-      <c r="L36" s="179"/>
-      <c r="M36" s="305"/>
-      <c r="N36" s="180"/>
-      <c r="O36" s="180"/>
-      <c r="P36" s="180"/>
-      <c r="Q36" s="180"/>
-      <c r="R36" s="180"/>
-      <c r="S36" s="180"/>
-      <c r="T36" s="180"/>
-      <c r="U36" s="180"/>
-      <c r="V36" s="180"/>
-      <c r="W36" s="180"/>
-      <c r="X36" s="181"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="143"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="145"/>
+      <c r="O36" s="145"/>
+      <c r="P36" s="145"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="145"/>
+      <c r="S36" s="145"/>
+      <c r="T36" s="145"/>
+      <c r="U36" s="145"/>
+      <c r="V36" s="145"/>
+      <c r="W36" s="145"/>
+      <c r="X36" s="146"/>
     </row>
     <row r="37" spans="2:24" ht="15" customHeight="1">
-      <c r="G37" s="227"/>
-      <c r="H37" s="242"/>
-      <c r="I37" s="244"/>
-      <c r="J37" s="240"/>
-      <c r="K37" s="241"/>
-      <c r="L37" s="179"/>
-      <c r="M37" s="305"/>
-      <c r="N37" s="180"/>
-      <c r="O37" s="180"/>
-      <c r="P37" s="180"/>
-      <c r="Q37" s="180"/>
-      <c r="R37" s="180"/>
-      <c r="S37" s="180"/>
-      <c r="T37" s="180"/>
-      <c r="U37" s="180"/>
-      <c r="V37" s="180"/>
-      <c r="W37" s="180"/>
-      <c r="X37" s="181"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="143"/>
+      <c r="M37" s="144"/>
+      <c r="N37" s="145"/>
+      <c r="O37" s="145"/>
+      <c r="P37" s="145"/>
+      <c r="Q37" s="145"/>
+      <c r="R37" s="145"/>
+      <c r="S37" s="145"/>
+      <c r="T37" s="145"/>
+      <c r="U37" s="145"/>
+      <c r="V37" s="145"/>
+      <c r="W37" s="145"/>
+      <c r="X37" s="146"/>
     </row>
     <row r="38" spans="2:24" ht="15" customHeight="1" thickBot="1">
-      <c r="G38" s="228"/>
-      <c r="H38" s="242"/>
-      <c r="I38" s="244"/>
-      <c r="J38" s="240"/>
-      <c r="K38" s="241"/>
-      <c r="L38" s="193"/>
-      <c r="M38" s="306"/>
-      <c r="N38" s="194"/>
-      <c r="O38" s="194"/>
-      <c r="P38" s="194"/>
-      <c r="Q38" s="194"/>
-      <c r="R38" s="194"/>
-      <c r="S38" s="194"/>
-      <c r="T38" s="194"/>
-      <c r="U38" s="194"/>
-      <c r="V38" s="194"/>
-      <c r="W38" s="194"/>
-      <c r="X38" s="195"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="148"/>
+      <c r="N38" s="149"/>
+      <c r="O38" s="149"/>
+      <c r="P38" s="149"/>
+      <c r="Q38" s="149"/>
+      <c r="R38" s="149"/>
+      <c r="S38" s="149"/>
+      <c r="T38" s="149"/>
+      <c r="U38" s="149"/>
+      <c r="V38" s="149"/>
+      <c r="W38" s="149"/>
+      <c r="X38" s="150"/>
     </row>
     <row r="39" spans="2:24" ht="15" customHeight="1">
-      <c r="H39" s="271" t="s">
+      <c r="H39" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="272"/>
-      <c r="J39" s="272"/>
-      <c r="K39" s="283" t="s">
+      <c r="I39" s="112"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="L39" s="283"/>
-      <c r="M39" s="283"/>
-      <c r="N39" s="283"/>
-      <c r="O39" s="283"/>
-      <c r="P39" s="283"/>
-      <c r="Q39" s="283"/>
-      <c r="R39" s="283"/>
-      <c r="S39" s="283"/>
-      <c r="T39" s="283"/>
-      <c r="U39" s="283"/>
-      <c r="V39" s="283"/>
-      <c r="W39" s="283"/>
-      <c r="X39" s="284"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="123"/>
+      <c r="N39" s="123"/>
+      <c r="O39" s="123"/>
+      <c r="P39" s="123"/>
+      <c r="Q39" s="123"/>
+      <c r="R39" s="123"/>
+      <c r="S39" s="123"/>
+      <c r="T39" s="123"/>
+      <c r="U39" s="123"/>
+      <c r="V39" s="123"/>
+      <c r="W39" s="123"/>
+      <c r="X39" s="124"/>
     </row>
     <row r="40" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H40" s="273"/>
-      <c r="I40" s="274"/>
-      <c r="J40" s="274"/>
-      <c r="K40" s="285"/>
-      <c r="L40" s="285"/>
-      <c r="M40" s="285"/>
-      <c r="N40" s="285"/>
-      <c r="O40" s="285"/>
-      <c r="P40" s="285"/>
-      <c r="Q40" s="285"/>
-      <c r="R40" s="285"/>
-      <c r="S40" s="285"/>
-      <c r="T40" s="285"/>
-      <c r="U40" s="285"/>
-      <c r="V40" s="285"/>
-      <c r="W40" s="285"/>
-      <c r="X40" s="286"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="125"/>
+      <c r="N40" s="125"/>
+      <c r="O40" s="125"/>
+      <c r="P40" s="125"/>
+      <c r="Q40" s="125"/>
+      <c r="R40" s="125"/>
+      <c r="S40" s="125"/>
+      <c r="T40" s="125"/>
+      <c r="U40" s="125"/>
+      <c r="V40" s="125"/>
+      <c r="W40" s="125"/>
+      <c r="X40" s="126"/>
     </row>
     <row r="41" spans="2:24" ht="15" customHeight="1">
-      <c r="G41" s="235" t="s">
+      <c r="G41" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="259" t="s">
+      <c r="H41" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="I41" s="260"/>
-      <c r="J41" s="245" t="s">
+      <c r="I41" s="100"/>
+      <c r="J41" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="K41" s="246"/>
-      <c r="L41" s="205"/>
-      <c r="M41" s="307"/>
-      <c r="N41" s="206"/>
-      <c r="O41" s="206"/>
-      <c r="P41" s="206"/>
-      <c r="Q41" s="206"/>
-      <c r="R41" s="206"/>
-      <c r="S41" s="206"/>
-      <c r="T41" s="206"/>
-      <c r="U41" s="206"/>
-      <c r="V41" s="206"/>
-      <c r="W41" s="206"/>
-      <c r="X41" s="207"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="171"/>
+      <c r="M41" s="172"/>
+      <c r="N41" s="173"/>
+      <c r="O41" s="173"/>
+      <c r="P41" s="173"/>
+      <c r="Q41" s="173"/>
+      <c r="R41" s="173"/>
+      <c r="S41" s="173"/>
+      <c r="T41" s="173"/>
+      <c r="U41" s="173"/>
+      <c r="V41" s="173"/>
+      <c r="W41" s="173"/>
+      <c r="X41" s="174"/>
     </row>
     <row r="42" spans="2:24" ht="15" customHeight="1">
-      <c r="G42" s="236"/>
-      <c r="H42" s="261"/>
-      <c r="I42" s="262"/>
-      <c r="J42" s="247"/>
-      <c r="K42" s="248"/>
-      <c r="L42" s="164"/>
-      <c r="M42" s="308"/>
-      <c r="N42" s="165"/>
-      <c r="O42" s="165"/>
-      <c r="P42" s="165"/>
-      <c r="Q42" s="165"/>
-      <c r="R42" s="165"/>
-      <c r="S42" s="165"/>
-      <c r="T42" s="165"/>
-      <c r="U42" s="165"/>
-      <c r="V42" s="165"/>
-      <c r="W42" s="165"/>
-      <c r="X42" s="166"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="187"/>
+      <c r="M42" s="188"/>
+      <c r="N42" s="189"/>
+      <c r="O42" s="189"/>
+      <c r="P42" s="189"/>
+      <c r="Q42" s="189"/>
+      <c r="R42" s="189"/>
+      <c r="S42" s="189"/>
+      <c r="T42" s="189"/>
+      <c r="U42" s="189"/>
+      <c r="V42" s="189"/>
+      <c r="W42" s="189"/>
+      <c r="X42" s="190"/>
     </row>
     <row r="43" spans="2:24" ht="15" customHeight="1">
-      <c r="G43" s="236"/>
-      <c r="H43" s="261"/>
-      <c r="I43" s="262"/>
-      <c r="J43" s="247"/>
-      <c r="K43" s="248"/>
-      <c r="L43" s="164"/>
-      <c r="M43" s="308"/>
-      <c r="N43" s="165"/>
-      <c r="O43" s="165"/>
-      <c r="P43" s="165"/>
-      <c r="Q43" s="165"/>
-      <c r="R43" s="165"/>
-      <c r="S43" s="165"/>
-      <c r="T43" s="165"/>
-      <c r="U43" s="165"/>
-      <c r="V43" s="165"/>
-      <c r="W43" s="165"/>
-      <c r="X43" s="166"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="187"/>
+      <c r="M43" s="188"/>
+      <c r="N43" s="189"/>
+      <c r="O43" s="189"/>
+      <c r="P43" s="189"/>
+      <c r="Q43" s="189"/>
+      <c r="R43" s="189"/>
+      <c r="S43" s="189"/>
+      <c r="T43" s="189"/>
+      <c r="U43" s="189"/>
+      <c r="V43" s="189"/>
+      <c r="W43" s="189"/>
+      <c r="X43" s="190"/>
     </row>
     <row r="44" spans="2:24" ht="15" customHeight="1">
-      <c r="G44" s="236"/>
-      <c r="H44" s="261"/>
-      <c r="I44" s="262"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="248"/>
-      <c r="L44" s="164"/>
-      <c r="M44" s="308"/>
-      <c r="N44" s="165"/>
-      <c r="O44" s="165"/>
-      <c r="P44" s="165"/>
-      <c r="Q44" s="165"/>
-      <c r="R44" s="165"/>
-      <c r="S44" s="165"/>
-      <c r="T44" s="165"/>
-      <c r="U44" s="165"/>
-      <c r="V44" s="165"/>
-      <c r="W44" s="165"/>
-      <c r="X44" s="166"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="187"/>
+      <c r="M44" s="188"/>
+      <c r="N44" s="189"/>
+      <c r="O44" s="189"/>
+      <c r="P44" s="189"/>
+      <c r="Q44" s="189"/>
+      <c r="R44" s="189"/>
+      <c r="S44" s="189"/>
+      <c r="T44" s="189"/>
+      <c r="U44" s="189"/>
+      <c r="V44" s="189"/>
+      <c r="W44" s="189"/>
+      <c r="X44" s="190"/>
     </row>
     <row r="45" spans="2:24" ht="15" customHeight="1">
-      <c r="G45" s="236"/>
-      <c r="H45" s="261"/>
-      <c r="I45" s="262"/>
-      <c r="J45" s="247"/>
-      <c r="K45" s="248"/>
-      <c r="L45" s="164"/>
-      <c r="M45" s="308"/>
-      <c r="N45" s="165"/>
-      <c r="O45" s="165"/>
-      <c r="P45" s="165"/>
-      <c r="Q45" s="165"/>
-      <c r="R45" s="165"/>
-      <c r="S45" s="165"/>
-      <c r="T45" s="165"/>
-      <c r="U45" s="165"/>
-      <c r="V45" s="165"/>
-      <c r="W45" s="165"/>
-      <c r="X45" s="166"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="187"/>
+      <c r="M45" s="188"/>
+      <c r="N45" s="189"/>
+      <c r="O45" s="189"/>
+      <c r="P45" s="189"/>
+      <c r="Q45" s="189"/>
+      <c r="R45" s="189"/>
+      <c r="S45" s="189"/>
+      <c r="T45" s="189"/>
+      <c r="U45" s="189"/>
+      <c r="V45" s="189"/>
+      <c r="W45" s="189"/>
+      <c r="X45" s="190"/>
     </row>
     <row r="46" spans="2:24" ht="15" customHeight="1" thickBot="1">
-      <c r="G46" s="237"/>
-      <c r="H46" s="261"/>
-      <c r="I46" s="262"/>
-      <c r="J46" s="247"/>
-      <c r="K46" s="248"/>
-      <c r="L46" s="167"/>
-      <c r="M46" s="309"/>
-      <c r="N46" s="168"/>
-      <c r="O46" s="168"/>
-      <c r="P46" s="168"/>
-      <c r="Q46" s="168"/>
-      <c r="R46" s="168"/>
-      <c r="S46" s="168"/>
-      <c r="T46" s="168"/>
-      <c r="U46" s="168"/>
-      <c r="V46" s="168"/>
-      <c r="W46" s="168"/>
-      <c r="X46" s="169"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="191"/>
+      <c r="M46" s="192"/>
+      <c r="N46" s="193"/>
+      <c r="O46" s="193"/>
+      <c r="P46" s="193"/>
+      <c r="Q46" s="193"/>
+      <c r="R46" s="193"/>
+      <c r="S46" s="193"/>
+      <c r="T46" s="193"/>
+      <c r="U46" s="193"/>
+      <c r="V46" s="193"/>
+      <c r="W46" s="193"/>
+      <c r="X46" s="194"/>
     </row>
     <row r="47" spans="2:24" ht="15" customHeight="1">
-      <c r="H47" s="275" t="s">
+      <c r="H47" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="I47" s="276"/>
-      <c r="J47" s="276"/>
-      <c r="K47" s="287" t="s">
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="L47" s="287"/>
-      <c r="M47" s="287"/>
-      <c r="N47" s="287"/>
-      <c r="O47" s="287"/>
-      <c r="P47" s="287"/>
-      <c r="Q47" s="287"/>
-      <c r="R47" s="287"/>
-      <c r="S47" s="287"/>
-      <c r="T47" s="287"/>
-      <c r="U47" s="287"/>
-      <c r="V47" s="287"/>
-      <c r="W47" s="287"/>
-      <c r="X47" s="288"/>
+      <c r="L47" s="127"/>
+      <c r="M47" s="127"/>
+      <c r="N47" s="127"/>
+      <c r="O47" s="127"/>
+      <c r="P47" s="127"/>
+      <c r="Q47" s="127"/>
+      <c r="R47" s="127"/>
+      <c r="S47" s="127"/>
+      <c r="T47" s="127"/>
+      <c r="U47" s="127"/>
+      <c r="V47" s="127"/>
+      <c r="W47" s="127"/>
+      <c r="X47" s="128"/>
     </row>
     <row r="48" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H48" s="277"/>
-      <c r="I48" s="278"/>
-      <c r="J48" s="278"/>
-      <c r="K48" s="289"/>
-      <c r="L48" s="289"/>
-      <c r="M48" s="289"/>
-      <c r="N48" s="289"/>
-      <c r="O48" s="289"/>
-      <c r="P48" s="289"/>
-      <c r="Q48" s="289"/>
-      <c r="R48" s="289"/>
-      <c r="S48" s="289"/>
-      <c r="T48" s="289"/>
-      <c r="U48" s="289"/>
-      <c r="V48" s="289"/>
-      <c r="W48" s="289"/>
-      <c r="X48" s="290"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="129"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="129"/>
+      <c r="S48" s="129"/>
+      <c r="T48" s="129"/>
+      <c r="U48" s="129"/>
+      <c r="V48" s="129"/>
+      <c r="W48" s="129"/>
+      <c r="X48" s="130"/>
     </row>
     <row r="49" spans="7:24" ht="15" customHeight="1">
-      <c r="G49" s="232" t="s">
+      <c r="G49" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="H49" s="263" t="s">
+      <c r="H49" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="I49" s="264"/>
-      <c r="J49" s="249" t="s">
+      <c r="I49" s="104"/>
+      <c r="J49" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="K49" s="250"/>
-      <c r="L49" s="211"/>
-      <c r="M49" s="310"/>
-      <c r="N49" s="212"/>
-      <c r="O49" s="212"/>
-      <c r="P49" s="212"/>
-      <c r="Q49" s="212"/>
-      <c r="R49" s="212"/>
-      <c r="S49" s="212"/>
-      <c r="T49" s="212"/>
-      <c r="U49" s="212"/>
-      <c r="V49" s="212"/>
-      <c r="W49" s="212"/>
-      <c r="X49" s="213"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="183"/>
+      <c r="M49" s="184"/>
+      <c r="N49" s="185"/>
+      <c r="O49" s="185"/>
+      <c r="P49" s="185"/>
+      <c r="Q49" s="185"/>
+      <c r="R49" s="185"/>
+      <c r="S49" s="185"/>
+      <c r="T49" s="185"/>
+      <c r="U49" s="185"/>
+      <c r="V49" s="185"/>
+      <c r="W49" s="185"/>
+      <c r="X49" s="186"/>
     </row>
     <row r="50" spans="7:24" ht="15" customHeight="1">
-      <c r="G50" s="233"/>
-      <c r="H50" s="265"/>
-      <c r="I50" s="266"/>
-      <c r="J50" s="251"/>
-      <c r="K50" s="252"/>
-      <c r="L50" s="161"/>
-      <c r="M50" s="311"/>
-      <c r="N50" s="162"/>
-      <c r="O50" s="162"/>
-      <c r="P50" s="162"/>
-      <c r="Q50" s="162"/>
-      <c r="R50" s="162"/>
-      <c r="S50" s="162"/>
-      <c r="T50" s="162"/>
-      <c r="U50" s="162"/>
-      <c r="V50" s="162"/>
-      <c r="W50" s="162"/>
-      <c r="X50" s="163"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="175"/>
+      <c r="M50" s="176"/>
+      <c r="N50" s="177"/>
+      <c r="O50" s="177"/>
+      <c r="P50" s="177"/>
+      <c r="Q50" s="177"/>
+      <c r="R50" s="177"/>
+      <c r="S50" s="177"/>
+      <c r="T50" s="177"/>
+      <c r="U50" s="177"/>
+      <c r="V50" s="177"/>
+      <c r="W50" s="177"/>
+      <c r="X50" s="178"/>
     </row>
     <row r="51" spans="7:24" ht="15" customHeight="1">
-      <c r="G51" s="233"/>
-      <c r="H51" s="265"/>
-      <c r="I51" s="266"/>
-      <c r="J51" s="251"/>
-      <c r="K51" s="252"/>
-      <c r="L51" s="161"/>
-      <c r="M51" s="311"/>
-      <c r="N51" s="162"/>
-      <c r="O51" s="162"/>
-      <c r="P51" s="162"/>
-      <c r="Q51" s="162"/>
-      <c r="R51" s="162"/>
-      <c r="S51" s="162"/>
-      <c r="T51" s="162"/>
-      <c r="U51" s="162"/>
-      <c r="V51" s="162"/>
-      <c r="W51" s="162"/>
-      <c r="X51" s="163"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="175"/>
+      <c r="M51" s="176"/>
+      <c r="N51" s="177"/>
+      <c r="O51" s="177"/>
+      <c r="P51" s="177"/>
+      <c r="Q51" s="177"/>
+      <c r="R51" s="177"/>
+      <c r="S51" s="177"/>
+      <c r="T51" s="177"/>
+      <c r="U51" s="177"/>
+      <c r="V51" s="177"/>
+      <c r="W51" s="177"/>
+      <c r="X51" s="178"/>
     </row>
     <row r="52" spans="7:24" ht="15" customHeight="1">
-      <c r="G52" s="233"/>
-      <c r="H52" s="265"/>
-      <c r="I52" s="266"/>
-      <c r="J52" s="251"/>
-      <c r="K52" s="252"/>
-      <c r="L52" s="161"/>
-      <c r="M52" s="311"/>
-      <c r="N52" s="162"/>
-      <c r="O52" s="162"/>
-      <c r="P52" s="162"/>
-      <c r="Q52" s="162"/>
-      <c r="R52" s="162"/>
-      <c r="S52" s="162"/>
-      <c r="T52" s="162"/>
-      <c r="U52" s="162"/>
-      <c r="V52" s="162"/>
-      <c r="W52" s="162"/>
-      <c r="X52" s="163"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="175"/>
+      <c r="M52" s="176"/>
+      <c r="N52" s="177"/>
+      <c r="O52" s="177"/>
+      <c r="P52" s="177"/>
+      <c r="Q52" s="177"/>
+      <c r="R52" s="177"/>
+      <c r="S52" s="177"/>
+      <c r="T52" s="177"/>
+      <c r="U52" s="177"/>
+      <c r="V52" s="177"/>
+      <c r="W52" s="177"/>
+      <c r="X52" s="178"/>
     </row>
     <row r="53" spans="7:24" ht="15" customHeight="1">
-      <c r="G53" s="233"/>
-      <c r="H53" s="265"/>
-      <c r="I53" s="266"/>
-      <c r="J53" s="251"/>
-      <c r="K53" s="252"/>
-      <c r="L53" s="161"/>
-      <c r="M53" s="311"/>
-      <c r="N53" s="162"/>
-      <c r="O53" s="162"/>
-      <c r="P53" s="162"/>
-      <c r="Q53" s="162"/>
-      <c r="R53" s="162"/>
-      <c r="S53" s="162"/>
-      <c r="T53" s="162"/>
-      <c r="U53" s="162"/>
-      <c r="V53" s="162"/>
-      <c r="W53" s="162"/>
-      <c r="X53" s="163"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="92"/>
+      <c r="L53" s="175"/>
+      <c r="M53" s="176"/>
+      <c r="N53" s="177"/>
+      <c r="O53" s="177"/>
+      <c r="P53" s="177"/>
+      <c r="Q53" s="177"/>
+      <c r="R53" s="177"/>
+      <c r="S53" s="177"/>
+      <c r="T53" s="177"/>
+      <c r="U53" s="177"/>
+      <c r="V53" s="177"/>
+      <c r="W53" s="177"/>
+      <c r="X53" s="178"/>
     </row>
     <row r="54" spans="7:24" ht="15" customHeight="1" thickBot="1">
-      <c r="G54" s="234"/>
-      <c r="H54" s="265"/>
-      <c r="I54" s="266"/>
-      <c r="J54" s="251"/>
-      <c r="K54" s="252"/>
-      <c r="L54" s="208"/>
-      <c r="M54" s="312"/>
-      <c r="N54" s="209"/>
-      <c r="O54" s="209"/>
-      <c r="P54" s="209"/>
-      <c r="Q54" s="209"/>
-      <c r="R54" s="209"/>
-      <c r="S54" s="209"/>
-      <c r="T54" s="209"/>
-      <c r="U54" s="209"/>
-      <c r="V54" s="209"/>
-      <c r="W54" s="209"/>
-      <c r="X54" s="210"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="179"/>
+      <c r="M54" s="180"/>
+      <c r="N54" s="181"/>
+      <c r="O54" s="181"/>
+      <c r="P54" s="181"/>
+      <c r="Q54" s="181"/>
+      <c r="R54" s="181"/>
+      <c r="S54" s="181"/>
+      <c r="T54" s="181"/>
+      <c r="U54" s="181"/>
+      <c r="V54" s="181"/>
+      <c r="W54" s="181"/>
+      <c r="X54" s="182"/>
     </row>
     <row r="55" spans="7:24" ht="15" customHeight="1">
-      <c r="H55" s="279" t="s">
+      <c r="H55" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="280"/>
-      <c r="J55" s="280"/>
-      <c r="K55" s="291" t="s">
+      <c r="I55" s="120"/>
+      <c r="J55" s="120"/>
+      <c r="K55" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="L55" s="291"/>
-      <c r="M55" s="291"/>
-      <c r="N55" s="291"/>
-      <c r="O55" s="291"/>
-      <c r="P55" s="291"/>
-      <c r="Q55" s="291"/>
-      <c r="R55" s="291"/>
-      <c r="S55" s="291"/>
-      <c r="T55" s="291"/>
-      <c r="U55" s="291"/>
-      <c r="V55" s="291"/>
-      <c r="W55" s="291"/>
-      <c r="X55" s="292"/>
+      <c r="L55" s="131"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="131"/>
+      <c r="O55" s="131"/>
+      <c r="P55" s="131"/>
+      <c r="Q55" s="131"/>
+      <c r="R55" s="131"/>
+      <c r="S55" s="131"/>
+      <c r="T55" s="131"/>
+      <c r="U55" s="131"/>
+      <c r="V55" s="131"/>
+      <c r="W55" s="131"/>
+      <c r="X55" s="132"/>
     </row>
     <row r="56" spans="7:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H56" s="281"/>
-      <c r="I56" s="282"/>
-      <c r="J56" s="282"/>
-      <c r="K56" s="293"/>
-      <c r="L56" s="293"/>
-      <c r="M56" s="293"/>
-      <c r="N56" s="293"/>
-      <c r="O56" s="293"/>
-      <c r="P56" s="293"/>
-      <c r="Q56" s="293"/>
-      <c r="R56" s="293"/>
-      <c r="S56" s="293"/>
-      <c r="T56" s="293"/>
-      <c r="U56" s="293"/>
-      <c r="V56" s="293"/>
-      <c r="W56" s="293"/>
-      <c r="X56" s="294"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="133"/>
+      <c r="M56" s="133"/>
+      <c r="N56" s="133"/>
+      <c r="O56" s="133"/>
+      <c r="P56" s="133"/>
+      <c r="Q56" s="133"/>
+      <c r="R56" s="133"/>
+      <c r="S56" s="133"/>
+      <c r="T56" s="133"/>
+      <c r="U56" s="133"/>
+      <c r="V56" s="133"/>
+      <c r="W56" s="133"/>
+      <c r="X56" s="134"/>
     </row>
     <row r="57" spans="7:24" ht="15" customHeight="1">
-      <c r="G57" s="229" t="s">
+      <c r="G57" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H57" s="267" t="s">
+      <c r="H57" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="I57" s="268"/>
-      <c r="J57" s="253" t="s">
+      <c r="I57" s="108"/>
+      <c r="J57" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="K57" s="254"/>
-      <c r="L57" s="199"/>
-      <c r="M57" s="313"/>
-      <c r="N57" s="200"/>
-      <c r="O57" s="200"/>
-      <c r="P57" s="200"/>
-      <c r="Q57" s="200"/>
-      <c r="R57" s="200"/>
-      <c r="S57" s="200"/>
-      <c r="T57" s="200"/>
-      <c r="U57" s="200"/>
-      <c r="V57" s="200"/>
-      <c r="W57" s="200"/>
-      <c r="X57" s="201"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="163"/>
+      <c r="M57" s="164"/>
+      <c r="N57" s="165"/>
+      <c r="O57" s="165"/>
+      <c r="P57" s="165"/>
+      <c r="Q57" s="165"/>
+      <c r="R57" s="165"/>
+      <c r="S57" s="165"/>
+      <c r="T57" s="165"/>
+      <c r="U57" s="165"/>
+      <c r="V57" s="165"/>
+      <c r="W57" s="165"/>
+      <c r="X57" s="166"/>
     </row>
     <row r="58" spans="7:24" ht="15" customHeight="1">
-      <c r="G58" s="230"/>
-      <c r="H58" s="269"/>
-      <c r="I58" s="270"/>
-      <c r="J58" s="255"/>
-      <c r="K58" s="256"/>
-      <c r="L58" s="202"/>
-      <c r="M58" s="314"/>
-      <c r="N58" s="203"/>
-      <c r="O58" s="203"/>
-      <c r="P58" s="203"/>
-      <c r="Q58" s="203"/>
-      <c r="R58" s="203"/>
-      <c r="S58" s="203"/>
-      <c r="T58" s="203"/>
-      <c r="U58" s="203"/>
-      <c r="V58" s="203"/>
-      <c r="W58" s="203"/>
-      <c r="X58" s="204"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="167"/>
+      <c r="M58" s="168"/>
+      <c r="N58" s="169"/>
+      <c r="O58" s="169"/>
+      <c r="P58" s="169"/>
+      <c r="Q58" s="169"/>
+      <c r="R58" s="169"/>
+      <c r="S58" s="169"/>
+      <c r="T58" s="169"/>
+      <c r="U58" s="169"/>
+      <c r="V58" s="169"/>
+      <c r="W58" s="169"/>
+      <c r="X58" s="170"/>
     </row>
     <row r="59" spans="7:24" ht="15" customHeight="1">
-      <c r="G59" s="230"/>
-      <c r="H59" s="269"/>
-      <c r="I59" s="270"/>
-      <c r="J59" s="255"/>
-      <c r="K59" s="256"/>
-      <c r="L59" s="202"/>
-      <c r="M59" s="314"/>
-      <c r="N59" s="203"/>
-      <c r="O59" s="203"/>
-      <c r="P59" s="203"/>
-      <c r="Q59" s="203"/>
-      <c r="R59" s="203"/>
-      <c r="S59" s="203"/>
-      <c r="T59" s="203"/>
-      <c r="U59" s="203"/>
-      <c r="V59" s="203"/>
-      <c r="W59" s="203"/>
-      <c r="X59" s="204"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="167"/>
+      <c r="M59" s="168"/>
+      <c r="N59" s="169"/>
+      <c r="O59" s="169"/>
+      <c r="P59" s="169"/>
+      <c r="Q59" s="169"/>
+      <c r="R59" s="169"/>
+      <c r="S59" s="169"/>
+      <c r="T59" s="169"/>
+      <c r="U59" s="169"/>
+      <c r="V59" s="169"/>
+      <c r="W59" s="169"/>
+      <c r="X59" s="170"/>
     </row>
     <row r="60" spans="7:24" ht="15" customHeight="1">
-      <c r="G60" s="230"/>
-      <c r="H60" s="269"/>
-      <c r="I60" s="270"/>
-      <c r="J60" s="255"/>
-      <c r="K60" s="256"/>
-      <c r="L60" s="202"/>
-      <c r="M60" s="314"/>
-      <c r="N60" s="203"/>
-      <c r="O60" s="203"/>
-      <c r="P60" s="203"/>
-      <c r="Q60" s="203"/>
-      <c r="R60" s="203"/>
-      <c r="S60" s="203"/>
-      <c r="T60" s="203"/>
-      <c r="U60" s="203"/>
-      <c r="V60" s="203"/>
-      <c r="W60" s="203"/>
-      <c r="X60" s="204"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="96"/>
+      <c r="L60" s="167"/>
+      <c r="M60" s="168"/>
+      <c r="N60" s="169"/>
+      <c r="O60" s="169"/>
+      <c r="P60" s="169"/>
+      <c r="Q60" s="169"/>
+      <c r="R60" s="169"/>
+      <c r="S60" s="169"/>
+      <c r="T60" s="169"/>
+      <c r="U60" s="169"/>
+      <c r="V60" s="169"/>
+      <c r="W60" s="169"/>
+      <c r="X60" s="170"/>
     </row>
     <row r="61" spans="7:24" ht="15" customHeight="1">
-      <c r="G61" s="230"/>
-      <c r="H61" s="269"/>
-      <c r="I61" s="270"/>
-      <c r="J61" s="255"/>
-      <c r="K61" s="256"/>
-      <c r="L61" s="202"/>
-      <c r="M61" s="314"/>
-      <c r="N61" s="203"/>
-      <c r="O61" s="203"/>
-      <c r="P61" s="203"/>
-      <c r="Q61" s="203"/>
-      <c r="R61" s="203"/>
-      <c r="S61" s="203"/>
-      <c r="T61" s="203"/>
-      <c r="U61" s="203"/>
-      <c r="V61" s="203"/>
-      <c r="W61" s="203"/>
-      <c r="X61" s="204"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="110"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="167"/>
+      <c r="M61" s="168"/>
+      <c r="N61" s="169"/>
+      <c r="O61" s="169"/>
+      <c r="P61" s="169"/>
+      <c r="Q61" s="169"/>
+      <c r="R61" s="169"/>
+      <c r="S61" s="169"/>
+      <c r="T61" s="169"/>
+      <c r="U61" s="169"/>
+      <c r="V61" s="169"/>
+      <c r="W61" s="169"/>
+      <c r="X61" s="170"/>
     </row>
     <row r="62" spans="7:24" ht="15" customHeight="1" thickBot="1">
-      <c r="G62" s="231"/>
-      <c r="H62" s="269"/>
-      <c r="I62" s="270"/>
-      <c r="J62" s="257"/>
-      <c r="K62" s="258"/>
-      <c r="L62" s="182"/>
-      <c r="M62" s="315"/>
-      <c r="N62" s="183"/>
-      <c r="O62" s="183"/>
-      <c r="P62" s="183"/>
-      <c r="Q62" s="183"/>
-      <c r="R62" s="183"/>
-      <c r="S62" s="183"/>
-      <c r="T62" s="183"/>
-      <c r="U62" s="183"/>
-      <c r="V62" s="183"/>
-      <c r="W62" s="183"/>
-      <c r="X62" s="184"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="109"/>
+      <c r="I62" s="110"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="98"/>
+      <c r="L62" s="135"/>
+      <c r="M62" s="136"/>
+      <c r="N62" s="137"/>
+      <c r="O62" s="137"/>
+      <c r="P62" s="137"/>
+      <c r="Q62" s="137"/>
+      <c r="R62" s="137"/>
+      <c r="S62" s="137"/>
+      <c r="T62" s="137"/>
+      <c r="U62" s="137"/>
+      <c r="V62" s="137"/>
+      <c r="W62" s="137"/>
+      <c r="X62" s="138"/>
     </row>
     <row r="63" spans="7:24" ht="15" customHeight="1">
-      <c r="H63" s="185" t="s">
+      <c r="H63" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="186"/>
-      <c r="J63" s="186"/>
-      <c r="K63" s="189" t="s">
+      <c r="I63" s="140"/>
+      <c r="J63" s="140"/>
+      <c r="K63" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="L63" s="189"/>
-      <c r="M63" s="189"/>
-      <c r="N63" s="189"/>
-      <c r="O63" s="189"/>
-      <c r="P63" s="189"/>
-      <c r="Q63" s="189"/>
-      <c r="R63" s="189"/>
-      <c r="S63" s="189"/>
-      <c r="T63" s="189"/>
-      <c r="U63" s="189"/>
-      <c r="V63" s="189"/>
-      <c r="W63" s="189"/>
-      <c r="X63" s="190"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="62"/>
+      <c r="O63" s="62"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="62"/>
+      <c r="S63" s="62"/>
+      <c r="T63" s="62"/>
+      <c r="U63" s="62"/>
+      <c r="V63" s="62"/>
+      <c r="W63" s="62"/>
+      <c r="X63" s="63"/>
     </row>
     <row r="64" spans="7:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H64" s="187"/>
-      <c r="I64" s="188"/>
-      <c r="J64" s="188"/>
-      <c r="K64" s="191"/>
-      <c r="L64" s="191"/>
-      <c r="M64" s="191"/>
-      <c r="N64" s="191"/>
-      <c r="O64" s="191"/>
-      <c r="P64" s="191"/>
-      <c r="Q64" s="191"/>
-      <c r="R64" s="191"/>
-      <c r="S64" s="191"/>
-      <c r="T64" s="191"/>
-      <c r="U64" s="191"/>
-      <c r="V64" s="191"/>
-      <c r="W64" s="191"/>
-      <c r="X64" s="192"/>
-    </row>
-    <row r="65" spans="11:24">
-      <c r="K65" s="225" t="s">
+      <c r="H64" s="141"/>
+      <c r="I64" s="142"/>
+      <c r="J64" s="142"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
+      <c r="M64" s="65"/>
+      <c r="N64" s="65"/>
+      <c r="O64" s="65"/>
+      <c r="P64" s="65"/>
+      <c r="Q64" s="65"/>
+      <c r="R64" s="65"/>
+      <c r="S64" s="65"/>
+      <c r="T64" s="65"/>
+      <c r="U64" s="65"/>
+      <c r="V64" s="65"/>
+      <c r="W64" s="65"/>
+      <c r="X64" s="66"/>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="K65" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="L65" s="189"/>
-      <c r="M65" s="189"/>
-      <c r="N65" s="189"/>
-      <c r="O65" s="189"/>
-      <c r="P65" s="189"/>
-      <c r="Q65" s="189"/>
-      <c r="R65" s="189"/>
-      <c r="S65" s="189"/>
-      <c r="T65" s="189"/>
-      <c r="U65" s="189"/>
-      <c r="V65" s="189"/>
-      <c r="W65" s="189"/>
-      <c r="X65" s="190"/>
-    </row>
-    <row r="66" spans="11:24" ht="15.75" thickBot="1">
-      <c r="K66" s="226"/>
-      <c r="L66" s="191"/>
-      <c r="M66" s="191"/>
-      <c r="N66" s="191"/>
-      <c r="O66" s="191"/>
-      <c r="P66" s="191"/>
-      <c r="Q66" s="191"/>
-      <c r="R66" s="191"/>
-      <c r="S66" s="191"/>
-      <c r="T66" s="191"/>
-      <c r="U66" s="191"/>
-      <c r="V66" s="191"/>
-      <c r="W66" s="191"/>
-      <c r="X66" s="192"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="62"/>
+      <c r="O65" s="62"/>
+      <c r="P65" s="62"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="62"/>
+      <c r="S65" s="62"/>
+      <c r="T65" s="62"/>
+      <c r="U65" s="62"/>
+      <c r="V65" s="62"/>
+      <c r="W65" s="62"/>
+      <c r="X65" s="63"/>
+    </row>
+    <row r="66" spans="1:24" ht="15.75" thickBot="1">
+      <c r="K66" s="64"/>
+      <c r="L66" s="65"/>
+      <c r="M66" s="65"/>
+      <c r="N66" s="65"/>
+      <c r="O66" s="65"/>
+      <c r="P66" s="65"/>
+      <c r="Q66" s="65"/>
+      <c r="R66" s="65"/>
+      <c r="S66" s="65"/>
+      <c r="T66" s="65"/>
+      <c r="U66" s="65"/>
+      <c r="V66" s="65"/>
+      <c r="W66" s="65"/>
+      <c r="X66" s="66"/>
+    </row>
+    <row r="71" spans="1:24" ht="23.25">
+      <c r="A71" s="333"/>
+      <c r="B71" s="333"/>
+      <c r="C71" s="333"/>
+      <c r="D71" s="333"/>
+      <c r="E71" s="333"/>
+      <c r="F71" s="333"/>
+      <c r="G71" s="333"/>
+      <c r="H71" s="333"/>
+    </row>
+    <row r="72" spans="1:24" ht="23.25">
+      <c r="A72" s="334" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="328"/>
+      <c r="C72" s="334" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="328"/>
+      <c r="E72" s="334" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="328"/>
+      <c r="G72" s="334" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" s="328"/>
+    </row>
+    <row r="73" spans="1:24" ht="23.25">
+      <c r="A73" s="340" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="336"/>
+      <c r="C73" s="335" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="336"/>
+      <c r="E73" s="344" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" s="345"/>
+      <c r="G73" s="334" t="s">
+        <v>88</v>
+      </c>
+      <c r="H73" s="328"/>
+    </row>
+    <row r="74" spans="1:24" ht="23.25">
+      <c r="A74" s="341"/>
+      <c r="B74" s="338"/>
+      <c r="C74" s="337"/>
+      <c r="D74" s="338"/>
+      <c r="E74" s="346"/>
+      <c r="F74" s="347"/>
+      <c r="G74" s="334" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="328"/>
+    </row>
+    <row r="75" spans="1:24" ht="23.25">
+      <c r="A75" s="341"/>
+      <c r="B75" s="338"/>
+      <c r="C75" s="337"/>
+      <c r="D75" s="338"/>
+      <c r="E75" s="342" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" s="343"/>
+      <c r="G75" s="334" t="s">
+        <v>89</v>
+      </c>
+      <c r="H75" s="328"/>
+    </row>
+    <row r="76" spans="1:24" ht="23.25">
+      <c r="A76" s="341"/>
+      <c r="B76" s="338"/>
+      <c r="C76" s="339"/>
+      <c r="D76" s="161"/>
+      <c r="E76" s="334"/>
+      <c r="F76" s="328"/>
+      <c r="G76" s="334"/>
+      <c r="H76" s="328"/>
+    </row>
+    <row r="77" spans="1:24" ht="23.25">
+      <c r="A77" s="341"/>
+      <c r="B77" s="338"/>
+      <c r="C77" s="335" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="336"/>
+      <c r="E77" s="342" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" s="343"/>
+      <c r="G77" s="334" t="s">
+        <v>90</v>
+      </c>
+      <c r="H77" s="328"/>
+    </row>
+    <row r="78" spans="1:24" ht="23.25">
+      <c r="A78" s="341"/>
+      <c r="B78" s="338"/>
+      <c r="C78" s="337"/>
+      <c r="D78" s="338"/>
+      <c r="E78" s="342" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" s="343"/>
+      <c r="G78" s="334"/>
+      <c r="H78" s="328"/>
+    </row>
+    <row r="79" spans="1:24" ht="23.25">
+      <c r="A79" s="341"/>
+      <c r="B79" s="338"/>
+      <c r="C79" s="337"/>
+      <c r="D79" s="338"/>
+      <c r="E79" s="342" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" s="343"/>
+      <c r="G79" s="334"/>
+      <c r="H79" s="328"/>
+    </row>
+    <row r="80" spans="1:24" ht="23.25">
+      <c r="A80" s="341"/>
+      <c r="B80" s="338"/>
+      <c r="C80" s="339"/>
+      <c r="D80" s="161"/>
+      <c r="E80" s="342" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" s="343"/>
+      <c r="G80" s="334"/>
+      <c r="H80" s="328"/>
+    </row>
+    <row r="81" spans="1:8" ht="23.25">
+      <c r="A81" s="341"/>
+      <c r="B81" s="338"/>
+      <c r="C81" s="335" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" s="336"/>
+      <c r="E81" s="334"/>
+      <c r="F81" s="328"/>
+      <c r="G81" s="334"/>
+      <c r="H81" s="328"/>
+    </row>
+    <row r="82" spans="1:8" ht="23.25">
+      <c r="A82" s="341"/>
+      <c r="B82" s="338"/>
+      <c r="C82" s="337"/>
+      <c r="D82" s="338"/>
+      <c r="E82" s="342" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" s="343"/>
+      <c r="G82" s="334" t="s">
+        <v>70</v>
+      </c>
+      <c r="H82" s="328"/>
+    </row>
+    <row r="83" spans="1:8" ht="23.25">
+      <c r="A83" s="341"/>
+      <c r="B83" s="338"/>
+      <c r="C83" s="337"/>
+      <c r="D83" s="338"/>
+      <c r="E83" s="342" t="s">
+        <v>87</v>
+      </c>
+      <c r="F83" s="343"/>
+      <c r="G83" s="334"/>
+      <c r="H83" s="328"/>
+    </row>
+    <row r="84" spans="1:8" ht="23.25">
+      <c r="A84" s="341"/>
+      <c r="B84" s="338"/>
+      <c r="C84" s="339"/>
+      <c r="D84" s="161"/>
+      <c r="E84" s="334"/>
+      <c r="F84" s="328"/>
+      <c r="G84" s="334"/>
+      <c r="H84" s="328"/>
+    </row>
+    <row r="85" spans="1:8" ht="23.25">
+      <c r="A85" s="341"/>
+      <c r="B85" s="338"/>
+      <c r="C85" s="335" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" s="336"/>
+      <c r="E85" s="334"/>
+      <c r="F85" s="328"/>
+      <c r="G85" s="334"/>
+      <c r="H85" s="328"/>
+    </row>
+    <row r="86" spans="1:8" ht="23.25">
+      <c r="A86" s="341"/>
+      <c r="B86" s="338"/>
+      <c r="C86" s="339"/>
+      <c r="D86" s="161"/>
+      <c r="E86" s="334"/>
+      <c r="F86" s="328"/>
+      <c r="G86" s="334"/>
+      <c r="H86" s="328"/>
     </row>
   </sheetData>
-  <mergeCells count="125">
+  <mergeCells count="161">
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="A73:B86"/>
+    <mergeCell ref="C73:D76"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="C77:D80"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="C81:D84"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="J28:X29"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="S20:T21"/>
+    <mergeCell ref="L20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="K2:N3"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="L22:T23"/>
+    <mergeCell ref="K5:W5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="K7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="L50:X50"/>
+    <mergeCell ref="L51:X51"/>
+    <mergeCell ref="L42:X42"/>
+    <mergeCell ref="L43:X43"/>
+    <mergeCell ref="L44:X44"/>
+    <mergeCell ref="L45:X45"/>
+    <mergeCell ref="L46:X46"/>
+    <mergeCell ref="J31:X32"/>
+    <mergeCell ref="L33:X33"/>
+    <mergeCell ref="L34:X34"/>
+    <mergeCell ref="L35:X35"/>
+    <mergeCell ref="L36:X36"/>
+    <mergeCell ref="L62:X62"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="K63:X64"/>
+    <mergeCell ref="L37:X37"/>
+    <mergeCell ref="L38:X38"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="L57:X57"/>
+    <mergeCell ref="L58:X58"/>
+    <mergeCell ref="L59:X59"/>
+    <mergeCell ref="L60:X60"/>
+    <mergeCell ref="L61:X61"/>
+    <mergeCell ref="L41:X41"/>
+    <mergeCell ref="L52:X52"/>
+    <mergeCell ref="L53:X53"/>
+    <mergeCell ref="L54:X54"/>
+    <mergeCell ref="L49:X49"/>
     <mergeCell ref="B19:C20"/>
     <mergeCell ref="E19:G20"/>
     <mergeCell ref="C23:D23"/>
@@ -4573,107 +5022,6 @@
     <mergeCell ref="K39:X40"/>
     <mergeCell ref="K47:X48"/>
     <mergeCell ref="K55:X56"/>
-    <mergeCell ref="L62:X62"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="K63:X64"/>
-    <mergeCell ref="L37:X37"/>
-    <mergeCell ref="L38:X38"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="L57:X57"/>
-    <mergeCell ref="L58:X58"/>
-    <mergeCell ref="L59:X59"/>
-    <mergeCell ref="L60:X60"/>
-    <mergeCell ref="L61:X61"/>
-    <mergeCell ref="L41:X41"/>
-    <mergeCell ref="L52:X52"/>
-    <mergeCell ref="L53:X53"/>
-    <mergeCell ref="L54:X54"/>
-    <mergeCell ref="L49:X49"/>
-    <mergeCell ref="L50:X50"/>
-    <mergeCell ref="L51:X51"/>
-    <mergeCell ref="L42:X42"/>
-    <mergeCell ref="L43:X43"/>
-    <mergeCell ref="L44:X44"/>
-    <mergeCell ref="L45:X45"/>
-    <mergeCell ref="L46:X46"/>
-    <mergeCell ref="J31:X32"/>
-    <mergeCell ref="L33:X33"/>
-    <mergeCell ref="L34:X34"/>
-    <mergeCell ref="L35:X35"/>
-    <mergeCell ref="L36:X36"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="P2:R3"/>
-    <mergeCell ref="J28:X29"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="S20:T21"/>
-    <mergeCell ref="L20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="K2:N3"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="L22:T23"/>
-    <mergeCell ref="K5:W5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="K7:L10"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H24:H29"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="N15:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4682,13 +5030,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:J18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="18.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="333" hidden="1" customWidth="1"/>
+    <col min="2" max="16384" width="13.7109375" style="333"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" ht="7.5" customHeight="1"/>
+    <row r="2" spans="3:10" ht="18.75" hidden="1" customHeight="1"/>
+    <row r="4" spans="3:10" ht="18.75" customHeight="1">
+      <c r="C4" s="334" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="328"/>
+      <c r="E4" s="334" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="328"/>
+      <c r="G4" s="334" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="328"/>
+      <c r="I4" s="334" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="328"/>
+    </row>
+    <row r="5" spans="3:10" ht="18.75" customHeight="1">
+      <c r="C5" s="340" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="336"/>
+      <c r="E5" s="335" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="336"/>
+      <c r="G5" s="344" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="345"/>
+      <c r="I5" s="334" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="328"/>
+    </row>
+    <row r="6" spans="3:10" ht="18.75" customHeight="1">
+      <c r="C6" s="341"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="337"/>
+      <c r="F6" s="338"/>
+      <c r="G6" s="346"/>
+      <c r="H6" s="347"/>
+      <c r="I6" s="334" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="328"/>
+    </row>
+    <row r="7" spans="3:10" ht="18.75" customHeight="1">
+      <c r="C7" s="341"/>
+      <c r="D7" s="338"/>
+      <c r="E7" s="337"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="342" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="343"/>
+      <c r="I7" s="334" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="328"/>
+    </row>
+    <row r="8" spans="3:10" ht="18.75" customHeight="1">
+      <c r="C8" s="341"/>
+      <c r="D8" s="338"/>
+      <c r="E8" s="339"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="334"/>
+      <c r="H8" s="328"/>
+      <c r="I8" s="334"/>
+      <c r="J8" s="328"/>
+    </row>
+    <row r="9" spans="3:10" ht="18.75" customHeight="1">
+      <c r="C9" s="341"/>
+      <c r="D9" s="338"/>
+      <c r="E9" s="335" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="336"/>
+      <c r="G9" s="342" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="343"/>
+      <c r="I9" s="334" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="328"/>
+    </row>
+    <row r="10" spans="3:10" ht="18.75" customHeight="1">
+      <c r="C10" s="341"/>
+      <c r="D10" s="338"/>
+      <c r="E10" s="337"/>
+      <c r="F10" s="338"/>
+      <c r="G10" s="342" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="343"/>
+      <c r="I10" s="334"/>
+      <c r="J10" s="328"/>
+    </row>
+    <row r="11" spans="3:10" ht="18.75" customHeight="1">
+      <c r="C11" s="341"/>
+      <c r="D11" s="338"/>
+      <c r="E11" s="337"/>
+      <c r="F11" s="338"/>
+      <c r="G11" s="342" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="343"/>
+      <c r="I11" s="334"/>
+      <c r="J11" s="328"/>
+    </row>
+    <row r="12" spans="3:10" ht="18.75" customHeight="1">
+      <c r="C12" s="341"/>
+      <c r="D12" s="338"/>
+      <c r="E12" s="339"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="342" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="343"/>
+      <c r="I12" s="334"/>
+      <c r="J12" s="328"/>
+    </row>
+    <row r="13" spans="3:10" ht="18.75" customHeight="1">
+      <c r="C13" s="341"/>
+      <c r="D13" s="338"/>
+      <c r="E13" s="335" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="336"/>
+      <c r="G13" s="334"/>
+      <c r="H13" s="328"/>
+      <c r="I13" s="334"/>
+      <c r="J13" s="328"/>
+    </row>
+    <row r="14" spans="3:10" ht="18.75" customHeight="1">
+      <c r="C14" s="341"/>
+      <c r="D14" s="338"/>
+      <c r="E14" s="337"/>
+      <c r="F14" s="338"/>
+      <c r="G14" s="342" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="343"/>
+      <c r="I14" s="334" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="328"/>
+    </row>
+    <row r="15" spans="3:10" ht="18.75" customHeight="1">
+      <c r="C15" s="341"/>
+      <c r="D15" s="338"/>
+      <c r="E15" s="337"/>
+      <c r="F15" s="338"/>
+      <c r="G15" s="342" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="343"/>
+      <c r="I15" s="334"/>
+      <c r="J15" s="328"/>
+    </row>
+    <row r="16" spans="3:10" ht="18.75" customHeight="1">
+      <c r="C16" s="341"/>
+      <c r="D16" s="338"/>
+      <c r="E16" s="339"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="334"/>
+      <c r="H16" s="328"/>
+      <c r="I16" s="334"/>
+      <c r="J16" s="328"/>
+    </row>
+    <row r="17" spans="3:10" ht="18.75" customHeight="1">
+      <c r="C17" s="341"/>
+      <c r="D17" s="338"/>
+      <c r="E17" s="335" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="336"/>
+      <c r="G17" s="334"/>
+      <c r="H17" s="328"/>
+      <c r="I17" s="334"/>
+      <c r="J17" s="328"/>
+    </row>
+    <row r="18" spans="3:10" ht="18.75" customHeight="1">
+      <c r="C18" s="341"/>
+      <c r="D18" s="338"/>
+      <c r="E18" s="339"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="334"/>
+      <c r="H18" s="328"/>
+      <c r="I18" s="334"/>
+      <c r="J18" s="328"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="E9:F12"/>
+    <mergeCell ref="E13:F16"/>
+    <mergeCell ref="C5:D18"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
